--- a/survey/NW Florida Hydrologic Field Form.xlsx
+++ b/survey/NW Florida Hydrologic Field Form.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3502" uniqueCount="2343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3488" uniqueCount="2340">
   <si>
     <t>Question type</t>
   </si>
@@ -5965,9 +5965,6 @@
     <t>DataLoggerNotFixed</t>
   </si>
   <si>
-    <t>&lt;b&gt; ↑ Please return to the Issue Section and record the problem↑&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>Are the inventory records correct?</t>
   </si>
   <si>
@@ -6127,12 +6124,6 @@
     <t>${GroundwaterHasDataLogger}='Yes' and ${DifGroundwater}='No'</t>
   </si>
   <si>
-    <t>NoteGroundwaterTemp</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;↓ Please scroll down to Temperature section to record temperature ↓&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>${HasWaterQuality}='Yes'</t>
   </si>
   <si>
@@ -6223,9 +6214,6 @@
     <t>&lt;font color='red'&gt;The difference between manual level and sensor level is greater than 10%. Please remeasure the conductivity, correct the error, or record a reason.&lt;/font&gt;</t>
   </si>
   <si>
-    <t>NoteConductivityTemp</t>
-  </si>
-  <si>
     <t>TemperatureDifferenceAmount</t>
   </si>
   <si>
@@ -6313,9 +6301,6 @@
     <t>Is there an issue at the inspection?</t>
   </si>
   <si>
-    <t>&lt;b&gt;↓ Please navigate to the Issue Section and update the inventory ↓&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>Inventory</t>
   </si>
   <si>
@@ -6502,9 +6487,6 @@
     <t>NoteGroundwaterMeasurement</t>
   </si>
   <si>
-    <t>&lt;b&gt; ↑ Please scroll up and retake the groundwater measurement ↑ &lt;/b&gt;</t>
-  </si>
-  <si>
     <t>if(/NW_Florida_Hydrologic_Field_Form/LocationVisit/Groundwater_start/GroundwaterMeasurement/SensorAdjustmentAmount&gt;0.02, 'Yes',if(/NW_Florida_Hydrologic_Field_Form/LocationVisit/Groundwater_start/GroundwaterMeasurement/SensorAdjustmentAmount&lt;-0.02,'Yes', 'No'))</t>
   </si>
   <si>
@@ -6587,9 +6569,6 @@
   </si>
   <si>
     <t>Battery Replacement Time</t>
-  </si>
-  <si>
-    <t>It is recommended to attach compressed file</t>
   </si>
   <si>
     <t>Was the Initial Beam Checked?</t>
@@ -7112,9 +7091,6 @@
     <t>NoteMinuteInterval</t>
   </si>
   <si>
-    <t>NoteADVMTemp</t>
-  </si>
-  <si>
     <t>NoteStageStart</t>
   </si>
   <si>
@@ -7188,6 +7164,21 @@
   </si>
   <si>
     <t>Maintenance Type</t>
+  </si>
+  <si>
+    <t>&lt;font color="red"&gt;Navigate to the Issue Section and update the inventory&lt;/font&gt;</t>
+  </si>
+  <si>
+    <t>&lt;font color="red"&gt;Please return to the Issue Section and record the problem&lt;/font&gt;</t>
+  </si>
+  <si>
+    <t>Attach compressed file</t>
+  </si>
+  <si>
+    <t>.zip</t>
+  </si>
+  <si>
+    <t>&lt;font color="red"&gt;Please scroll up and retake the measurement&lt;/font&gt;</t>
   </si>
 </sst>
 </file>
@@ -8125,9 +8116,9 @@
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FFFFCDCD"/>
       <color rgb="FFD6DCE4"/>
       <color rgb="FFE0D0F8"/>
-      <color rgb="FFFFCDCD"/>
     </mruColors>
   </colors>
   <extLst>
@@ -8142,7 +8133,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="tblSurvey" displayName="tblSurvey" ref="A1:AJ277" totalsRowShown="0" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="tblSurvey" displayName="tblSurvey" ref="A1:AJ274" totalsRowShown="0" headerRowDxfId="27">
   <tableColumns count="36">
     <tableColumn id="1" name="type"/>
     <tableColumn id="2" name="name"/>
@@ -8531,11 +8522,11 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AJ278"/>
+  <dimension ref="A1:AJ275"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N157" sqref="N157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8638,7 +8629,7 @@
         <v>1313</v>
       </c>
       <c r="AC1" s="12" t="s">
-        <v>2303</v>
+        <v>2296</v>
       </c>
       <c r="AD1" s="12" t="s">
         <v>1328</v>
@@ -8741,10 +8732,10 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>2156</v>
+        <v>2149</v>
       </c>
       <c r="C7" t="s">
-        <v>2156</v>
+        <v>2149</v>
       </c>
       <c r="I7" t="s">
         <v>1881</v>
@@ -8790,7 +8781,7 @@
         <v>1881</v>
       </c>
       <c r="X9" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -8844,7 +8835,7 @@
         <v>1511</v>
       </c>
       <c r="B12" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C12" t="s">
         <v>1512</v>
@@ -9005,10 +8996,10 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>2052</v>
+        <v>2047</v>
       </c>
       <c r="C20" t="s">
-        <v>2052</v>
+        <v>2047</v>
       </c>
       <c r="F20" t="s">
         <v>79</v>
@@ -9019,10 +9010,10 @@
         <v>1503</v>
       </c>
       <c r="B21" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C21" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="F21" t="s">
         <v>55</v>
@@ -9033,13 +9024,13 @@
     </row>
     <row r="22" spans="1:36">
       <c r="A22" s="62" t="s">
-        <v>15</v>
+        <v>2329</v>
       </c>
       <c r="B22" s="62" t="s">
-        <v>2048</v>
+        <v>2044</v>
       </c>
       <c r="C22" s="61" t="s">
-        <v>2051</v>
+        <v>2335</v>
       </c>
       <c r="D22" s="62"/>
       <c r="E22" s="62"/>
@@ -9052,7 +9043,7 @@
       <c r="L22" s="62"/>
       <c r="M22" s="62"/>
       <c r="N22" s="62" t="s">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="O22" s="62"/>
       <c r="P22" s="62"/>
@@ -9112,7 +9103,7 @@
       <c r="V23" s="64"/>
       <c r="W23" s="64"/>
       <c r="X23" s="64" t="s">
-        <v>2057</v>
+        <v>2052</v>
       </c>
       <c r="Y23" s="64"/>
       <c r="Z23" s="64"/>
@@ -9282,13 +9273,13 @@
         <v>38</v>
       </c>
       <c r="B27" s="64" t="s">
-        <v>2285</v>
+        <v>2278</v>
       </c>
       <c r="C27" s="64" t="s">
-        <v>2285</v>
+        <v>2278</v>
       </c>
       <c r="D27" s="64" t="s">
-        <v>2286</v>
+        <v>2279</v>
       </c>
       <c r="E27" s="64"/>
       <c r="F27" s="64"/>
@@ -9360,7 +9351,7 @@
       <c r="V28" s="64"/>
       <c r="W28" s="64"/>
       <c r="X28" s="64" t="s">
-        <v>2057</v>
+        <v>2052</v>
       </c>
       <c r="Y28" s="64"/>
       <c r="Z28" s="64"/>
@@ -9530,7 +9521,7 @@
         <v>35</v>
       </c>
       <c r="B32" s="64" t="s">
-        <v>2053</v>
+        <v>2048</v>
       </c>
       <c r="C32" s="64"/>
       <c r="D32" s="64"/>
@@ -9541,7 +9532,7 @@
       <c r="I32" s="64"/>
       <c r="J32" s="64"/>
       <c r="K32" s="64" t="s">
-        <v>2092</v>
+        <v>2087</v>
       </c>
       <c r="L32" s="64"/>
       <c r="M32" s="64"/>
@@ -9618,10 +9609,10 @@
         <v>15</v>
       </c>
       <c r="B34" s="64" t="s">
-        <v>2054</v>
+        <v>2049</v>
       </c>
       <c r="C34" s="64" t="s">
-        <v>2055</v>
+        <v>2050</v>
       </c>
       <c r="D34" s="64"/>
       <c r="E34" s="64"/>
@@ -9631,7 +9622,7 @@
       <c r="I34" s="64"/>
       <c r="J34" s="64"/>
       <c r="K34" s="64" t="s">
-        <v>2056</v>
+        <v>2051</v>
       </c>
       <c r="L34" s="64"/>
       <c r="M34" s="64"/>
@@ -9774,7 +9765,7 @@
       <c r="V37" s="63"/>
       <c r="W37" s="63"/>
       <c r="X37" s="63" t="s">
-        <v>2203</v>
+        <v>2196</v>
       </c>
       <c r="Y37" s="63"/>
       <c r="Z37" s="63"/>
@@ -10020,7 +10011,7 @@
       <c r="V42" s="63"/>
       <c r="W42" s="63"/>
       <c r="X42" s="63" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="Y42" s="63"/>
       <c r="Z42" s="63"/>
@@ -10125,7 +10116,7 @@
         <v>1576</v>
       </c>
       <c r="C46" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="AC46" t="s">
         <v>1579</v>
@@ -10184,10 +10175,10 @@
         <v>11</v>
       </c>
       <c r="B48" s="62" t="s">
-        <v>2245</v>
+        <v>2238</v>
       </c>
       <c r="C48" s="62" t="s">
-        <v>2246</v>
+        <v>2239</v>
       </c>
       <c r="D48" s="62"/>
       <c r="E48" s="62"/>
@@ -10197,7 +10188,7 @@
       <c r="I48" s="62"/>
       <c r="J48" s="62"/>
       <c r="K48" s="62" t="s">
-        <v>2247</v>
+        <v>2240</v>
       </c>
       <c r="L48" s="62"/>
       <c r="M48" s="62"/>
@@ -10238,18 +10229,18 @@
         <v>1544</v>
       </c>
       <c r="X49" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="50" spans="1:36">
       <c r="A50" s="61" t="s">
-        <v>2058</v>
+        <v>2053</v>
       </c>
       <c r="B50" s="61" t="s">
-        <v>2059</v>
+        <v>2054</v>
       </c>
       <c r="C50" s="61" t="s">
-        <v>2059</v>
+        <v>2054</v>
       </c>
       <c r="D50" s="61"/>
       <c r="E50" s="61"/>
@@ -10381,7 +10372,7 @@
         <v>1883</v>
       </c>
       <c r="C53" s="63" t="s">
-        <v>2050</v>
+        <v>2046</v>
       </c>
       <c r="D53" s="63"/>
       <c r="E53" s="63"/>
@@ -10700,7 +10691,7 @@
       <c r="V59" s="63"/>
       <c r="W59" s="63"/>
       <c r="X59" s="63" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="Y59" s="63"/>
       <c r="Z59" s="63"/>
@@ -10838,10 +10829,10 @@
         <v>27</v>
       </c>
       <c r="B63" s="66" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="C63" s="66" t="s">
-        <v>2084</v>
+        <v>2079</v>
       </c>
       <c r="D63" s="66"/>
       <c r="E63" s="66"/>
@@ -10936,7 +10927,7 @@
         <v>1503</v>
       </c>
       <c r="B65" s="66" t="s">
-        <v>2274</v>
+        <v>2267</v>
       </c>
       <c r="C65" s="66" t="s">
         <v>1925</v>
@@ -10991,7 +10982,7 @@
         <v>1587</v>
       </c>
       <c r="C66" s="66" t="s">
-        <v>2140</v>
+        <v>2134</v>
       </c>
       <c r="D66" s="66"/>
       <c r="E66" s="66"/>
@@ -11006,7 +10997,7 @@
       <c r="L66" s="66"/>
       <c r="M66" s="66"/>
       <c r="N66" s="66" t="s">
-        <v>2280</v>
+        <v>2273</v>
       </c>
       <c r="O66" s="66"/>
       <c r="P66" s="66"/>
@@ -11040,10 +11031,10 @@
         <v>11</v>
       </c>
       <c r="B67" s="66" t="s">
-        <v>2077</v>
+        <v>2072</v>
       </c>
       <c r="C67" s="66" t="s">
-        <v>2105</v>
+        <v>2100</v>
       </c>
       <c r="D67" s="66"/>
       <c r="E67" s="66"/>
@@ -11056,7 +11047,7 @@
       <c r="L67" s="66"/>
       <c r="M67" s="66"/>
       <c r="N67" s="66" t="s">
-        <v>2078</v>
+        <v>2073</v>
       </c>
       <c r="O67" s="66"/>
       <c r="P67" s="66"/>
@@ -11093,7 +11084,7 @@
         <v>1583</v>
       </c>
       <c r="C68" s="66" t="s">
-        <v>2034</v>
+        <v>2030</v>
       </c>
       <c r="D68" s="66"/>
       <c r="E68" s="66"/>
@@ -11108,7 +11099,7 @@
       <c r="L68" s="66"/>
       <c r="M68" s="66"/>
       <c r="N68" s="66" t="s">
-        <v>2281</v>
+        <v>2274</v>
       </c>
       <c r="O68" s="66"/>
       <c r="P68" s="66"/>
@@ -11142,10 +11133,10 @@
         <v>24</v>
       </c>
       <c r="B69" s="66" t="s">
-        <v>2275</v>
+        <v>2268</v>
       </c>
       <c r="C69" s="66" t="s">
-        <v>2142</v>
+        <v>2136</v>
       </c>
       <c r="D69" s="66"/>
       <c r="E69" s="66"/>
@@ -11158,7 +11149,7 @@
       <c r="L69" s="66"/>
       <c r="M69" s="66"/>
       <c r="N69" s="66" t="s">
-        <v>2282</v>
+        <v>2275</v>
       </c>
       <c r="O69" s="66"/>
       <c r="P69" s="66"/>
@@ -11190,10 +11181,10 @@
         <v>6</v>
       </c>
       <c r="B70" s="66" t="s">
-        <v>2291</v>
+        <v>2284</v>
       </c>
       <c r="C70" s="66" t="s">
-        <v>2141</v>
+        <v>2135</v>
       </c>
       <c r="D70" s="66" t="s">
         <v>1907</v>
@@ -11206,13 +11197,13 @@
       <c r="J70" s="66"/>
       <c r="K70" s="66"/>
       <c r="L70" s="66" t="s">
-        <v>2062</v>
+        <v>2057</v>
       </c>
       <c r="M70" s="66" t="s">
-        <v>2083</v>
+        <v>2078</v>
       </c>
       <c r="N70" s="66" t="s">
-        <v>2294</v>
+        <v>2287</v>
       </c>
       <c r="O70" s="66"/>
       <c r="P70" s="66"/>
@@ -11244,13 +11235,13 @@
         <v>6</v>
       </c>
       <c r="B71" s="66" t="s">
-        <v>2292</v>
+        <v>2285</v>
       </c>
       <c r="C71" s="66" t="s">
-        <v>2141</v>
+        <v>2135</v>
       </c>
       <c r="D71" s="66" t="s">
-        <v>2293</v>
+        <v>2286</v>
       </c>
       <c r="E71" s="66"/>
       <c r="F71" s="66"/>
@@ -11262,7 +11253,7 @@
       <c r="L71" s="66"/>
       <c r="M71" s="66"/>
       <c r="N71" s="66" t="s">
-        <v>2295</v>
+        <v>2288</v>
       </c>
       <c r="O71" s="66"/>
       <c r="P71" s="66"/>
@@ -11297,7 +11288,7 @@
         <v>1584</v>
       </c>
       <c r="C72" s="66" t="s">
-        <v>2141</v>
+        <v>2135</v>
       </c>
       <c r="D72" s="66"/>
       <c r="E72" s="66"/>
@@ -11307,12 +11298,12 @@
       <c r="I72" s="66"/>
       <c r="J72" s="66"/>
       <c r="K72" s="66" t="s">
-        <v>2296</v>
+        <v>2289</v>
       </c>
       <c r="L72" s="66"/>
       <c r="M72" s="66"/>
       <c r="N72" s="66" t="s">
-        <v>2281</v>
+        <v>2274</v>
       </c>
       <c r="O72" s="66"/>
       <c r="P72" s="66"/>
@@ -11344,13 +11335,13 @@
         <v>15</v>
       </c>
       <c r="B73" s="66" t="s">
-        <v>2204</v>
+        <v>2197</v>
       </c>
       <c r="C73" s="66" t="s">
-        <v>2205</v>
+        <v>2198</v>
       </c>
       <c r="N73" s="66" t="s">
-        <v>2311</v>
+        <v>2304</v>
       </c>
       <c r="T73" s="66" t="s">
         <v>108</v>
@@ -11362,13 +11353,13 @@
         <v>15</v>
       </c>
       <c r="B74" s="66" t="s">
-        <v>2289</v>
+        <v>2282</v>
       </c>
       <c r="C74" s="66" t="s">
-        <v>2288</v>
+        <v>2281</v>
       </c>
       <c r="N74" s="66" t="s">
-        <v>2312</v>
+        <v>2305</v>
       </c>
       <c r="T74" s="66" t="s">
         <v>108</v>
@@ -11380,10 +11371,10 @@
         <v>22</v>
       </c>
       <c r="B75" s="66" t="s">
-        <v>2207</v>
+        <v>2200</v>
       </c>
       <c r="C75" s="66" t="s">
-        <v>2221</v>
+        <v>2214</v>
       </c>
       <c r="D75" s="66"/>
       <c r="E75" s="66"/>
@@ -11396,7 +11387,7 @@
       <c r="L75" s="66"/>
       <c r="M75" s="66"/>
       <c r="N75" s="66" t="s">
-        <v>2283</v>
+        <v>2276</v>
       </c>
       <c r="O75" s="66"/>
       <c r="P75" s="66"/>
@@ -11428,10 +11419,10 @@
         <v>11</v>
       </c>
       <c r="B76" s="66" t="s">
-        <v>2243</v>
+        <v>2236</v>
       </c>
       <c r="C76" s="66" t="s">
-        <v>2242</v>
+        <v>2235</v>
       </c>
       <c r="D76" s="66"/>
       <c r="E76" s="66"/>
@@ -11443,12 +11434,12 @@
       </c>
       <c r="J76" s="66"/>
       <c r="K76" s="66" t="s">
-        <v>2244</v>
+        <v>2237</v>
       </c>
       <c r="L76" s="66"/>
       <c r="M76" s="66"/>
       <c r="N76" s="66" t="s">
-        <v>2283</v>
+        <v>2276</v>
       </c>
       <c r="O76" s="66"/>
       <c r="P76" s="66"/>
@@ -11480,10 +11471,10 @@
         <v>22</v>
       </c>
       <c r="B77" s="66" t="s">
-        <v>2208</v>
+        <v>2201</v>
       </c>
       <c r="C77" s="66" t="s">
-        <v>2222</v>
+        <v>2215</v>
       </c>
       <c r="D77" s="66"/>
       <c r="E77" s="66"/>
@@ -11496,7 +11487,7 @@
       <c r="L77" s="66"/>
       <c r="M77" s="66"/>
       <c r="N77" s="66" t="s">
-        <v>2283</v>
+        <v>2276</v>
       </c>
       <c r="O77" s="66"/>
       <c r="P77" s="66"/>
@@ -11528,10 +11519,10 @@
         <v>4</v>
       </c>
       <c r="B78" s="66" t="s">
-        <v>2248</v>
+        <v>2241</v>
       </c>
       <c r="C78" s="66" t="s">
-        <v>2223</v>
+        <v>2216</v>
       </c>
       <c r="D78" s="66"/>
       <c r="E78" s="66"/>
@@ -11543,12 +11534,12 @@
       </c>
       <c r="J78" s="66"/>
       <c r="K78" s="66" t="s">
-        <v>2209</v>
+        <v>2202</v>
       </c>
       <c r="L78" s="66"/>
       <c r="M78" s="66"/>
       <c r="N78" s="66" t="s">
-        <v>2283</v>
+        <v>2276</v>
       </c>
       <c r="O78" s="66"/>
       <c r="P78" s="66"/>
@@ -11580,10 +11571,10 @@
         <v>15</v>
       </c>
       <c r="B79" s="66" t="s">
-        <v>2254</v>
+        <v>2247</v>
       </c>
       <c r="C79" s="66" t="s">
-        <v>2210</v>
+        <v>2203</v>
       </c>
       <c r="D79" s="66"/>
       <c r="E79" s="66"/>
@@ -11596,7 +11587,7 @@
       <c r="L79" s="66"/>
       <c r="M79" s="66"/>
       <c r="N79" s="66" t="s">
-        <v>2249</v>
+        <v>2242</v>
       </c>
       <c r="O79" s="66"/>
       <c r="P79" s="66"/>
@@ -11628,10 +11619,10 @@
         <v>1503</v>
       </c>
       <c r="B80" s="66" t="s">
-        <v>2211</v>
+        <v>2204</v>
       </c>
       <c r="C80" s="66" t="s">
-        <v>2212</v>
+        <v>2205</v>
       </c>
       <c r="D80" s="66"/>
       <c r="E80" s="66"/>
@@ -11646,7 +11637,7 @@
       <c r="L80" s="66"/>
       <c r="M80" s="66"/>
       <c r="N80" s="66" t="s">
-        <v>2249</v>
+        <v>2242</v>
       </c>
       <c r="O80" s="66"/>
       <c r="P80" s="66"/>
@@ -11675,13 +11666,13 @@
     </row>
     <row r="81" spans="1:36">
       <c r="A81" s="66" t="s">
-        <v>2213</v>
+        <v>2206</v>
       </c>
       <c r="B81" s="66" t="s">
-        <v>2251</v>
+        <v>2244</v>
       </c>
       <c r="C81" s="66" t="s">
-        <v>2214</v>
+        <v>2207</v>
       </c>
       <c r="D81" s="66"/>
       <c r="E81" s="66"/>
@@ -11696,7 +11687,7 @@
       <c r="L81" s="66"/>
       <c r="M81" s="66"/>
       <c r="N81" s="66" t="s">
-        <v>2215</v>
+        <v>2208</v>
       </c>
       <c r="O81" s="66"/>
       <c r="P81" s="66"/>
@@ -11728,10 +11719,10 @@
         <v>11</v>
       </c>
       <c r="B82" s="66" t="s">
-        <v>2253</v>
+        <v>2246</v>
       </c>
       <c r="C82" s="66" t="s">
-        <v>2206</v>
+        <v>2199</v>
       </c>
       <c r="D82" s="66"/>
       <c r="E82" s="66"/>
@@ -11744,7 +11735,7 @@
       <c r="L82" s="66"/>
       <c r="M82" s="66"/>
       <c r="N82" s="66" t="s">
-        <v>2252</v>
+        <v>2245</v>
       </c>
       <c r="O82" s="66"/>
       <c r="P82" s="66"/>
@@ -11776,7 +11767,7 @@
         <v>24</v>
       </c>
       <c r="B83" s="66" t="s">
-        <v>2250</v>
+        <v>2243</v>
       </c>
       <c r="C83" s="66" t="s">
         <v>1592</v>
@@ -11792,7 +11783,7 @@
       <c r="L83" s="66"/>
       <c r="M83" s="66"/>
       <c r="N83" s="66" t="s">
-        <v>2216</v>
+        <v>2209</v>
       </c>
       <c r="O83" s="66"/>
       <c r="P83" s="66"/>
@@ -11842,7 +11833,7 @@
       <c r="L84" s="66"/>
       <c r="M84" s="66"/>
       <c r="N84" s="66" t="s">
-        <v>2281</v>
+        <v>2274</v>
       </c>
       <c r="O84" s="66"/>
       <c r="P84" s="66"/>
@@ -11874,10 +11865,10 @@
         <v>15</v>
       </c>
       <c r="B85" s="66" t="s">
-        <v>2217</v>
+        <v>2210</v>
       </c>
       <c r="C85" s="66" t="s">
-        <v>2218</v>
+        <v>2211</v>
       </c>
       <c r="D85" s="66"/>
       <c r="E85" s="66"/>
@@ -11890,7 +11881,7 @@
       <c r="L85" s="66"/>
       <c r="M85" s="66"/>
       <c r="N85" s="66" t="s">
-        <v>2219</v>
+        <v>2212</v>
       </c>
       <c r="O85" s="66"/>
       <c r="P85" s="66"/>
@@ -12017,13 +12008,13 @@
     </row>
     <row r="88" spans="1:36">
       <c r="A88" s="66" t="s">
-        <v>15</v>
+        <v>2329</v>
       </c>
       <c r="B88" s="66" t="s">
         <v>1934</v>
       </c>
       <c r="C88" s="66" t="s">
-        <v>1935</v>
+        <v>2336</v>
       </c>
       <c r="D88" s="66"/>
       <c r="E88" s="66"/>
@@ -12197,7 +12188,7 @@
         <v>1593</v>
       </c>
       <c r="C92" s="64" t="s">
-        <v>2063</v>
+        <v>2058</v>
       </c>
       <c r="D92" s="64"/>
       <c r="E92" s="64"/>
@@ -12247,7 +12238,7 @@
         <v>1595</v>
       </c>
       <c r="C93" s="64" t="s">
-        <v>2139</v>
+        <v>2133</v>
       </c>
       <c r="D93" s="64"/>
       <c r="E93" s="64"/>
@@ -12296,10 +12287,10 @@
         <v>11</v>
       </c>
       <c r="B94" s="64" t="s">
-        <v>2079</v>
+        <v>2074</v>
       </c>
       <c r="C94" s="64" t="s">
-        <v>2105</v>
+        <v>2100</v>
       </c>
       <c r="D94" s="64"/>
       <c r="E94" s="64"/>
@@ -12312,7 +12303,7 @@
       <c r="L94" s="64"/>
       <c r="M94" s="64"/>
       <c r="N94" s="64" t="s">
-        <v>2080</v>
+        <v>2075</v>
       </c>
       <c r="O94" s="64"/>
       <c r="P94" s="64"/>
@@ -12349,7 +12340,7 @@
         <v>1895</v>
       </c>
       <c r="C95" s="64" t="s">
-        <v>2064</v>
+        <v>2059</v>
       </c>
       <c r="D95" s="64"/>
       <c r="E95" s="64"/>
@@ -12397,7 +12388,7 @@
         <v>1596</v>
       </c>
       <c r="C96" s="64" t="s">
-        <v>2137</v>
+        <v>2131</v>
       </c>
       <c r="D96" s="64"/>
       <c r="E96" s="64"/>
@@ -12446,10 +12437,10 @@
         <v>11</v>
       </c>
       <c r="B97" s="64" t="s">
-        <v>2082</v>
+        <v>2077</v>
       </c>
       <c r="C97" s="64" t="s">
-        <v>2105</v>
+        <v>2100</v>
       </c>
       <c r="D97" s="64"/>
       <c r="E97" s="64"/>
@@ -12462,7 +12453,7 @@
       <c r="L97" s="64"/>
       <c r="M97" s="64"/>
       <c r="N97" s="64" t="s">
-        <v>2081</v>
+        <v>2076</v>
       </c>
       <c r="O97" s="64"/>
       <c r="P97" s="64"/>
@@ -12558,10 +12549,10 @@
       <c r="J99" s="64"/>
       <c r="K99" s="64"/>
       <c r="L99" s="64" t="s">
-        <v>2062</v>
+        <v>2057</v>
       </c>
       <c r="M99" s="64" t="s">
-        <v>2083</v>
+        <v>2078</v>
       </c>
       <c r="N99" s="64"/>
       <c r="O99" s="64"/>
@@ -12903,7 +12894,7 @@
         <v>1623</v>
       </c>
       <c r="C107" s="67" t="s">
-        <v>2127</v>
+        <v>2121</v>
       </c>
       <c r="D107" s="67"/>
       <c r="E107" s="67"/>
@@ -12943,13 +12934,13 @@
     </row>
     <row r="108" spans="1:36">
       <c r="A108" s="67" t="s">
-        <v>2098</v>
+        <v>2093</v>
       </c>
       <c r="B108" s="67" t="s">
-        <v>2328</v>
+        <v>2320</v>
       </c>
       <c r="C108" s="67" t="s">
-        <v>2128</v>
+        <v>2122</v>
       </c>
       <c r="D108" s="67"/>
       <c r="E108" s="67"/>
@@ -12996,10 +12987,10 @@
         <v>11</v>
       </c>
       <c r="B109" s="67" t="s">
-        <v>2331</v>
+        <v>2323</v>
       </c>
       <c r="C109" s="67" t="s">
-        <v>2105</v>
+        <v>2100</v>
       </c>
       <c r="D109" s="67"/>
       <c r="E109" s="67"/>
@@ -13012,7 +13003,7 @@
       <c r="L109" s="67"/>
       <c r="M109" s="67"/>
       <c r="N109" s="67" t="s">
-        <v>2332</v>
+        <v>2324</v>
       </c>
       <c r="O109" s="67"/>
       <c r="P109" s="67"/>
@@ -13046,7 +13037,7 @@
         <v>11</v>
       </c>
       <c r="B110" s="67" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="C110" s="67" t="s">
         <v>1496</v>
@@ -13063,7 +13054,7 @@
       </c>
       <c r="J110" s="67"/>
       <c r="K110" s="67" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="L110" s="67"/>
       <c r="M110" s="67"/>
@@ -13095,13 +13086,13 @@
     </row>
     <row r="111" spans="1:36">
       <c r="A111" s="67" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B111" s="67" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="C111" s="67" t="s">
-        <v>2100</v>
+        <v>2095</v>
       </c>
       <c r="D111" s="67"/>
       <c r="E111" s="67"/>
@@ -13115,7 +13106,7 @@
       <c r="M111" s="67"/>
       <c r="N111" s="67"/>
       <c r="O111" s="67" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="P111" s="67"/>
       <c r="Q111" s="67"/>
@@ -13163,7 +13154,7 @@
       </c>
       <c r="J112" s="67"/>
       <c r="K112" s="67" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="L112" s="67"/>
       <c r="M112" s="67"/>
@@ -13198,10 +13189,10 @@
         <v>1503</v>
       </c>
       <c r="B113" s="67" t="s">
-        <v>2320</v>
+        <v>2312</v>
       </c>
       <c r="C113" s="67" t="s">
-        <v>2321</v>
+        <v>2313</v>
       </c>
       <c r="D113" s="67"/>
       <c r="E113" s="67"/>
@@ -13251,7 +13242,7 @@
         <v>1920</v>
       </c>
       <c r="C114" s="67" t="s">
-        <v>2097</v>
+        <v>2092</v>
       </c>
       <c r="D114" s="67"/>
       <c r="E114" s="67"/>
@@ -13263,7 +13254,7 @@
       </c>
       <c r="J114" s="67"/>
       <c r="K114" s="67" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="L114" s="67"/>
       <c r="M114" s="67"/>
@@ -13301,7 +13292,7 @@
         <v>1624</v>
       </c>
       <c r="C115" s="67" t="s">
-        <v>2095</v>
+        <v>2090</v>
       </c>
       <c r="D115" s="67"/>
       <c r="E115" s="67"/>
@@ -13347,7 +13338,7 @@
         <v>1625</v>
       </c>
       <c r="C116" s="67" t="s">
-        <v>2341</v>
+        <v>2096</v>
       </c>
       <c r="D116" s="67"/>
       <c r="E116" s="67"/>
@@ -13359,7 +13350,7 @@
       </c>
       <c r="J116" s="67"/>
       <c r="K116" s="67" t="s">
-        <v>2103</v>
+        <v>2098</v>
       </c>
       <c r="L116" s="67"/>
       <c r="M116" s="67"/>
@@ -13397,7 +13388,7 @@
         <v>1921</v>
       </c>
       <c r="C117" s="67" t="s">
-        <v>2233</v>
+        <v>2226</v>
       </c>
       <c r="D117" s="67"/>
       <c r="E117" s="67"/>
@@ -13409,12 +13400,12 @@
       <c r="I117" s="67"/>
       <c r="J117" s="67"/>
       <c r="K117" s="67" t="s">
-        <v>2284</v>
+        <v>2277</v>
       </c>
       <c r="L117" s="67"/>
       <c r="M117" s="67"/>
       <c r="N117" s="67" t="s">
-        <v>2322</v>
+        <v>2314</v>
       </c>
       <c r="O117" s="67"/>
       <c r="P117" s="67"/>
@@ -13449,7 +13440,7 @@
         <v>1626</v>
       </c>
       <c r="C118" s="67" t="s">
-        <v>2096</v>
+        <v>2091</v>
       </c>
       <c r="D118" s="67"/>
       <c r="E118" s="67"/>
@@ -13462,7 +13453,7 @@
       <c r="L118" s="67"/>
       <c r="M118" s="67"/>
       <c r="N118" s="67" t="s">
-        <v>2323</v>
+        <v>2315</v>
       </c>
       <c r="O118" s="67"/>
       <c r="P118" s="67"/>
@@ -13497,7 +13488,7 @@
         <v>1627</v>
       </c>
       <c r="C119" s="67" t="s">
-        <v>2102</v>
+        <v>2333</v>
       </c>
       <c r="D119" s="67"/>
       <c r="E119" s="67"/>
@@ -13509,12 +13500,12 @@
       </c>
       <c r="J119" s="67"/>
       <c r="K119" s="67" t="s">
-        <v>2104</v>
+        <v>2099</v>
       </c>
       <c r="L119" s="67"/>
       <c r="M119" s="67"/>
       <c r="N119" s="67" t="s">
-        <v>2323</v>
+        <v>2315</v>
       </c>
       <c r="O119" s="67"/>
       <c r="P119" s="67"/>
@@ -13546,7 +13537,7 @@
         <v>38</v>
       </c>
       <c r="B120" s="67" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="C120" s="67" t="s">
         <v>1899</v>
@@ -13559,12 +13550,12 @@
       <c r="I120" s="67"/>
       <c r="J120" s="67"/>
       <c r="K120" s="67" t="s">
-        <v>2117</v>
+        <v>2111</v>
       </c>
       <c r="L120" s="67"/>
       <c r="M120" s="67"/>
       <c r="N120" s="67" t="s">
-        <v>2323</v>
+        <v>2315</v>
       </c>
       <c r="O120" s="67"/>
       <c r="P120" s="67"/>
@@ -13599,7 +13590,7 @@
         <v>1923</v>
       </c>
       <c r="C121" s="88" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="D121" s="67"/>
       <c r="E121" s="67"/>
@@ -13612,7 +13603,7 @@
       <c r="L121" s="67"/>
       <c r="M121" s="67"/>
       <c r="N121" s="67" t="s">
-        <v>2324</v>
+        <v>2316</v>
       </c>
       <c r="O121" s="67"/>
       <c r="P121" s="67"/>
@@ -13662,7 +13653,7 @@
       <c r="L122" s="67"/>
       <c r="M122" s="67"/>
       <c r="N122" s="67" t="s">
-        <v>2325</v>
+        <v>2317</v>
       </c>
       <c r="O122" s="67"/>
       <c r="P122" s="67"/>
@@ -13699,7 +13690,7 @@
         <v>1631</v>
       </c>
       <c r="C123" s="67" t="s">
-        <v>2138</v>
+        <v>2132</v>
       </c>
       <c r="D123" s="67"/>
       <c r="E123" s="67"/>
@@ -13714,7 +13705,7 @@
       <c r="L123" s="67"/>
       <c r="M123" s="67"/>
       <c r="N123" s="67" t="s">
-        <v>2326</v>
+        <v>2318</v>
       </c>
       <c r="O123" s="67"/>
       <c r="P123" s="67"/>
@@ -13748,10 +13739,10 @@
         <v>11</v>
       </c>
       <c r="B124" s="67" t="s">
-        <v>2065</v>
+        <v>2060</v>
       </c>
       <c r="C124" s="67" t="s">
-        <v>2105</v>
+        <v>2100</v>
       </c>
       <c r="D124" s="67"/>
       <c r="E124" s="67"/>
@@ -13764,7 +13755,7 @@
       <c r="L124" s="67"/>
       <c r="M124" s="67"/>
       <c r="N124" s="67" t="s">
-        <v>2068</v>
+        <v>2063</v>
       </c>
       <c r="O124" s="67"/>
       <c r="P124" s="67"/>
@@ -13801,7 +13792,7 @@
         <v>1632</v>
       </c>
       <c r="C125" s="67" t="s">
-        <v>2106</v>
+        <v>2101</v>
       </c>
       <c r="D125" s="67"/>
       <c r="E125" s="67"/>
@@ -13814,7 +13805,7 @@
       <c r="L125" s="67"/>
       <c r="M125" s="67"/>
       <c r="N125" s="67" t="s">
-        <v>2327</v>
+        <v>2319</v>
       </c>
       <c r="O125" s="67"/>
       <c r="P125" s="67"/>
@@ -14059,7 +14050,7 @@
         <v>1623</v>
       </c>
       <c r="C131" s="78" t="s">
-        <v>2127</v>
+        <v>2121</v>
       </c>
       <c r="D131" s="78"/>
       <c r="E131" s="78"/>
@@ -14149,13 +14140,13 @@
     </row>
     <row r="133" spans="1:36">
       <c r="A133" s="78" t="s">
-        <v>2108</v>
+        <v>2103</v>
       </c>
       <c r="B133" s="78" t="s">
-        <v>2109</v>
+        <v>2104</v>
       </c>
       <c r="C133" s="78" t="s">
-        <v>2128</v>
+        <v>2122</v>
       </c>
       <c r="D133" s="78"/>
       <c r="E133" s="78"/>
@@ -14200,7 +14191,7 @@
         <v>11</v>
       </c>
       <c r="B134" s="78" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="C134" s="78" t="s">
         <v>1496</v>
@@ -14217,7 +14208,7 @@
       </c>
       <c r="J134" s="78"/>
       <c r="K134" s="78" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="L134" s="78"/>
       <c r="M134" s="78"/>
@@ -14249,13 +14240,13 @@
     </row>
     <row r="135" spans="1:36">
       <c r="A135" s="78" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B135" s="78" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="C135" s="78" t="s">
-        <v>2100</v>
+        <v>2095</v>
       </c>
       <c r="D135" s="78"/>
       <c r="E135" s="78"/>
@@ -14269,7 +14260,7 @@
       <c r="M135" s="78"/>
       <c r="N135" s="78"/>
       <c r="O135" s="78" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="P135" s="78"/>
       <c r="Q135" s="78"/>
@@ -14317,7 +14308,7 @@
       </c>
       <c r="J136" s="78"/>
       <c r="K136" s="78" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="L136" s="78"/>
       <c r="M136" s="78"/>
@@ -14355,7 +14346,7 @@
         <v>1624</v>
       </c>
       <c r="C137" s="78" t="s">
-        <v>2095</v>
+        <v>2090</v>
       </c>
       <c r="D137" s="78"/>
       <c r="E137" s="78"/>
@@ -14401,7 +14392,7 @@
         <v>1920</v>
       </c>
       <c r="C138" s="78" t="s">
-        <v>2097</v>
+        <v>2092</v>
       </c>
       <c r="D138" s="78"/>
       <c r="E138" s="78"/>
@@ -14413,7 +14404,7 @@
       </c>
       <c r="J138" s="78"/>
       <c r="K138" s="78" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="L138" s="78"/>
       <c r="M138" s="78"/>
@@ -14451,7 +14442,7 @@
         <v>1625</v>
       </c>
       <c r="C139" s="78" t="s">
-        <v>2101</v>
+        <v>2096</v>
       </c>
       <c r="D139" s="78"/>
       <c r="E139" s="78"/>
@@ -14463,7 +14454,7 @@
       </c>
       <c r="J139" s="78"/>
       <c r="K139" s="78" t="s">
-        <v>1995</v>
+        <v>1992</v>
       </c>
       <c r="L139" s="78"/>
       <c r="M139" s="78"/>
@@ -14498,10 +14489,10 @@
         <v>1503</v>
       </c>
       <c r="B140" s="78" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="C140" s="78" t="s">
-        <v>2233</v>
+        <v>2226</v>
       </c>
       <c r="D140" s="78"/>
       <c r="E140" s="78"/>
@@ -14513,7 +14504,7 @@
       <c r="I140" s="78"/>
       <c r="J140" s="78"/>
       <c r="K140" s="78" t="s">
-        <v>2284</v>
+        <v>2277</v>
       </c>
       <c r="L140" s="78"/>
       <c r="M140" s="78"/>
@@ -14551,7 +14542,7 @@
         <v>1626</v>
       </c>
       <c r="C141" s="78" t="s">
-        <v>2107</v>
+        <v>2102</v>
       </c>
       <c r="D141" s="78"/>
       <c r="E141" s="78"/>
@@ -14564,7 +14555,7 @@
       <c r="L141" s="78"/>
       <c r="M141" s="78"/>
       <c r="N141" s="78" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="O141" s="78"/>
       <c r="P141" s="78"/>
@@ -14599,7 +14590,7 @@
         <v>1627</v>
       </c>
       <c r="C142" s="78" t="s">
-        <v>2102</v>
+        <v>2097</v>
       </c>
       <c r="D142" s="78"/>
       <c r="E142" s="78"/>
@@ -14611,12 +14602,12 @@
       </c>
       <c r="J142" s="78"/>
       <c r="K142" s="78" t="s">
-        <v>2116</v>
+        <v>2110</v>
       </c>
       <c r="L142" s="78"/>
       <c r="M142" s="78"/>
       <c r="N142" s="78" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="O142" s="78"/>
       <c r="P142" s="78"/>
@@ -14648,7 +14639,7 @@
         <v>38</v>
       </c>
       <c r="B143" s="78" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="C143" s="78" t="s">
         <v>1899</v>
@@ -14661,12 +14652,12 @@
       <c r="I143" s="78"/>
       <c r="J143" s="78"/>
       <c r="K143" s="78" t="s">
-        <v>2115</v>
+        <v>2109</v>
       </c>
       <c r="L143" s="78"/>
       <c r="M143" s="78"/>
       <c r="N143" s="78" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="O143" s="78"/>
       <c r="P143" s="78"/>
@@ -14701,7 +14692,7 @@
         <v>1923</v>
       </c>
       <c r="C144" s="79" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="D144" s="78"/>
       <c r="E144" s="78"/>
@@ -14714,7 +14705,7 @@
       <c r="L144" s="78"/>
       <c r="M144" s="78"/>
       <c r="N144" s="78" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="O144" s="78"/>
       <c r="P144" s="78"/>
@@ -14764,7 +14755,7 @@
       <c r="L145" s="78"/>
       <c r="M145" s="78"/>
       <c r="N145" s="78" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="O145" s="78"/>
       <c r="P145" s="78"/>
@@ -14801,7 +14792,7 @@
         <v>1631</v>
       </c>
       <c r="C146" s="78" t="s">
-        <v>2138</v>
+        <v>2132</v>
       </c>
       <c r="D146" s="78"/>
       <c r="E146" s="78"/>
@@ -14816,7 +14807,7 @@
       <c r="L146" s="78"/>
       <c r="M146" s="78"/>
       <c r="N146" s="78" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="O146" s="78"/>
       <c r="P146" s="78"/>
@@ -14850,10 +14841,10 @@
         <v>11</v>
       </c>
       <c r="B147" s="78" t="s">
-        <v>2065</v>
+        <v>2060</v>
       </c>
       <c r="C147" s="78" t="s">
-        <v>2105</v>
+        <v>2100</v>
       </c>
       <c r="D147" s="78"/>
       <c r="E147" s="78"/>
@@ -14866,7 +14857,7 @@
       <c r="L147" s="78"/>
       <c r="M147" s="78"/>
       <c r="N147" s="78" t="s">
-        <v>2066</v>
+        <v>2061</v>
       </c>
       <c r="O147" s="78"/>
       <c r="P147" s="78"/>
@@ -14903,7 +14894,7 @@
         <v>1632</v>
       </c>
       <c r="C148" s="78" t="s">
-        <v>2119</v>
+        <v>2113</v>
       </c>
       <c r="D148" s="78"/>
       <c r="E148" s="78"/>
@@ -14916,7 +14907,7 @@
       <c r="L148" s="78"/>
       <c r="M148" s="78"/>
       <c r="N148" s="78" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="O148" s="78"/>
       <c r="P148" s="78"/>
@@ -14983,12 +14974,12 @@
       <c r="AI149" s="78"/>
       <c r="AJ149" s="78"/>
     </row>
-    <row r="150" spans="1:36" s="61" customFormat="1">
+    <row r="150" spans="1:36">
       <c r="A150" s="78" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B150" s="78" t="s">
-        <v>1989</v>
+        <v>1991</v>
       </c>
       <c r="C150" s="78" t="s">
         <v>1990</v>
@@ -15003,17 +14994,15 @@
       <c r="K150" s="78"/>
       <c r="L150" s="78"/>
       <c r="M150" s="78"/>
-      <c r="N150" s="78" t="s">
-        <v>1915</v>
+      <c r="N150" s="79" t="s">
+        <v>1988</v>
       </c>
       <c r="O150" s="78"/>
       <c r="P150" s="78"/>
       <c r="Q150" s="78"/>
       <c r="R150" s="78"/>
       <c r="S150" s="78"/>
-      <c r="T150" s="78" t="s">
-        <v>108</v>
-      </c>
+      <c r="T150" s="78"/>
       <c r="U150" s="78"/>
       <c r="V150" s="78"/>
       <c r="W150" s="78"/>
@@ -15032,64 +15021,70 @@
       <c r="AJ150" s="78"/>
     </row>
     <row r="151" spans="1:36">
-      <c r="A151" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="B151" s="78" t="s">
-        <v>1994</v>
-      </c>
-      <c r="C151" s="78" t="s">
-        <v>1993</v>
-      </c>
-      <c r="D151" s="78"/>
-      <c r="E151" s="78"/>
-      <c r="F151" s="78"/>
-      <c r="G151" s="78"/>
-      <c r="H151" s="78"/>
-      <c r="I151" s="78"/>
-      <c r="J151" s="78"/>
-      <c r="K151" s="78"/>
-      <c r="L151" s="78"/>
-      <c r="M151" s="78"/>
-      <c r="N151" s="78"/>
-      <c r="O151" s="78"/>
-      <c r="P151" s="78"/>
-      <c r="Q151" s="78"/>
-      <c r="R151" s="78"/>
-      <c r="S151" s="78"/>
-      <c r="T151" s="78"/>
-      <c r="U151" s="78"/>
-      <c r="V151" s="78"/>
-      <c r="W151" s="78"/>
-      <c r="X151" s="78"/>
-      <c r="Y151" s="78"/>
-      <c r="Z151" s="78"/>
-      <c r="AA151" s="78"/>
-      <c r="AB151" s="78"/>
-      <c r="AC151" s="78"/>
-      <c r="AD151" s="78"/>
-      <c r="AE151" s="78"/>
-      <c r="AF151" s="78"/>
-      <c r="AG151" s="78"/>
-      <c r="AH151" s="78"/>
-      <c r="AI151" s="78"/>
-      <c r="AJ151" s="78"/>
+      <c r="A151" s="79" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B151" s="79" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C151" s="79" t="s">
+        <v>1960</v>
+      </c>
+      <c r="D151" s="79"/>
+      <c r="E151" s="79"/>
+      <c r="F151" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="G151" s="79"/>
+      <c r="H151" s="79"/>
+      <c r="I151" s="79"/>
+      <c r="J151" s="79"/>
+      <c r="K151" s="79"/>
+      <c r="L151" s="79"/>
+      <c r="M151" s="79"/>
+      <c r="N151" s="79" t="s">
+        <v>1988</v>
+      </c>
+      <c r="O151" s="79"/>
+      <c r="P151" s="79"/>
+      <c r="Q151" s="79"/>
+      <c r="R151" s="79"/>
+      <c r="S151" s="79"/>
+      <c r="T151" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="U151" s="79">
+        <v>3</v>
+      </c>
+      <c r="V151" s="79"/>
+      <c r="W151" s="79"/>
+      <c r="X151" s="79"/>
+      <c r="Y151" s="79"/>
+      <c r="Z151" s="79"/>
+      <c r="AA151" s="79"/>
+      <c r="AB151" s="79"/>
+      <c r="AC151" s="79"/>
+      <c r="AD151" s="79"/>
+      <c r="AE151" s="79"/>
+      <c r="AF151" s="79"/>
+      <c r="AG151" s="79"/>
+      <c r="AH151" s="79"/>
+      <c r="AI151" s="79"/>
+      <c r="AJ151" s="79"/>
     </row>
     <row r="152" spans="1:36">
       <c r="A152" s="79" t="s">
-        <v>1503</v>
+        <v>24</v>
       </c>
       <c r="B152" s="79" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="C152" s="79" t="s">
-        <v>1961</v>
+        <v>2115</v>
       </c>
       <c r="D152" s="79"/>
       <c r="E152" s="79"/>
-      <c r="F152" s="79" t="s">
-        <v>55</v>
-      </c>
+      <c r="F152" s="79"/>
       <c r="G152" s="79"/>
       <c r="H152" s="79"/>
       <c r="I152" s="79"/>
@@ -15098,7 +15093,7 @@
       <c r="L152" s="79"/>
       <c r="M152" s="79"/>
       <c r="N152" s="79" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="O152" s="79"/>
       <c r="P152" s="79"/>
@@ -15106,11 +15101,9 @@
       <c r="R152" s="79"/>
       <c r="S152" s="79"/>
       <c r="T152" s="79" t="s">
-        <v>102</v>
-      </c>
-      <c r="U152" s="79">
-        <v>3</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="U152" s="79"/>
       <c r="V152" s="79"/>
       <c r="W152" s="79"/>
       <c r="X152" s="79"/>
@@ -15127,15 +15120,15 @@
       <c r="AI152" s="79"/>
       <c r="AJ152" s="79"/>
     </row>
-    <row r="153" spans="1:36">
+    <row r="153" spans="1:36" s="61" customFormat="1">
       <c r="A153" s="79" t="s">
         <v>24</v>
       </c>
       <c r="B153" s="79" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="C153" s="79" t="s">
-        <v>2121</v>
+        <v>2114</v>
       </c>
       <c r="D153" s="79"/>
       <c r="E153" s="79"/>
@@ -15148,7 +15141,7 @@
       <c r="L153" s="79"/>
       <c r="M153" s="79"/>
       <c r="N153" s="79" t="s">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="O153" s="79"/>
       <c r="P153" s="79"/>
@@ -15175,15 +15168,15 @@
       <c r="AI153" s="79"/>
       <c r="AJ153" s="79"/>
     </row>
-    <row r="154" spans="1:36" s="61" customFormat="1">
+    <row r="154" spans="1:36">
       <c r="A154" s="79" t="s">
         <v>24</v>
       </c>
       <c r="B154" s="79" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="C154" s="79" t="s">
-        <v>2120</v>
+        <v>2116</v>
       </c>
       <c r="D154" s="79"/>
       <c r="E154" s="79"/>
@@ -15196,7 +15189,7 @@
       <c r="L154" s="79"/>
       <c r="M154" s="79"/>
       <c r="N154" s="79" t="s">
-        <v>1991</v>
+        <v>1988</v>
       </c>
       <c r="O154" s="79"/>
       <c r="P154" s="79"/>
@@ -15228,10 +15221,10 @@
         <v>24</v>
       </c>
       <c r="B155" s="79" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="C155" s="79" t="s">
-        <v>2122</v>
+        <v>2117</v>
       </c>
       <c r="D155" s="79"/>
       <c r="E155" s="79"/>
@@ -15244,7 +15237,7 @@
       <c r="L155" s="79"/>
       <c r="M155" s="79"/>
       <c r="N155" s="79" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="O155" s="79"/>
       <c r="P155" s="79"/>
@@ -15272,234 +15265,232 @@
       <c r="AJ155" s="79"/>
     </row>
     <row r="156" spans="1:36">
-      <c r="A156" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="B156" s="79" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C156" s="79" t="s">
-        <v>2123</v>
-      </c>
-      <c r="D156" s="79"/>
-      <c r="E156" s="79"/>
-      <c r="F156" s="79"/>
-      <c r="G156" s="79"/>
-      <c r="H156" s="79"/>
-      <c r="I156" s="79"/>
-      <c r="J156" s="79"/>
-      <c r="K156" s="79"/>
-      <c r="L156" s="79"/>
-      <c r="M156" s="79"/>
+      <c r="A156" s="78" t="s">
+        <v>2329</v>
+      </c>
+      <c r="B156" s="78" t="s">
+        <v>2108</v>
+      </c>
+      <c r="C156" s="78" t="s">
+        <v>2339</v>
+      </c>
+      <c r="D156" s="78"/>
+      <c r="E156" s="78"/>
+      <c r="F156" s="78"/>
+      <c r="G156" s="78"/>
+      <c r="H156" s="78"/>
+      <c r="I156" s="78"/>
+      <c r="J156" s="78"/>
+      <c r="K156" s="78"/>
+      <c r="L156" s="78"/>
+      <c r="M156" s="78"/>
       <c r="N156" s="79" t="s">
-        <v>1992</v>
-      </c>
-      <c r="O156" s="79"/>
-      <c r="P156" s="79"/>
-      <c r="Q156" s="79"/>
-      <c r="R156" s="79"/>
-      <c r="S156" s="79"/>
-      <c r="T156" s="79" t="s">
-        <v>92</v>
-      </c>
-      <c r="U156" s="79"/>
-      <c r="V156" s="79"/>
-      <c r="W156" s="79"/>
-      <c r="X156" s="79"/>
-      <c r="Y156" s="79"/>
-      <c r="Z156" s="79"/>
-      <c r="AA156" s="79"/>
-      <c r="AB156" s="79"/>
-      <c r="AC156" s="79"/>
-      <c r="AD156" s="79"/>
-      <c r="AE156" s="79"/>
-      <c r="AF156" s="79"/>
-      <c r="AG156" s="79"/>
-      <c r="AH156" s="79"/>
-      <c r="AI156" s="79"/>
-      <c r="AJ156" s="79"/>
+        <v>1988</v>
+      </c>
+      <c r="O156" s="78"/>
+      <c r="P156" s="78"/>
+      <c r="Q156" s="78"/>
+      <c r="R156" s="78"/>
+      <c r="S156" s="78"/>
+      <c r="T156" s="78" t="s">
+        <v>108</v>
+      </c>
+      <c r="U156" s="78"/>
+      <c r="V156" s="78"/>
+      <c r="W156" s="78"/>
+      <c r="X156" s="78"/>
+      <c r="Y156" s="78"/>
+      <c r="Z156" s="78"/>
+      <c r="AA156" s="78"/>
+      <c r="AB156" s="78"/>
+      <c r="AC156" s="78"/>
+      <c r="AD156" s="78"/>
+      <c r="AE156" s="78"/>
+      <c r="AF156" s="78"/>
+      <c r="AG156" s="78"/>
+      <c r="AH156" s="78"/>
+      <c r="AI156" s="78"/>
+      <c r="AJ156" s="78"/>
     </row>
     <row r="157" spans="1:36">
-      <c r="A157" s="78" t="s">
-        <v>15</v>
-      </c>
-      <c r="B157" s="78" t="s">
-        <v>2113</v>
-      </c>
-      <c r="C157" s="78" t="s">
-        <v>2114</v>
-      </c>
-      <c r="D157" s="78"/>
-      <c r="E157" s="78"/>
-      <c r="F157" s="78"/>
-      <c r="G157" s="78"/>
-      <c r="H157" s="78"/>
-      <c r="I157" s="78"/>
-      <c r="J157" s="78"/>
-      <c r="K157" s="78"/>
-      <c r="L157" s="78"/>
-      <c r="M157" s="78"/>
-      <c r="N157" s="78" t="s">
-        <v>1915</v>
-      </c>
-      <c r="O157" s="78"/>
-      <c r="P157" s="78"/>
-      <c r="Q157" s="78"/>
-      <c r="R157" s="78"/>
-      <c r="S157" s="78"/>
-      <c r="T157" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="U157" s="78"/>
-      <c r="V157" s="78"/>
-      <c r="W157" s="78"/>
-      <c r="X157" s="78"/>
-      <c r="Y157" s="78"/>
-      <c r="Z157" s="78"/>
-      <c r="AA157" s="78"/>
-      <c r="AB157" s="78"/>
-      <c r="AC157" s="78"/>
-      <c r="AD157" s="78"/>
-      <c r="AE157" s="78"/>
-      <c r="AF157" s="78"/>
-      <c r="AG157" s="78"/>
-      <c r="AH157" s="78"/>
-      <c r="AI157" s="78"/>
-      <c r="AJ157" s="78"/>
+      <c r="A157" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="B157" s="79"/>
+      <c r="C157" s="79"/>
+      <c r="D157" s="79"/>
+      <c r="E157" s="79"/>
+      <c r="F157" s="79"/>
+      <c r="G157" s="79"/>
+      <c r="H157" s="79"/>
+      <c r="I157" s="79"/>
+      <c r="J157" s="79"/>
+      <c r="K157" s="79"/>
+      <c r="L157" s="79"/>
+      <c r="M157" s="79"/>
+      <c r="N157" s="79"/>
+      <c r="O157" s="79"/>
+      <c r="P157" s="79"/>
+      <c r="Q157" s="79"/>
+      <c r="R157" s="79"/>
+      <c r="S157" s="79"/>
+      <c r="T157" s="79"/>
+      <c r="U157" s="79"/>
+      <c r="V157" s="79"/>
+      <c r="W157" s="79"/>
+      <c r="X157" s="79"/>
+      <c r="Y157" s="79"/>
+      <c r="Z157" s="79"/>
+      <c r="AA157" s="79"/>
+      <c r="AB157" s="79"/>
+      <c r="AC157" s="79"/>
+      <c r="AD157" s="79"/>
+      <c r="AE157" s="79"/>
+      <c r="AF157" s="79"/>
+      <c r="AG157" s="79"/>
+      <c r="AH157" s="79"/>
+      <c r="AI157" s="79"/>
+      <c r="AJ157" s="79"/>
     </row>
     <row r="158" spans="1:36">
-      <c r="A158" s="79" t="s">
+      <c r="A158" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="B158" s="79"/>
-      <c r="C158" s="79"/>
-      <c r="D158" s="79"/>
-      <c r="E158" s="79"/>
-      <c r="F158" s="79"/>
-      <c r="G158" s="79"/>
-      <c r="H158" s="79"/>
-      <c r="I158" s="79"/>
-      <c r="J158" s="79"/>
-      <c r="K158" s="79"/>
-      <c r="L158" s="79"/>
-      <c r="M158" s="79"/>
-      <c r="N158" s="79"/>
-      <c r="O158" s="79"/>
-      <c r="P158" s="79"/>
-      <c r="Q158" s="79"/>
-      <c r="R158" s="79"/>
-      <c r="S158" s="79"/>
-      <c r="T158" s="79"/>
-      <c r="U158" s="79"/>
-      <c r="V158" s="79"/>
-      <c r="W158" s="79"/>
-      <c r="X158" s="79"/>
-      <c r="Y158" s="79"/>
-      <c r="Z158" s="79"/>
-      <c r="AA158" s="79"/>
-      <c r="AB158" s="79"/>
-      <c r="AC158" s="79"/>
-      <c r="AD158" s="79"/>
-      <c r="AE158" s="79"/>
-      <c r="AF158" s="79"/>
-      <c r="AG158" s="79"/>
-      <c r="AH158" s="79"/>
-      <c r="AI158" s="79"/>
-      <c r="AJ158" s="79"/>
+      <c r="B158" s="78"/>
+      <c r="C158" s="78"/>
+      <c r="D158" s="78"/>
+      <c r="E158" s="78"/>
+      <c r="F158" s="78"/>
+      <c r="G158" s="78"/>
+      <c r="H158" s="78"/>
+      <c r="I158" s="78"/>
+      <c r="J158" s="78"/>
+      <c r="K158" s="78"/>
+      <c r="L158" s="78"/>
+      <c r="M158" s="78"/>
+      <c r="N158" s="78"/>
+      <c r="O158" s="78"/>
+      <c r="P158" s="78"/>
+      <c r="Q158" s="78"/>
+      <c r="R158" s="78"/>
+      <c r="S158" s="78"/>
+      <c r="T158" s="78"/>
+      <c r="U158" s="78"/>
+      <c r="V158" s="78"/>
+      <c r="W158" s="78"/>
+      <c r="X158" s="78"/>
+      <c r="Y158" s="78"/>
+      <c r="Z158" s="78"/>
+      <c r="AA158" s="78"/>
+      <c r="AB158" s="78"/>
+      <c r="AC158" s="78"/>
+      <c r="AD158" s="78"/>
+      <c r="AE158" s="78"/>
+      <c r="AF158" s="78"/>
+      <c r="AG158" s="78"/>
+      <c r="AH158" s="78"/>
+      <c r="AI158" s="78"/>
+      <c r="AJ158" s="78"/>
     </row>
     <row r="159" spans="1:36">
-      <c r="A159" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="B159" s="78"/>
-      <c r="C159" s="78"/>
-      <c r="D159" s="78"/>
-      <c r="E159" s="78"/>
-      <c r="F159" s="78"/>
-      <c r="G159" s="78"/>
-      <c r="H159" s="78"/>
-      <c r="I159" s="78"/>
-      <c r="J159" s="78"/>
-      <c r="K159" s="78"/>
-      <c r="L159" s="78"/>
-      <c r="M159" s="78"/>
-      <c r="N159" s="78"/>
-      <c r="O159" s="78"/>
-      <c r="P159" s="78"/>
-      <c r="Q159" s="78"/>
-      <c r="R159" s="78"/>
-      <c r="S159" s="78"/>
-      <c r="T159" s="78"/>
-      <c r="U159" s="78"/>
-      <c r="V159" s="78"/>
-      <c r="W159" s="78"/>
-      <c r="X159" s="78"/>
-      <c r="Y159" s="78"/>
-      <c r="Z159" s="78"/>
-      <c r="AA159" s="78"/>
-      <c r="AB159" s="78"/>
-      <c r="AC159" s="78"/>
-      <c r="AD159" s="78"/>
-      <c r="AE159" s="78"/>
-      <c r="AF159" s="78"/>
-      <c r="AG159" s="78"/>
-      <c r="AH159" s="78"/>
-      <c r="AI159" s="78"/>
-      <c r="AJ159" s="78"/>
+      <c r="A159" s="62"/>
+      <c r="B159" s="62"/>
+      <c r="C159" s="62"/>
+      <c r="D159" s="62"/>
+      <c r="E159" s="62"/>
+      <c r="F159" s="62"/>
+      <c r="G159" s="62"/>
+      <c r="H159" s="62"/>
+      <c r="I159" s="62"/>
+      <c r="J159" s="62"/>
+      <c r="K159" s="62"/>
+      <c r="L159" s="62"/>
+      <c r="M159" s="62"/>
+      <c r="N159" s="62"/>
+      <c r="O159" s="62"/>
+      <c r="P159" s="62"/>
+      <c r="Q159" s="62"/>
+      <c r="R159" s="62"/>
+      <c r="S159" s="62"/>
+      <c r="T159" s="62"/>
+      <c r="U159" s="62"/>
+      <c r="V159" s="62"/>
+      <c r="W159" s="62"/>
+      <c r="X159" s="62"/>
+      <c r="Y159" s="62"/>
+      <c r="Z159" s="62"/>
+      <c r="AA159" s="62"/>
+      <c r="AB159" s="62"/>
+      <c r="AC159" s="62"/>
+      <c r="AD159" s="62"/>
+      <c r="AE159" s="62"/>
+      <c r="AF159" s="62"/>
+      <c r="AG159" s="62"/>
+      <c r="AH159" s="62"/>
+      <c r="AI159" s="62"/>
+      <c r="AJ159" s="62"/>
     </row>
     <row r="160" spans="1:36">
-      <c r="A160" s="62"/>
-      <c r="B160" s="62"/>
-      <c r="C160" s="62"/>
-      <c r="D160" s="62"/>
-      <c r="E160" s="62"/>
-      <c r="F160" s="62"/>
-      <c r="G160" s="62"/>
-      <c r="H160" s="62"/>
-      <c r="I160" s="62"/>
-      <c r="J160" s="62"/>
-      <c r="K160" s="62"/>
-      <c r="L160" s="62"/>
-      <c r="M160" s="62"/>
-      <c r="N160" s="62"/>
-      <c r="O160" s="62"/>
-      <c r="P160" s="62"/>
-      <c r="Q160" s="62"/>
-      <c r="R160" s="62"/>
-      <c r="S160" s="62"/>
-      <c r="T160" s="62"/>
-      <c r="U160" s="62"/>
-      <c r="V160" s="62"/>
-      <c r="W160" s="62"/>
-      <c r="X160" s="62"/>
-      <c r="Y160" s="62"/>
-      <c r="Z160" s="62"/>
-      <c r="AA160" s="62"/>
-      <c r="AB160" s="62"/>
-      <c r="AC160" s="62"/>
-      <c r="AD160" s="62"/>
-      <c r="AE160" s="62"/>
-      <c r="AF160" s="62"/>
-      <c r="AG160" s="62"/>
-      <c r="AH160" s="62"/>
-      <c r="AI160" s="62"/>
-      <c r="AJ160" s="62"/>
+      <c r="A160" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="B160" s="71" t="s">
+        <v>1943</v>
+      </c>
+      <c r="C160" s="71" t="s">
+        <v>2112</v>
+      </c>
+      <c r="D160" s="71"/>
+      <c r="E160" s="71"/>
+      <c r="F160" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="G160" s="71"/>
+      <c r="H160" s="71"/>
+      <c r="I160" s="71"/>
+      <c r="J160" s="71"/>
+      <c r="K160" s="71"/>
+      <c r="L160" s="71"/>
+      <c r="M160" s="71"/>
+      <c r="N160" s="71" t="s">
+        <v>1944</v>
+      </c>
+      <c r="O160" s="71"/>
+      <c r="P160" s="71"/>
+      <c r="Q160" s="71"/>
+      <c r="R160" s="71"/>
+      <c r="S160" s="71"/>
+      <c r="T160" s="71"/>
+      <c r="U160" s="71"/>
+      <c r="V160" s="71"/>
+      <c r="W160" s="71"/>
+      <c r="X160" s="71"/>
+      <c r="Y160" s="71"/>
+      <c r="Z160" s="71"/>
+      <c r="AA160" s="71"/>
+      <c r="AB160" s="71"/>
+      <c r="AC160" s="71"/>
+      <c r="AD160" s="71"/>
+      <c r="AE160" s="71"/>
+      <c r="AF160" s="71"/>
+      <c r="AG160" s="71"/>
+      <c r="AH160" s="71"/>
+      <c r="AI160" s="71"/>
+      <c r="AJ160" s="71"/>
     </row>
     <row r="161" spans="1:36">
       <c r="A161" s="71" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B161" s="71" t="s">
-        <v>1944</v>
+        <v>1633</v>
       </c>
       <c r="C161" s="71" t="s">
-        <v>2118</v>
+        <v>2112</v>
       </c>
       <c r="D161" s="71"/>
       <c r="E161" s="71"/>
-      <c r="F161" s="71" t="s">
-        <v>79</v>
-      </c>
+      <c r="F161" s="71"/>
       <c r="G161" s="71"/>
       <c r="H161" s="71"/>
       <c r="I161" s="71"/>
@@ -15507,9 +15498,7 @@
       <c r="K161" s="71"/>
       <c r="L161" s="71"/>
       <c r="M161" s="71"/>
-      <c r="N161" s="71" t="s">
-        <v>1945</v>
-      </c>
+      <c r="N161" s="71"/>
       <c r="O161" s="71"/>
       <c r="P161" s="71"/>
       <c r="Q161" s="71"/>
@@ -15534,33 +15523,35 @@
       <c r="AJ161" s="71"/>
     </row>
     <row r="162" spans="1:36">
-      <c r="A162" s="71" t="s">
-        <v>31</v>
-      </c>
-      <c r="B162" s="71" t="s">
-        <v>1633</v>
-      </c>
-      <c r="C162" s="71" t="s">
-        <v>2118</v>
-      </c>
-      <c r="D162" s="71"/>
-      <c r="E162" s="71"/>
-      <c r="F162" s="71"/>
-      <c r="G162" s="71"/>
-      <c r="H162" s="71"/>
-      <c r="I162" s="71"/>
-      <c r="J162" s="71"/>
-      <c r="K162" s="71"/>
-      <c r="L162" s="71"/>
-      <c r="M162" s="71"/>
-      <c r="N162" s="71"/>
-      <c r="O162" s="71"/>
-      <c r="P162" s="71"/>
-      <c r="Q162" s="71"/>
-      <c r="R162" s="71"/>
-      <c r="S162" s="71"/>
-      <c r="T162" s="71"/>
-      <c r="U162" s="71"/>
+      <c r="A162" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="B162" s="70" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C162" s="70" t="s">
+        <v>2121</v>
+      </c>
+      <c r="D162" s="70"/>
+      <c r="E162" s="70"/>
+      <c r="F162" s="70"/>
+      <c r="G162" s="70"/>
+      <c r="H162" s="70"/>
+      <c r="I162" s="70"/>
+      <c r="J162" s="70"/>
+      <c r="K162" s="70"/>
+      <c r="L162" s="70"/>
+      <c r="M162" s="70"/>
+      <c r="N162" s="70"/>
+      <c r="O162" s="70"/>
+      <c r="P162" s="70"/>
+      <c r="Q162" s="70"/>
+      <c r="R162" s="70"/>
+      <c r="S162" s="70"/>
+      <c r="T162" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="U162" s="70"/>
       <c r="V162" s="71"/>
       <c r="W162" s="71"/>
       <c r="X162" s="71"/>
@@ -15578,66 +15569,70 @@
       <c r="AJ162" s="71"/>
     </row>
     <row r="163" spans="1:36">
-      <c r="A163" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="B163" s="68" t="s">
-        <v>2021</v>
-      </c>
-      <c r="C163" s="68" t="s">
-        <v>1990</v>
-      </c>
-      <c r="D163" s="68"/>
-      <c r="E163" s="68"/>
-      <c r="F163" s="68"/>
-      <c r="G163" s="68"/>
-      <c r="H163" s="68"/>
-      <c r="I163" s="68"/>
-      <c r="J163" s="68"/>
-      <c r="K163" s="68"/>
-      <c r="L163" s="68"/>
-      <c r="M163" s="68"/>
-      <c r="N163" s="68" t="s">
-        <v>1915</v>
-      </c>
-      <c r="O163" s="68"/>
-      <c r="P163" s="68"/>
-      <c r="Q163" s="68"/>
-      <c r="R163" s="68"/>
-      <c r="S163" s="68"/>
-      <c r="T163" s="68" t="s">
-        <v>108</v>
-      </c>
-      <c r="U163" s="68"/>
-      <c r="V163" s="68"/>
-      <c r="W163" s="68"/>
-      <c r="X163" s="68"/>
-      <c r="Y163" s="68"/>
-      <c r="Z163" s="68"/>
-      <c r="AA163" s="68"/>
-      <c r="AB163" s="68"/>
-      <c r="AC163" s="68"/>
-      <c r="AD163" s="68"/>
-      <c r="AE163" s="68"/>
-      <c r="AF163" s="68"/>
-      <c r="AG163" s="68"/>
-      <c r="AH163" s="68"/>
-      <c r="AI163" s="68"/>
-      <c r="AJ163" s="68"/>
+      <c r="A163" s="70" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B163" s="70" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C163" s="70" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D163" s="70"/>
+      <c r="E163" s="70"/>
+      <c r="F163" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="G163" s="70"/>
+      <c r="H163" s="70"/>
+      <c r="I163" s="70"/>
+      <c r="J163" s="70"/>
+      <c r="K163" s="70"/>
+      <c r="L163" s="70"/>
+      <c r="M163" s="70"/>
+      <c r="N163" s="70"/>
+      <c r="O163" s="70"/>
+      <c r="P163" s="70"/>
+      <c r="Q163" s="70"/>
+      <c r="R163" s="70"/>
+      <c r="S163" s="70"/>
+      <c r="T163" s="70" t="s">
+        <v>102</v>
+      </c>
+      <c r="U163" s="70">
+        <v>32</v>
+      </c>
+      <c r="V163" s="71"/>
+      <c r="W163" s="71"/>
+      <c r="X163" s="71"/>
+      <c r="Y163" s="71"/>
+      <c r="Z163" s="71"/>
+      <c r="AA163" s="71"/>
+      <c r="AB163" s="71"/>
+      <c r="AC163" s="71"/>
+      <c r="AD163" s="71"/>
+      <c r="AE163" s="71"/>
+      <c r="AF163" s="71"/>
+      <c r="AG163" s="71"/>
+      <c r="AH163" s="71"/>
+      <c r="AI163" s="71"/>
+      <c r="AJ163" s="71"/>
     </row>
     <row r="164" spans="1:36">
       <c r="A164" s="70" t="s">
-        <v>24</v>
+        <v>1637</v>
       </c>
       <c r="B164" s="70" t="s">
-        <v>1623</v>
+        <v>1551</v>
       </c>
       <c r="C164" s="70" t="s">
-        <v>2127</v>
+        <v>2118</v>
       </c>
       <c r="D164" s="70"/>
       <c r="E164" s="70"/>
-      <c r="F164" s="70"/>
+      <c r="F164" s="70" t="s">
+        <v>51</v>
+      </c>
       <c r="G164" s="70"/>
       <c r="H164" s="70"/>
       <c r="I164" s="70"/>
@@ -15652,9 +15647,11 @@
       <c r="R164" s="70"/>
       <c r="S164" s="70"/>
       <c r="T164" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="U164" s="70"/>
+        <v>102</v>
+      </c>
+      <c r="U164" s="70">
+        <v>32</v>
+      </c>
       <c r="V164" s="71"/>
       <c r="W164" s="71"/>
       <c r="X164" s="71"/>
@@ -15673,19 +15670,17 @@
     </row>
     <row r="165" spans="1:36">
       <c r="A165" s="70" t="s">
-        <v>1634</v>
+        <v>4</v>
       </c>
       <c r="B165" s="70" t="s">
-        <v>1635</v>
+        <v>1624</v>
       </c>
       <c r="C165" s="70" t="s">
-        <v>1636</v>
+        <v>2123</v>
       </c>
       <c r="D165" s="70"/>
       <c r="E165" s="70"/>
-      <c r="F165" s="70" t="s">
-        <v>51</v>
-      </c>
+      <c r="F165" s="70"/>
       <c r="G165" s="70"/>
       <c r="H165" s="70"/>
       <c r="I165" s="70"/>
@@ -15700,11 +15695,9 @@
       <c r="R165" s="70"/>
       <c r="S165" s="70"/>
       <c r="T165" s="70" t="s">
-        <v>102</v>
-      </c>
-      <c r="U165" s="70">
-        <v>32</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="U165" s="70"/>
       <c r="V165" s="71"/>
       <c r="W165" s="71"/>
       <c r="X165" s="71"/>
@@ -15723,24 +15716,26 @@
     </row>
     <row r="166" spans="1:36">
       <c r="A166" s="70" t="s">
-        <v>1637</v>
+        <v>1503</v>
       </c>
       <c r="B166" s="70" t="s">
-        <v>1551</v>
+        <v>1945</v>
       </c>
       <c r="C166" s="70" t="s">
-        <v>2124</v>
+        <v>2226</v>
       </c>
       <c r="D166" s="70"/>
       <c r="E166" s="70"/>
       <c r="F166" s="70" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G166" s="70"/>
       <c r="H166" s="70"/>
       <c r="I166" s="70"/>
       <c r="J166" s="70"/>
-      <c r="K166" s="70"/>
+      <c r="K166" s="70" t="s">
+        <v>2227</v>
+      </c>
       <c r="L166" s="70"/>
       <c r="M166" s="70"/>
       <c r="N166" s="70"/>
@@ -15750,11 +15745,9 @@
       <c r="R166" s="70"/>
       <c r="S166" s="70"/>
       <c r="T166" s="70" t="s">
-        <v>102</v>
-      </c>
-      <c r="U166" s="70">
-        <v>32</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="U166" s="70"/>
       <c r="V166" s="71"/>
       <c r="W166" s="71"/>
       <c r="X166" s="71"/>
@@ -15776,10 +15769,10 @@
         <v>4</v>
       </c>
       <c r="B167" s="70" t="s">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="C167" s="70" t="s">
-        <v>2129</v>
+        <v>2124</v>
       </c>
       <c r="D167" s="70"/>
       <c r="E167" s="70"/>
@@ -15791,7 +15784,9 @@
       <c r="K167" s="70"/>
       <c r="L167" s="70"/>
       <c r="M167" s="70"/>
-      <c r="N167" s="70"/>
+      <c r="N167" s="70" t="s">
+        <v>1948</v>
+      </c>
       <c r="O167" s="70"/>
       <c r="P167" s="70"/>
       <c r="Q167" s="70"/>
@@ -15819,36 +15814,38 @@
     </row>
     <row r="168" spans="1:36">
       <c r="A168" s="70" t="s">
-        <v>1503</v>
+        <v>4</v>
       </c>
       <c r="B168" s="70" t="s">
-        <v>1946</v>
+        <v>1627</v>
       </c>
       <c r="C168" s="70" t="s">
-        <v>2233</v>
+        <v>2097</v>
       </c>
       <c r="D168" s="70"/>
       <c r="E168" s="70"/>
       <c r="F168" s="70" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G168" s="70"/>
       <c r="H168" s="70"/>
       <c r="I168" s="70"/>
       <c r="J168" s="70"/>
       <c r="K168" s="70" t="s">
-        <v>2234</v>
+        <v>2014</v>
       </c>
       <c r="L168" s="70"/>
       <c r="M168" s="70"/>
-      <c r="N168" s="70"/>
+      <c r="N168" s="70" t="s">
+        <v>1948</v>
+      </c>
       <c r="O168" s="70"/>
       <c r="P168" s="70"/>
       <c r="Q168" s="70"/>
       <c r="R168" s="70"/>
       <c r="S168" s="70"/>
       <c r="T168" s="70" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="U168" s="70"/>
       <c r="V168" s="71"/>
@@ -15872,23 +15869,27 @@
         <v>4</v>
       </c>
       <c r="B169" s="70" t="s">
-        <v>1626</v>
+        <v>1993</v>
       </c>
       <c r="C169" s="70" t="s">
-        <v>2130</v>
+        <v>1996</v>
       </c>
       <c r="D169" s="70"/>
       <c r="E169" s="70"/>
-      <c r="F169" s="70"/>
+      <c r="F169" s="70" t="s">
+        <v>38</v>
+      </c>
       <c r="G169" s="70"/>
       <c r="H169" s="70"/>
       <c r="I169" s="70"/>
       <c r="J169" s="70"/>
-      <c r="K169" s="70"/>
+      <c r="K169" s="70" t="s">
+        <v>2221</v>
+      </c>
       <c r="L169" s="70"/>
       <c r="M169" s="70"/>
       <c r="N169" s="70" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="O169" s="70"/>
       <c r="P169" s="70"/>
@@ -15896,7 +15897,7 @@
       <c r="R169" s="70"/>
       <c r="S169" s="70"/>
       <c r="T169" s="70" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="U169" s="70"/>
       <c r="V169" s="71"/>
@@ -15920,27 +15921,27 @@
         <v>4</v>
       </c>
       <c r="B170" s="70" t="s">
-        <v>1627</v>
+        <v>1995</v>
       </c>
       <c r="C170" s="70" t="s">
-        <v>2102</v>
+        <v>2125</v>
       </c>
       <c r="D170" s="70"/>
       <c r="E170" s="70"/>
-      <c r="F170" s="70" t="s">
-        <v>38</v>
-      </c>
+      <c r="F170" s="70"/>
       <c r="G170" s="70"/>
       <c r="H170" s="70"/>
-      <c r="I170" s="70"/>
+      <c r="I170" s="70" t="s">
+        <v>1881</v>
+      </c>
       <c r="J170" s="70"/>
       <c r="K170" s="70" t="s">
-        <v>2017</v>
+        <v>2222</v>
       </c>
       <c r="L170" s="70"/>
       <c r="M170" s="70"/>
       <c r="N170" s="70" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="O170" s="70"/>
       <c r="P170" s="70"/>
@@ -15948,7 +15949,7 @@
       <c r="R170" s="70"/>
       <c r="S170" s="70"/>
       <c r="T170" s="70" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="U170" s="70"/>
       <c r="V170" s="71"/>
@@ -15969,30 +15970,28 @@
     </row>
     <row r="171" spans="1:36">
       <c r="A171" s="70" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B171" s="70" t="s">
-        <v>1996</v>
+        <v>1949</v>
       </c>
       <c r="C171" s="70" t="s">
-        <v>1999</v>
+        <v>1899</v>
       </c>
       <c r="D171" s="70"/>
       <c r="E171" s="70"/>
-      <c r="F171" s="70" t="s">
-        <v>38</v>
-      </c>
+      <c r="F171" s="70"/>
       <c r="G171" s="70"/>
       <c r="H171" s="70"/>
       <c r="I171" s="70"/>
       <c r="J171" s="70"/>
       <c r="K171" s="70" t="s">
-        <v>2228</v>
+        <v>2223</v>
       </c>
       <c r="L171" s="70"/>
       <c r="M171" s="70"/>
       <c r="N171" s="70" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="O171" s="70"/>
       <c r="P171" s="70"/>
@@ -16021,30 +16020,26 @@
     </row>
     <row r="172" spans="1:36">
       <c r="A172" s="70" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B172" s="70" t="s">
-        <v>1998</v>
+        <v>1950</v>
       </c>
       <c r="C172" s="70" t="s">
-        <v>2131</v>
+        <v>2017</v>
       </c>
       <c r="D172" s="70"/>
       <c r="E172" s="70"/>
       <c r="F172" s="70"/>
       <c r="G172" s="70"/>
       <c r="H172" s="70"/>
-      <c r="I172" s="70" t="s">
-        <v>1881</v>
-      </c>
+      <c r="I172" s="70"/>
       <c r="J172" s="70"/>
-      <c r="K172" s="70" t="s">
-        <v>2229</v>
-      </c>
+      <c r="K172" s="70"/>
       <c r="L172" s="70"/>
       <c r="M172" s="70"/>
       <c r="N172" s="70" t="s">
-        <v>1949</v>
+        <v>1951</v>
       </c>
       <c r="O172" s="70"/>
       <c r="P172" s="70"/>
@@ -16073,28 +16068,28 @@
     </row>
     <row r="173" spans="1:36">
       <c r="A173" s="70" t="s">
-        <v>38</v>
+        <v>1503</v>
       </c>
       <c r="B173" s="70" t="s">
-        <v>1950</v>
+        <v>1997</v>
       </c>
       <c r="C173" s="70" t="s">
-        <v>1899</v>
+        <v>1998</v>
       </c>
       <c r="D173" s="70"/>
       <c r="E173" s="70"/>
-      <c r="F173" s="70"/>
+      <c r="F173" s="70" t="s">
+        <v>55</v>
+      </c>
       <c r="G173" s="70"/>
       <c r="H173" s="70"/>
       <c r="I173" s="70"/>
       <c r="J173" s="70"/>
-      <c r="K173" s="70" t="s">
-        <v>2230</v>
-      </c>
+      <c r="K173" s="70"/>
       <c r="L173" s="70"/>
       <c r="M173" s="70"/>
       <c r="N173" s="70" t="s">
-        <v>1949</v>
+        <v>1951</v>
       </c>
       <c r="O173" s="70"/>
       <c r="P173" s="70"/>
@@ -16123,17 +16118,19 @@
     </row>
     <row r="174" spans="1:36">
       <c r="A174" s="70" t="s">
-        <v>15</v>
+        <v>1503</v>
       </c>
       <c r="B174" s="70" t="s">
-        <v>1951</v>
+        <v>1628</v>
       </c>
       <c r="C174" s="70" t="s">
-        <v>2020</v>
+        <v>1999</v>
       </c>
       <c r="D174" s="70"/>
       <c r="E174" s="70"/>
-      <c r="F174" s="70"/>
+      <c r="F174" s="70" t="s">
+        <v>55</v>
+      </c>
       <c r="G174" s="70"/>
       <c r="H174" s="70"/>
       <c r="I174" s="70"/>
@@ -16142,7 +16139,7 @@
       <c r="L174" s="70"/>
       <c r="M174" s="70"/>
       <c r="N174" s="70" t="s">
-        <v>1952</v>
+        <v>2000</v>
       </c>
       <c r="O174" s="70"/>
       <c r="P174" s="70"/>
@@ -16150,9 +16147,11 @@
       <c r="R174" s="70"/>
       <c r="S174" s="70"/>
       <c r="T174" s="70" t="s">
-        <v>108</v>
-      </c>
-      <c r="U174" s="70"/>
+        <v>102</v>
+      </c>
+      <c r="U174" s="70">
+        <v>3</v>
+      </c>
       <c r="V174" s="71"/>
       <c r="W174" s="71"/>
       <c r="X174" s="71"/>
@@ -16171,18 +16170,18 @@
     </row>
     <row r="175" spans="1:36">
       <c r="A175" s="70" t="s">
-        <v>1503</v>
+        <v>1639</v>
       </c>
       <c r="B175" s="70" t="s">
-        <v>2000</v>
+        <v>1640</v>
       </c>
       <c r="C175" s="70" t="s">
-        <v>2001</v>
+        <v>2126</v>
       </c>
       <c r="D175" s="70"/>
       <c r="E175" s="70"/>
       <c r="F175" s="70" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G175" s="70"/>
       <c r="H175" s="70"/>
@@ -16192,7 +16191,7 @@
       <c r="L175" s="70"/>
       <c r="M175" s="70"/>
       <c r="N175" s="70" t="s">
-        <v>1952</v>
+        <v>1986</v>
       </c>
       <c r="O175" s="70"/>
       <c r="P175" s="70"/>
@@ -16200,7 +16199,7 @@
       <c r="R175" s="70"/>
       <c r="S175" s="70"/>
       <c r="T175" s="70" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="U175" s="70"/>
       <c r="V175" s="71"/>
@@ -16221,19 +16220,17 @@
     </row>
     <row r="176" spans="1:36">
       <c r="A176" s="70" t="s">
-        <v>1503</v>
+        <v>24</v>
       </c>
       <c r="B176" s="70" t="s">
-        <v>1628</v>
+        <v>1632</v>
       </c>
       <c r="C176" s="70" t="s">
-        <v>2002</v>
+        <v>2127</v>
       </c>
       <c r="D176" s="70"/>
       <c r="E176" s="70"/>
-      <c r="F176" s="70" t="s">
-        <v>55</v>
-      </c>
+      <c r="F176" s="70"/>
       <c r="G176" s="70"/>
       <c r="H176" s="70"/>
       <c r="I176" s="70"/>
@@ -16242,7 +16239,7 @@
       <c r="L176" s="70"/>
       <c r="M176" s="70"/>
       <c r="N176" s="70" t="s">
-        <v>2003</v>
+        <v>1986</v>
       </c>
       <c r="O176" s="70"/>
       <c r="P176" s="70"/>
@@ -16250,11 +16247,9 @@
       <c r="R176" s="70"/>
       <c r="S176" s="70"/>
       <c r="T176" s="70" t="s">
-        <v>102</v>
-      </c>
-      <c r="U176" s="70">
-        <v>3</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="U176" s="70"/>
       <c r="V176" s="71"/>
       <c r="W176" s="71"/>
       <c r="X176" s="71"/>
@@ -16276,10 +16271,10 @@
         <v>1639</v>
       </c>
       <c r="B177" s="70" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="C177" s="70" t="s">
-        <v>2132</v>
+        <v>2128</v>
       </c>
       <c r="D177" s="70"/>
       <c r="E177" s="70"/>
@@ -16294,7 +16289,7 @@
       <c r="L177" s="70"/>
       <c r="M177" s="70"/>
       <c r="N177" s="70" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="O177" s="70"/>
       <c r="P177" s="70"/>
@@ -16322,87 +16317,85 @@
       <c r="AJ177" s="71"/>
     </row>
     <row r="178" spans="1:36">
-      <c r="A178" s="70" t="s">
+      <c r="A178" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="B178" s="70" t="s">
+        <v>2001</v>
+      </c>
+      <c r="C178" s="75" t="s">
+        <v>2129</v>
+      </c>
+      <c r="D178" s="75"/>
+      <c r="E178" s="75"/>
+      <c r="F178" s="75"/>
+      <c r="G178" s="75"/>
+      <c r="H178" s="75"/>
+      <c r="I178" s="75"/>
+      <c r="J178" s="75"/>
+      <c r="K178" s="75"/>
+      <c r="L178" s="75"/>
+      <c r="M178" s="75"/>
+      <c r="N178" s="70" t="s">
+        <v>1986</v>
+      </c>
+      <c r="O178" s="75"/>
+      <c r="P178" s="75"/>
+      <c r="Q178" s="75"/>
+      <c r="R178" s="75"/>
+      <c r="S178" s="75"/>
+      <c r="T178" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="U178" s="75"/>
+      <c r="V178" s="80"/>
+      <c r="W178" s="80"/>
+      <c r="X178" s="80"/>
+      <c r="Y178" s="80"/>
+      <c r="Z178" s="80"/>
+      <c r="AA178" s="80"/>
+      <c r="AB178" s="80"/>
+      <c r="AC178" s="80"/>
+      <c r="AD178" s="80"/>
+      <c r="AE178" s="80"/>
+      <c r="AF178" s="80"/>
+      <c r="AG178" s="80"/>
+      <c r="AH178" s="80"/>
+      <c r="AI178" s="80"/>
+      <c r="AJ178" s="80"/>
+    </row>
+    <row r="179" spans="1:36">
+      <c r="A179" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="B178" s="70" t="s">
-        <v>1632</v>
-      </c>
-      <c r="C178" s="70" t="s">
-        <v>2133</v>
-      </c>
-      <c r="D178" s="70"/>
-      <c r="E178" s="70"/>
-      <c r="F178" s="70"/>
-      <c r="G178" s="70"/>
-      <c r="H178" s="70"/>
-      <c r="I178" s="70"/>
-      <c r="J178" s="70"/>
-      <c r="K178" s="70"/>
-      <c r="L178" s="70"/>
-      <c r="M178" s="70"/>
-      <c r="N178" s="70" t="s">
-        <v>1987</v>
-      </c>
-      <c r="O178" s="70"/>
-      <c r="P178" s="70"/>
-      <c r="Q178" s="70"/>
-      <c r="R178" s="70"/>
-      <c r="S178" s="70"/>
-      <c r="T178" s="70" t="s">
+      <c r="B179" s="71" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C179" s="71" t="s">
+        <v>2130</v>
+      </c>
+      <c r="D179" s="71"/>
+      <c r="E179" s="71"/>
+      <c r="F179" s="71"/>
+      <c r="G179" s="71"/>
+      <c r="H179" s="71"/>
+      <c r="I179" s="71"/>
+      <c r="J179" s="71"/>
+      <c r="K179" s="71"/>
+      <c r="L179" s="71"/>
+      <c r="M179" s="71"/>
+      <c r="N179" s="70" t="s">
+        <v>1986</v>
+      </c>
+      <c r="O179" s="71"/>
+      <c r="P179" s="71"/>
+      <c r="Q179" s="71"/>
+      <c r="R179" s="71"/>
+      <c r="S179" s="71"/>
+      <c r="T179" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="U178" s="70"/>
-      <c r="V178" s="71"/>
-      <c r="W178" s="71"/>
-      <c r="X178" s="71"/>
-      <c r="Y178" s="71"/>
-      <c r="Z178" s="71"/>
-      <c r="AA178" s="71"/>
-      <c r="AB178" s="71"/>
-      <c r="AC178" s="71"/>
-      <c r="AD178" s="71"/>
-      <c r="AE178" s="71"/>
-      <c r="AF178" s="71"/>
-      <c r="AG178" s="71"/>
-      <c r="AH178" s="71"/>
-      <c r="AI178" s="71"/>
-      <c r="AJ178" s="71"/>
-    </row>
-    <row r="179" spans="1:36">
-      <c r="A179" s="70" t="s">
-        <v>1639</v>
-      </c>
-      <c r="B179" s="70" t="s">
-        <v>1641</v>
-      </c>
-      <c r="C179" s="70" t="s">
-        <v>2134</v>
-      </c>
-      <c r="D179" s="70"/>
-      <c r="E179" s="70"/>
-      <c r="F179" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="G179" s="70"/>
-      <c r="H179" s="70"/>
-      <c r="I179" s="70"/>
-      <c r="J179" s="70"/>
-      <c r="K179" s="70"/>
-      <c r="L179" s="70"/>
-      <c r="M179" s="70"/>
-      <c r="N179" s="70" t="s">
-        <v>1987</v>
-      </c>
-      <c r="O179" s="70"/>
-      <c r="P179" s="70"/>
-      <c r="Q179" s="70"/>
-      <c r="R179" s="70"/>
-      <c r="S179" s="70"/>
-      <c r="T179" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="U179" s="70"/>
+      <c r="U179" s="71"/>
       <c r="V179" s="71"/>
       <c r="W179" s="71"/>
       <c r="X179" s="71"/>
@@ -16420,85 +16413,93 @@
       <c r="AJ179" s="71"/>
     </row>
     <row r="180" spans="1:36">
-      <c r="A180" s="75" t="s">
-        <v>4</v>
+      <c r="A180" s="70" t="s">
+        <v>6</v>
       </c>
       <c r="B180" s="70" t="s">
+        <v>2002</v>
+      </c>
+      <c r="C180" s="70" t="s">
+        <v>1994</v>
+      </c>
+      <c r="D180" s="70"/>
+      <c r="E180" s="70"/>
+      <c r="F180" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="G180" s="70"/>
+      <c r="H180" s="70"/>
+      <c r="I180" s="70"/>
+      <c r="J180" s="70"/>
+      <c r="K180" s="70" t="s">
+        <v>2015</v>
+      </c>
+      <c r="L180" s="70"/>
+      <c r="M180" s="70"/>
+      <c r="N180" s="70" t="s">
+        <v>1986</v>
+      </c>
+      <c r="O180" s="70"/>
+      <c r="P180" s="70"/>
+      <c r="Q180" s="70"/>
+      <c r="R180" s="70"/>
+      <c r="S180" s="70"/>
+      <c r="T180" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="U180" s="70"/>
+      <c r="V180" s="71"/>
+      <c r="W180" s="71"/>
+      <c r="X180" s="71"/>
+      <c r="Y180" s="71"/>
+      <c r="Z180" s="71"/>
+      <c r="AA180" s="71"/>
+      <c r="AB180" s="71"/>
+      <c r="AC180" s="71"/>
+      <c r="AD180" s="71"/>
+      <c r="AE180" s="71"/>
+      <c r="AF180" s="71"/>
+      <c r="AG180" s="71"/>
+      <c r="AH180" s="71"/>
+      <c r="AI180" s="71"/>
+      <c r="AJ180" s="71"/>
+    </row>
+    <row r="181" spans="1:36">
+      <c r="A181" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B181" s="70" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C181" s="70" t="s">
+        <v>1996</v>
+      </c>
+      <c r="D181" s="70"/>
+      <c r="E181" s="70"/>
+      <c r="F181" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="G181" s="70"/>
+      <c r="H181" s="70"/>
+      <c r="I181" s="70"/>
+      <c r="J181" s="70"/>
+      <c r="K181" s="70" t="s">
         <v>2004</v>
       </c>
-      <c r="C180" s="75" t="s">
-        <v>2135</v>
-      </c>
-      <c r="D180" s="75"/>
-      <c r="E180" s="75"/>
-      <c r="F180" s="75"/>
-      <c r="G180" s="75"/>
-      <c r="H180" s="75"/>
-      <c r="I180" s="75"/>
-      <c r="J180" s="75"/>
-      <c r="K180" s="75"/>
-      <c r="L180" s="75"/>
-      <c r="M180" s="75"/>
-      <c r="N180" s="70" t="s">
-        <v>1987</v>
-      </c>
-      <c r="O180" s="75"/>
-      <c r="P180" s="75"/>
-      <c r="Q180" s="75"/>
-      <c r="R180" s="75"/>
-      <c r="S180" s="75"/>
-      <c r="T180" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="U180" s="75"/>
-      <c r="V180" s="80"/>
-      <c r="W180" s="80"/>
-      <c r="X180" s="80"/>
-      <c r="Y180" s="80"/>
-      <c r="Z180" s="80"/>
-      <c r="AA180" s="80"/>
-      <c r="AB180" s="80"/>
-      <c r="AC180" s="80"/>
-      <c r="AD180" s="80"/>
-      <c r="AE180" s="80"/>
-      <c r="AF180" s="80"/>
-      <c r="AG180" s="80"/>
-      <c r="AH180" s="80"/>
-      <c r="AI180" s="80"/>
-      <c r="AJ180" s="80"/>
-    </row>
-    <row r="181" spans="1:36">
-      <c r="A181" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="B181" s="71" t="s">
-        <v>1642</v>
-      </c>
-      <c r="C181" s="71" t="s">
-        <v>2136</v>
-      </c>
-      <c r="D181" s="71"/>
-      <c r="E181" s="71"/>
-      <c r="F181" s="71"/>
-      <c r="G181" s="71"/>
-      <c r="H181" s="71"/>
-      <c r="I181" s="71"/>
-      <c r="J181" s="71"/>
-      <c r="K181" s="71"/>
-      <c r="L181" s="71"/>
-      <c r="M181" s="71"/>
+      <c r="L181" s="70"/>
+      <c r="M181" s="70"/>
       <c r="N181" s="70" t="s">
-        <v>1987</v>
-      </c>
-      <c r="O181" s="71"/>
-      <c r="P181" s="71"/>
-      <c r="Q181" s="71"/>
-      <c r="R181" s="71"/>
-      <c r="S181" s="71"/>
+        <v>1986</v>
+      </c>
+      <c r="O181" s="70"/>
+      <c r="P181" s="70"/>
+      <c r="Q181" s="70"/>
+      <c r="R181" s="70"/>
+      <c r="S181" s="70"/>
       <c r="T181" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="U181" s="71"/>
+        <v>108</v>
+      </c>
+      <c r="U181" s="70"/>
       <c r="V181" s="71"/>
       <c r="W181" s="71"/>
       <c r="X181" s="71"/>
@@ -16523,24 +16524,24 @@
         <v>2005</v>
       </c>
       <c r="C182" s="70" t="s">
-        <v>1997</v>
+        <v>2125</v>
       </c>
       <c r="D182" s="70"/>
       <c r="E182" s="70"/>
-      <c r="F182" s="70" t="s">
-        <v>38</v>
-      </c>
+      <c r="F182" s="70"/>
       <c r="G182" s="70"/>
       <c r="H182" s="70"/>
-      <c r="I182" s="70"/>
+      <c r="I182" s="70" t="s">
+        <v>1881</v>
+      </c>
       <c r="J182" s="70"/>
       <c r="K182" s="70" t="s">
-        <v>2018</v>
+        <v>2224</v>
       </c>
       <c r="L182" s="70"/>
       <c r="M182" s="70"/>
       <c r="N182" s="70" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="O182" s="70"/>
       <c r="P182" s="70"/>
@@ -16569,30 +16570,28 @@
     </row>
     <row r="183" spans="1:36">
       <c r="A183" s="70" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B183" s="70" t="s">
         <v>2006</v>
       </c>
       <c r="C183" s="70" t="s">
-        <v>1999</v>
+        <v>1899</v>
       </c>
       <c r="D183" s="70"/>
       <c r="E183" s="70"/>
-      <c r="F183" s="70" t="s">
-        <v>38</v>
-      </c>
+      <c r="F183" s="70"/>
       <c r="G183" s="70"/>
       <c r="H183" s="70"/>
       <c r="I183" s="70"/>
       <c r="J183" s="70"/>
       <c r="K183" s="70" t="s">
-        <v>2007</v>
+        <v>2225</v>
       </c>
       <c r="L183" s="70"/>
       <c r="M183" s="70"/>
       <c r="N183" s="70" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="O183" s="70"/>
       <c r="P183" s="70"/>
@@ -16621,30 +16620,26 @@
     </row>
     <row r="184" spans="1:36">
       <c r="A184" s="70" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B184" s="70" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C184" s="70" t="s">
         <v>2008</v>
-      </c>
-      <c r="C184" s="70" t="s">
-        <v>2131</v>
       </c>
       <c r="D184" s="70"/>
       <c r="E184" s="70"/>
       <c r="F184" s="70"/>
       <c r="G184" s="70"/>
       <c r="H184" s="70"/>
-      <c r="I184" s="70" t="s">
-        <v>1881</v>
-      </c>
+      <c r="I184" s="70"/>
       <c r="J184" s="70"/>
-      <c r="K184" s="70" t="s">
-        <v>2231</v>
-      </c>
+      <c r="K184" s="70"/>
       <c r="L184" s="70"/>
       <c r="M184" s="70"/>
       <c r="N184" s="70" t="s">
-        <v>1987</v>
+        <v>2009</v>
       </c>
       <c r="O184" s="70"/>
       <c r="P184" s="70"/>
@@ -16673,13 +16668,13 @@
     </row>
     <row r="185" spans="1:36">
       <c r="A185" s="70" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B185" s="70" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C185" s="70" t="s">
-        <v>1899</v>
+        <v>2011</v>
       </c>
       <c r="D185" s="70"/>
       <c r="E185" s="70"/>
@@ -16688,13 +16683,11 @@
       <c r="H185" s="70"/>
       <c r="I185" s="70"/>
       <c r="J185" s="70"/>
-      <c r="K185" s="70" t="s">
-        <v>2232</v>
-      </c>
+      <c r="K185" s="70"/>
       <c r="L185" s="70"/>
       <c r="M185" s="70"/>
       <c r="N185" s="70" t="s">
-        <v>1987</v>
+        <v>2012</v>
       </c>
       <c r="O185" s="70"/>
       <c r="P185" s="70"/>
@@ -16723,17 +16716,21 @@
     </row>
     <row r="186" spans="1:36">
       <c r="A186" s="70" t="s">
-        <v>15</v>
+        <v>1638</v>
       </c>
       <c r="B186" s="70" t="s">
-        <v>2010</v>
+        <v>1631</v>
       </c>
       <c r="C186" s="70" t="s">
-        <v>2011</v>
-      </c>
-      <c r="D186" s="70"/>
+        <v>2132</v>
+      </c>
+      <c r="D186" s="70" t="s">
+        <v>2013</v>
+      </c>
       <c r="E186" s="70"/>
-      <c r="F186" s="70"/>
+      <c r="F186" s="70" t="s">
+        <v>51</v>
+      </c>
       <c r="G186" s="70"/>
       <c r="H186" s="70"/>
       <c r="I186" s="70"/>
@@ -16742,7 +16739,7 @@
       <c r="L186" s="70"/>
       <c r="M186" s="70"/>
       <c r="N186" s="70" t="s">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="O186" s="70"/>
       <c r="P186" s="70"/>
@@ -16750,9 +16747,11 @@
       <c r="R186" s="70"/>
       <c r="S186" s="70"/>
       <c r="T186" s="70" t="s">
-        <v>108</v>
-      </c>
-      <c r="U186" s="70"/>
+        <v>102</v>
+      </c>
+      <c r="U186" s="70">
+        <v>32</v>
+      </c>
       <c r="V186" s="71"/>
       <c r="W186" s="71"/>
       <c r="X186" s="71"/>
@@ -16771,13 +16770,13 @@
     </row>
     <row r="187" spans="1:36">
       <c r="A187" s="70" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B187" s="70" t="s">
-        <v>2013</v>
+        <v>2060</v>
       </c>
       <c r="C187" s="70" t="s">
-        <v>2014</v>
+        <v>2100</v>
       </c>
       <c r="D187" s="70"/>
       <c r="E187" s="70"/>
@@ -16790,7 +16789,7 @@
       <c r="L187" s="70"/>
       <c r="M187" s="70"/>
       <c r="N187" s="70" t="s">
-        <v>2015</v>
+        <v>2062</v>
       </c>
       <c r="O187" s="70"/>
       <c r="P187" s="70"/>
@@ -16798,9 +16797,11 @@
       <c r="R187" s="70"/>
       <c r="S187" s="70"/>
       <c r="T187" s="70" t="s">
-        <v>108</v>
-      </c>
-      <c r="U187" s="70"/>
+        <v>102</v>
+      </c>
+      <c r="U187" s="70">
+        <v>1024</v>
+      </c>
       <c r="V187" s="71"/>
       <c r="W187" s="71"/>
       <c r="X187" s="71"/>
@@ -16818,242 +16819,228 @@
       <c r="AJ187" s="71"/>
     </row>
     <row r="188" spans="1:36">
-      <c r="A188" s="70" t="s">
-        <v>1638</v>
-      </c>
-      <c r="B188" s="70" t="s">
-        <v>1631</v>
-      </c>
-      <c r="C188" s="70" t="s">
-        <v>2138</v>
-      </c>
-      <c r="D188" s="70" t="s">
-        <v>2016</v>
-      </c>
-      <c r="E188" s="70"/>
-      <c r="F188" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="G188" s="70"/>
-      <c r="H188" s="70"/>
-      <c r="I188" s="70"/>
-      <c r="J188" s="70"/>
-      <c r="K188" s="70"/>
-      <c r="L188" s="70"/>
-      <c r="M188" s="70"/>
-      <c r="N188" s="70" t="s">
-        <v>2019</v>
-      </c>
-      <c r="O188" s="70"/>
-      <c r="P188" s="70"/>
-      <c r="Q188" s="70"/>
-      <c r="R188" s="70"/>
-      <c r="S188" s="70"/>
-      <c r="T188" s="70" t="s">
-        <v>102</v>
-      </c>
-      <c r="U188" s="70">
-        <v>32</v>
-      </c>
-      <c r="V188" s="71"/>
-      <c r="W188" s="71"/>
-      <c r="X188" s="71"/>
-      <c r="Y188" s="71"/>
-      <c r="Z188" s="71"/>
-      <c r="AA188" s="71"/>
-      <c r="AB188" s="71"/>
-      <c r="AC188" s="71"/>
-      <c r="AD188" s="71"/>
-      <c r="AE188" s="71"/>
-      <c r="AF188" s="71"/>
-      <c r="AG188" s="71"/>
-      <c r="AH188" s="71"/>
-      <c r="AI188" s="71"/>
-      <c r="AJ188" s="71"/>
+      <c r="A188" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="B188" s="71"/>
+      <c r="C188" s="71"/>
+      <c r="D188" s="68"/>
+      <c r="E188" s="68"/>
+      <c r="F188" s="68"/>
+      <c r="G188" s="68"/>
+      <c r="H188" s="68"/>
+      <c r="I188" s="68"/>
+      <c r="J188" s="68"/>
+      <c r="K188" s="68"/>
+      <c r="L188" s="68"/>
+      <c r="M188" s="68"/>
+      <c r="N188" s="70"/>
+      <c r="O188" s="68"/>
+      <c r="P188" s="68"/>
+      <c r="Q188" s="68"/>
+      <c r="R188" s="68"/>
+      <c r="S188" s="68"/>
+      <c r="T188" s="69"/>
+      <c r="U188" s="68"/>
+      <c r="V188" s="68"/>
+      <c r="W188" s="68"/>
+      <c r="X188" s="68"/>
+      <c r="Y188" s="68"/>
+      <c r="Z188" s="68"/>
+      <c r="AA188" s="68"/>
+      <c r="AB188" s="68"/>
+      <c r="AC188" s="68"/>
+      <c r="AD188" s="68"/>
+      <c r="AE188" s="68"/>
+      <c r="AF188" s="68"/>
+      <c r="AG188" s="68"/>
+      <c r="AH188" s="68"/>
+      <c r="AI188" s="68"/>
+      <c r="AJ188" s="68"/>
     </row>
     <row r="189" spans="1:36">
-      <c r="A189" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="B189" s="70" t="s">
-        <v>2065</v>
-      </c>
-      <c r="C189" s="70" t="s">
-        <v>2105</v>
-      </c>
-      <c r="D189" s="70"/>
-      <c r="E189" s="70"/>
-      <c r="F189" s="70"/>
-      <c r="G189" s="70"/>
-      <c r="H189" s="70"/>
-      <c r="I189" s="70"/>
-      <c r="J189" s="70"/>
-      <c r="K189" s="70"/>
-      <c r="L189" s="70"/>
-      <c r="M189" s="70"/>
-      <c r="N189" s="70" t="s">
-        <v>2067</v>
-      </c>
-      <c r="O189" s="70"/>
-      <c r="P189" s="70"/>
-      <c r="Q189" s="70"/>
-      <c r="R189" s="70"/>
-      <c r="S189" s="70"/>
-      <c r="T189" s="70" t="s">
-        <v>102</v>
-      </c>
-      <c r="U189" s="70">
-        <v>1024</v>
-      </c>
-      <c r="V189" s="71"/>
-      <c r="W189" s="71"/>
-      <c r="X189" s="71"/>
-      <c r="Y189" s="71"/>
-      <c r="Z189" s="71"/>
-      <c r="AA189" s="71"/>
-      <c r="AB189" s="71"/>
-      <c r="AC189" s="71"/>
-      <c r="AD189" s="71"/>
-      <c r="AE189" s="71"/>
-      <c r="AF189" s="71"/>
-      <c r="AG189" s="71"/>
-      <c r="AH189" s="71"/>
-      <c r="AI189" s="71"/>
-      <c r="AJ189" s="71"/>
+      <c r="A189" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="B189" s="68"/>
+      <c r="C189" s="68"/>
+      <c r="D189" s="68"/>
+      <c r="E189" s="68"/>
+      <c r="F189" s="68"/>
+      <c r="G189" s="68"/>
+      <c r="H189" s="68"/>
+      <c r="I189" s="68"/>
+      <c r="J189" s="68"/>
+      <c r="K189" s="68"/>
+      <c r="L189" s="68"/>
+      <c r="M189" s="68"/>
+      <c r="N189" s="68"/>
+      <c r="O189" s="68"/>
+      <c r="P189" s="68"/>
+      <c r="Q189" s="68"/>
+      <c r="R189" s="68"/>
+      <c r="S189" s="68"/>
+      <c r="T189" s="68"/>
+      <c r="U189" s="68"/>
+      <c r="V189" s="68"/>
+      <c r="W189" s="68"/>
+      <c r="X189" s="68"/>
+      <c r="Y189" s="68"/>
+      <c r="Z189" s="68"/>
+      <c r="AA189" s="68"/>
+      <c r="AB189" s="68"/>
+      <c r="AC189" s="68"/>
+      <c r="AD189" s="68"/>
+      <c r="AE189" s="68"/>
+      <c r="AF189" s="68"/>
+      <c r="AG189" s="68"/>
+      <c r="AH189" s="68"/>
+      <c r="AI189" s="68"/>
+      <c r="AJ189" s="68"/>
     </row>
     <row r="190" spans="1:36">
-      <c r="A190" s="71" t="s">
-        <v>33</v>
-      </c>
-      <c r="B190" s="71"/>
-      <c r="C190" s="71"/>
-      <c r="D190" s="68"/>
-      <c r="E190" s="68"/>
-      <c r="F190" s="68"/>
-      <c r="G190" s="68"/>
-      <c r="H190" s="68"/>
-      <c r="I190" s="68"/>
-      <c r="J190" s="68"/>
-      <c r="K190" s="68"/>
-      <c r="L190" s="68"/>
-      <c r="M190" s="68"/>
-      <c r="N190" s="70"/>
-      <c r="O190" s="68"/>
-      <c r="P190" s="68"/>
-      <c r="Q190" s="68"/>
-      <c r="R190" s="68"/>
-      <c r="S190" s="68"/>
-      <c r="T190" s="69"/>
-      <c r="U190" s="68"/>
-      <c r="V190" s="68"/>
-      <c r="W190" s="68"/>
-      <c r="X190" s="68"/>
-      <c r="Y190" s="68"/>
-      <c r="Z190" s="68"/>
-      <c r="AA190" s="68"/>
-      <c r="AB190" s="68"/>
-      <c r="AC190" s="68"/>
-      <c r="AD190" s="68"/>
-      <c r="AE190" s="68"/>
-      <c r="AF190" s="68"/>
-      <c r="AG190" s="68"/>
-      <c r="AH190" s="68"/>
-      <c r="AI190" s="68"/>
-      <c r="AJ190" s="68"/>
+      <c r="A190" s="62"/>
+      <c r="B190" s="62"/>
+      <c r="C190" s="62"/>
+      <c r="D190" s="62"/>
+      <c r="E190" s="62"/>
+      <c r="F190" s="62"/>
+      <c r="G190" s="62"/>
+      <c r="H190" s="62"/>
+      <c r="I190" s="62"/>
+      <c r="J190" s="62"/>
+      <c r="K190" s="62"/>
+      <c r="L190" s="62"/>
+      <c r="M190" s="62"/>
+      <c r="N190" s="62"/>
+      <c r="O190" s="62"/>
+      <c r="P190" s="62"/>
+      <c r="Q190" s="62"/>
+      <c r="R190" s="62"/>
+      <c r="S190" s="62"/>
+      <c r="T190" s="62"/>
+      <c r="U190" s="62"/>
+      <c r="V190" s="62"/>
+      <c r="W190" s="62"/>
+      <c r="X190" s="62"/>
+      <c r="Y190" s="62"/>
+      <c r="Z190" s="62"/>
+      <c r="AA190" s="62"/>
+      <c r="AB190" s="62"/>
+      <c r="AC190" s="62"/>
+      <c r="AD190" s="62"/>
+      <c r="AE190" s="62"/>
+      <c r="AF190" s="62"/>
+      <c r="AG190" s="62"/>
+      <c r="AH190" s="62"/>
+      <c r="AI190" s="62"/>
+      <c r="AJ190" s="62"/>
     </row>
     <row r="191" spans="1:36">
-      <c r="A191" s="68" t="s">
-        <v>29</v>
-      </c>
-      <c r="B191" s="68"/>
-      <c r="C191" s="68"/>
-      <c r="D191" s="68"/>
-      <c r="E191" s="68"/>
-      <c r="F191" s="68"/>
-      <c r="G191" s="68"/>
-      <c r="H191" s="68"/>
-      <c r="I191" s="68"/>
-      <c r="J191" s="68"/>
-      <c r="K191" s="68"/>
-      <c r="L191" s="68"/>
-      <c r="M191" s="68"/>
-      <c r="N191" s="68"/>
-      <c r="O191" s="68"/>
-      <c r="P191" s="68"/>
-      <c r="Q191" s="68"/>
-      <c r="R191" s="68"/>
-      <c r="S191" s="68"/>
-      <c r="T191" s="68"/>
-      <c r="U191" s="68"/>
-      <c r="V191" s="68"/>
-      <c r="W191" s="68"/>
-      <c r="X191" s="68"/>
-      <c r="Y191" s="68"/>
-      <c r="Z191" s="68"/>
-      <c r="AA191" s="68"/>
-      <c r="AB191" s="68"/>
-      <c r="AC191" s="68"/>
-      <c r="AD191" s="68"/>
-      <c r="AE191" s="68"/>
-      <c r="AF191" s="68"/>
-      <c r="AG191" s="68"/>
-      <c r="AH191" s="68"/>
-      <c r="AI191" s="68"/>
-      <c r="AJ191" s="68"/>
+      <c r="A191" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="B191" s="72" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C191" s="72" t="s">
+        <v>1840</v>
+      </c>
+      <c r="D191" s="72"/>
+      <c r="E191" s="72"/>
+      <c r="F191" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="G191" s="72"/>
+      <c r="H191" s="72"/>
+      <c r="I191" s="72"/>
+      <c r="J191" s="72"/>
+      <c r="K191" s="72"/>
+      <c r="L191" s="72"/>
+      <c r="M191" s="72"/>
+      <c r="N191" s="72" t="s">
+        <v>1913</v>
+      </c>
+      <c r="O191" s="72"/>
+      <c r="P191" s="72"/>
+      <c r="Q191" s="72"/>
+      <c r="R191" s="72"/>
+      <c r="S191" s="72"/>
+      <c r="T191" s="72"/>
+      <c r="U191" s="72"/>
+      <c r="V191" s="81"/>
+      <c r="W191" s="81"/>
+      <c r="X191" s="81"/>
+      <c r="Y191" s="81"/>
+      <c r="Z191" s="81"/>
+      <c r="AA191" s="81"/>
+      <c r="AB191" s="81"/>
+      <c r="AC191" s="81"/>
+      <c r="AD191" s="81"/>
+      <c r="AE191" s="81"/>
+      <c r="AF191" s="81"/>
+      <c r="AG191" s="81"/>
+      <c r="AH191" s="81"/>
+      <c r="AI191" s="81"/>
+      <c r="AJ191" s="81"/>
     </row>
     <row r="192" spans="1:36">
-      <c r="A192" s="62"/>
-      <c r="B192" s="62"/>
-      <c r="C192" s="62"/>
-      <c r="D192" s="62"/>
-      <c r="E192" s="62"/>
-      <c r="F192" s="62"/>
-      <c r="G192" s="62"/>
-      <c r="H192" s="62"/>
-      <c r="I192" s="62"/>
-      <c r="J192" s="62"/>
-      <c r="K192" s="62"/>
-      <c r="L192" s="62"/>
-      <c r="M192" s="62"/>
-      <c r="N192" s="62"/>
-      <c r="O192" s="62"/>
-      <c r="P192" s="62"/>
-      <c r="Q192" s="62"/>
-      <c r="R192" s="62"/>
-      <c r="S192" s="62"/>
-      <c r="T192" s="62"/>
-      <c r="U192" s="62"/>
-      <c r="V192" s="62"/>
-      <c r="W192" s="62"/>
-      <c r="X192" s="62"/>
-      <c r="Y192" s="62"/>
-      <c r="Z192" s="62"/>
-      <c r="AA192" s="62"/>
-      <c r="AB192" s="62"/>
-      <c r="AC192" s="62"/>
-      <c r="AD192" s="62"/>
-      <c r="AE192" s="62"/>
-      <c r="AF192" s="62"/>
-      <c r="AG192" s="62"/>
-      <c r="AH192" s="62"/>
-      <c r="AI192" s="62"/>
-      <c r="AJ192" s="62"/>
+      <c r="A192" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="B192" s="72" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C192" s="72" t="s">
+        <v>2031</v>
+      </c>
+      <c r="D192" s="72"/>
+      <c r="E192" s="72"/>
+      <c r="F192" s="72"/>
+      <c r="G192" s="72"/>
+      <c r="H192" s="72"/>
+      <c r="I192" s="72"/>
+      <c r="J192" s="72"/>
+      <c r="K192" s="72"/>
+      <c r="L192" s="72"/>
+      <c r="M192" s="72"/>
+      <c r="N192" s="72"/>
+      <c r="O192" s="72"/>
+      <c r="P192" s="72"/>
+      <c r="Q192" s="72"/>
+      <c r="R192" s="72"/>
+      <c r="S192" s="72"/>
+      <c r="T192" s="72"/>
+      <c r="U192" s="72"/>
+      <c r="V192" s="72"/>
+      <c r="W192" s="72"/>
+      <c r="X192" s="72"/>
+      <c r="Y192" s="72"/>
+      <c r="Z192" s="72"/>
+      <c r="AA192" s="72"/>
+      <c r="AB192" s="72"/>
+      <c r="AC192" s="72"/>
+      <c r="AD192" s="72"/>
+      <c r="AE192" s="72"/>
+      <c r="AF192" s="72"/>
+      <c r="AG192" s="72"/>
+      <c r="AH192" s="72"/>
+      <c r="AI192" s="72"/>
+      <c r="AJ192" s="72"/>
     </row>
     <row r="193" spans="1:36">
       <c r="A193" s="72" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B193" s="72" t="s">
-        <v>1912</v>
+        <v>1597</v>
       </c>
       <c r="C193" s="72" t="s">
-        <v>1840</v>
+        <v>2032</v>
       </c>
       <c r="D193" s="72"/>
       <c r="E193" s="72"/>
-      <c r="F193" s="72" t="s">
-        <v>79</v>
-      </c>
+      <c r="F193" s="72"/>
       <c r="G193" s="72"/>
       <c r="H193" s="72"/>
       <c r="I193" s="72"/>
@@ -17061,41 +17048,41 @@
       <c r="K193" s="72"/>
       <c r="L193" s="72"/>
       <c r="M193" s="72"/>
-      <c r="N193" s="72" t="s">
-        <v>1913</v>
-      </c>
+      <c r="N193" s="72"/>
       <c r="O193" s="72"/>
       <c r="P193" s="72"/>
       <c r="Q193" s="72"/>
       <c r="R193" s="72"/>
       <c r="S193" s="72"/>
-      <c r="T193" s="72"/>
+      <c r="T193" s="72" t="s">
+        <v>92</v>
+      </c>
       <c r="U193" s="72"/>
-      <c r="V193" s="81"/>
-      <c r="W193" s="81"/>
-      <c r="X193" s="81"/>
-      <c r="Y193" s="81"/>
-      <c r="Z193" s="81"/>
-      <c r="AA193" s="81"/>
-      <c r="AB193" s="81"/>
-      <c r="AC193" s="81"/>
-      <c r="AD193" s="81"/>
-      <c r="AE193" s="81"/>
-      <c r="AF193" s="81"/>
-      <c r="AG193" s="81"/>
-      <c r="AH193" s="81"/>
-      <c r="AI193" s="81"/>
-      <c r="AJ193" s="81"/>
+      <c r="V193" s="72"/>
+      <c r="W193" s="72"/>
+      <c r="X193" s="72"/>
+      <c r="Y193" s="72"/>
+      <c r="Z193" s="72"/>
+      <c r="AA193" s="72"/>
+      <c r="AB193" s="72"/>
+      <c r="AC193" s="72"/>
+      <c r="AD193" s="72"/>
+      <c r="AE193" s="72"/>
+      <c r="AF193" s="72"/>
+      <c r="AG193" s="72"/>
+      <c r="AH193" s="72"/>
+      <c r="AI193" s="72"/>
+      <c r="AJ193" s="72"/>
     </row>
     <row r="194" spans="1:36">
       <c r="A194" s="72" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B194" s="72" t="s">
-        <v>1840</v>
+        <v>1598</v>
       </c>
       <c r="C194" s="72" t="s">
-        <v>2035</v>
+        <v>2033</v>
       </c>
       <c r="D194" s="72"/>
       <c r="E194" s="72"/>
@@ -17113,7 +17100,9 @@
       <c r="Q194" s="72"/>
       <c r="R194" s="72"/>
       <c r="S194" s="72"/>
-      <c r="T194" s="72"/>
+      <c r="T194" s="72" t="s">
+        <v>92</v>
+      </c>
       <c r="U194" s="72"/>
       <c r="V194" s="72"/>
       <c r="W194" s="72"/>
@@ -17133,17 +17122,21 @@
     </row>
     <row r="195" spans="1:36">
       <c r="A195" s="72" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B195" s="72" t="s">
-        <v>1597</v>
+        <v>2034</v>
       </c>
       <c r="C195" s="72" t="s">
-        <v>2036</v>
-      </c>
-      <c r="D195" s="72"/>
+        <v>1946</v>
+      </c>
+      <c r="D195" s="72" t="s">
+        <v>2337</v>
+      </c>
       <c r="E195" s="72"/>
-      <c r="F195" s="72"/>
+      <c r="F195" s="72" t="s">
+        <v>60</v>
+      </c>
       <c r="G195" s="72"/>
       <c r="H195" s="72"/>
       <c r="I195" s="72"/>
@@ -17157,39 +17150,43 @@
       <c r="Q195" s="72"/>
       <c r="R195" s="72"/>
       <c r="S195" s="72"/>
-      <c r="T195" s="72" t="s">
-        <v>92</v>
-      </c>
+      <c r="T195" s="72"/>
       <c r="U195" s="72"/>
-      <c r="V195" s="72"/>
-      <c r="W195" s="72"/>
-      <c r="X195" s="72"/>
-      <c r="Y195" s="72"/>
-      <c r="Z195" s="72"/>
-      <c r="AA195" s="72"/>
-      <c r="AB195" s="72"/>
-      <c r="AC195" s="72"/>
-      <c r="AD195" s="72"/>
-      <c r="AE195" s="72"/>
-      <c r="AF195" s="72"/>
-      <c r="AG195" s="72"/>
-      <c r="AH195" s="72"/>
-      <c r="AI195" s="72"/>
-      <c r="AJ195" s="72"/>
+      <c r="V195" s="81"/>
+      <c r="W195" s="81"/>
+      <c r="X195" s="81" t="s">
+        <v>1963</v>
+      </c>
+      <c r="Y195" s="81"/>
+      <c r="Z195" s="81" t="s">
+        <v>2338</v>
+      </c>
+      <c r="AA195" s="81"/>
+      <c r="AB195" s="81"/>
+      <c r="AC195" s="81"/>
+      <c r="AD195" s="81"/>
+      <c r="AE195" s="81"/>
+      <c r="AF195" s="81"/>
+      <c r="AG195" s="81"/>
+      <c r="AH195" s="81"/>
+      <c r="AI195" s="81"/>
+      <c r="AJ195" s="81"/>
     </row>
     <row r="196" spans="1:36">
       <c r="A196" s="72" t="s">
-        <v>24</v>
+        <v>1503</v>
       </c>
       <c r="B196" s="72" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="C196" s="72" t="s">
-        <v>2037</v>
+        <v>2137</v>
       </c>
       <c r="D196" s="72"/>
       <c r="E196" s="72"/>
-      <c r="F196" s="72"/>
+      <c r="F196" s="72" t="s">
+        <v>55</v>
+      </c>
       <c r="G196" s="72"/>
       <c r="H196" s="72"/>
       <c r="I196" s="72"/>
@@ -17204,9 +17201,11 @@
       <c r="R196" s="72"/>
       <c r="S196" s="72"/>
       <c r="T196" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="U196" s="72"/>
+        <v>102</v>
+      </c>
+      <c r="U196" s="72">
+        <v>3</v>
+      </c>
       <c r="V196" s="72"/>
       <c r="W196" s="72"/>
       <c r="X196" s="72"/>
@@ -17225,20 +17224,18 @@
     </row>
     <row r="197" spans="1:36">
       <c r="A197" s="72" t="s">
-        <v>45</v>
+        <v>1600</v>
       </c>
       <c r="B197" s="72" t="s">
-        <v>2038</v>
+        <v>1601</v>
       </c>
       <c r="C197" s="72" t="s">
-        <v>1947</v>
-      </c>
-      <c r="D197" s="72" t="s">
-        <v>2143</v>
-      </c>
+        <v>2131</v>
+      </c>
+      <c r="D197" s="72"/>
       <c r="E197" s="72"/>
       <c r="F197" s="72" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G197" s="72"/>
       <c r="H197" s="72"/>
@@ -17247,41 +17244,45 @@
       <c r="K197" s="72"/>
       <c r="L197" s="72"/>
       <c r="M197" s="72"/>
-      <c r="N197" s="72"/>
+      <c r="N197" s="72" t="s">
+        <v>2035</v>
+      </c>
       <c r="O197" s="72"/>
       <c r="P197" s="72"/>
       <c r="Q197" s="72"/>
       <c r="R197" s="72"/>
       <c r="S197" s="72"/>
-      <c r="T197" s="72"/>
-      <c r="U197" s="72"/>
-      <c r="V197" s="81"/>
-      <c r="W197" s="81"/>
-      <c r="X197" s="81" t="s">
-        <v>1964</v>
-      </c>
-      <c r="Y197" s="81"/>
-      <c r="Z197" s="81"/>
-      <c r="AA197" s="81"/>
-      <c r="AB197" s="81"/>
-      <c r="AC197" s="81"/>
-      <c r="AD197" s="81"/>
-      <c r="AE197" s="81"/>
-      <c r="AF197" s="81"/>
-      <c r="AG197" s="81"/>
-      <c r="AH197" s="81"/>
-      <c r="AI197" s="81"/>
-      <c r="AJ197" s="81"/>
+      <c r="T197" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="U197" s="72">
+        <v>32</v>
+      </c>
+      <c r="V197" s="72"/>
+      <c r="W197" s="72"/>
+      <c r="X197" s="72"/>
+      <c r="Y197" s="72"/>
+      <c r="Z197" s="72"/>
+      <c r="AA197" s="72"/>
+      <c r="AB197" s="72"/>
+      <c r="AC197" s="72"/>
+      <c r="AD197" s="72"/>
+      <c r="AE197" s="72"/>
+      <c r="AF197" s="72"/>
+      <c r="AG197" s="72"/>
+      <c r="AH197" s="72"/>
+      <c r="AI197" s="72"/>
+      <c r="AJ197" s="72"/>
     </row>
     <row r="198" spans="1:36">
       <c r="A198" s="72" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B198" s="72" t="s">
-        <v>2317</v>
+        <v>2064</v>
       </c>
       <c r="C198" s="72" t="s">
-        <v>1990</v>
+        <v>2100</v>
       </c>
       <c r="D198" s="72"/>
       <c r="E198" s="72"/>
@@ -17294,7 +17295,7 @@
       <c r="L198" s="72"/>
       <c r="M198" s="72"/>
       <c r="N198" s="72" t="s">
-        <v>1915</v>
+        <v>2065</v>
       </c>
       <c r="O198" s="72"/>
       <c r="P198" s="72"/>
@@ -17305,33 +17306,31 @@
         <v>108</v>
       </c>
       <c r="U198" s="72"/>
-      <c r="V198" s="81"/>
-      <c r="W198" s="81"/>
-      <c r="X198" s="81" t="s">
-        <v>1964</v>
-      </c>
-      <c r="Y198" s="81"/>
-      <c r="Z198" s="81"/>
-      <c r="AA198" s="81"/>
-      <c r="AB198" s="81"/>
-      <c r="AC198" s="81"/>
-      <c r="AD198" s="81"/>
-      <c r="AE198" s="81"/>
-      <c r="AF198" s="81"/>
-      <c r="AG198" s="81"/>
-      <c r="AH198" s="81"/>
-      <c r="AI198" s="81"/>
-      <c r="AJ198" s="81"/>
+      <c r="V198" s="72"/>
+      <c r="W198" s="72"/>
+      <c r="X198" s="72"/>
+      <c r="Y198" s="72"/>
+      <c r="Z198" s="72"/>
+      <c r="AA198" s="72"/>
+      <c r="AB198" s="72"/>
+      <c r="AC198" s="72"/>
+      <c r="AD198" s="72"/>
+      <c r="AE198" s="72"/>
+      <c r="AF198" s="72"/>
+      <c r="AG198" s="72"/>
+      <c r="AH198" s="72"/>
+      <c r="AI198" s="72"/>
+      <c r="AJ198" s="72"/>
     </row>
     <row r="199" spans="1:36">
       <c r="A199" s="72" t="s">
         <v>1503</v>
       </c>
       <c r="B199" s="72" t="s">
-        <v>1599</v>
+        <v>1605</v>
       </c>
       <c r="C199" s="72" t="s">
-        <v>2144</v>
+        <v>2036</v>
       </c>
       <c r="D199" s="72"/>
       <c r="E199" s="72"/>
@@ -17375,13 +17374,13 @@
     </row>
     <row r="200" spans="1:36">
       <c r="A200" s="72" t="s">
-        <v>1600</v>
+        <v>1606</v>
       </c>
       <c r="B200" s="72" t="s">
-        <v>1601</v>
+        <v>1607</v>
       </c>
       <c r="C200" s="72" t="s">
-        <v>2137</v>
+        <v>2133</v>
       </c>
       <c r="D200" s="72"/>
       <c r="E200" s="72"/>
@@ -17396,7 +17395,7 @@
       <c r="L200" s="72"/>
       <c r="M200" s="72"/>
       <c r="N200" s="72" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="O200" s="72"/>
       <c r="P200" s="72"/>
@@ -17430,10 +17429,10 @@
         <v>11</v>
       </c>
       <c r="B201" s="72" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="C201" s="72" t="s">
-        <v>2105</v>
+        <v>2100</v>
       </c>
       <c r="D201" s="72"/>
       <c r="E201" s="72"/>
@@ -17446,7 +17445,7 @@
       <c r="L201" s="72"/>
       <c r="M201" s="72"/>
       <c r="N201" s="72" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="O201" s="72"/>
       <c r="P201" s="72"/>
@@ -17454,9 +17453,11 @@
       <c r="R201" s="72"/>
       <c r="S201" s="72"/>
       <c r="T201" s="72" t="s">
-        <v>108</v>
-      </c>
-      <c r="U201" s="72"/>
+        <v>102</v>
+      </c>
+      <c r="U201" s="72">
+        <v>1024</v>
+      </c>
       <c r="V201" s="72"/>
       <c r="W201" s="72"/>
       <c r="X201" s="72"/>
@@ -17478,10 +17479,10 @@
         <v>1503</v>
       </c>
       <c r="B202" s="72" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="C202" s="72" t="s">
-        <v>2040</v>
+        <v>2138</v>
       </c>
       <c r="D202" s="72"/>
       <c r="E202" s="72"/>
@@ -17525,13 +17526,13 @@
     </row>
     <row r="203" spans="1:36">
       <c r="A203" s="72" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="B203" s="72" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="C203" s="72" t="s">
-        <v>2139</v>
+        <v>2131</v>
       </c>
       <c r="D203" s="72"/>
       <c r="E203" s="72"/>
@@ -17580,10 +17581,10 @@
         <v>11</v>
       </c>
       <c r="B204" s="72" t="s">
-        <v>2073</v>
+        <v>2066</v>
       </c>
       <c r="C204" s="72" t="s">
-        <v>2105</v>
+        <v>2100</v>
       </c>
       <c r="D204" s="72"/>
       <c r="E204" s="72"/>
@@ -17596,7 +17597,7 @@
       <c r="L204" s="72"/>
       <c r="M204" s="72"/>
       <c r="N204" s="72" t="s">
-        <v>2074</v>
+        <v>2067</v>
       </c>
       <c r="O204" s="72"/>
       <c r="P204" s="72"/>
@@ -17630,10 +17631,10 @@
         <v>1503</v>
       </c>
       <c r="B205" s="72" t="s">
-        <v>1602</v>
+        <v>2038</v>
       </c>
       <c r="C205" s="72" t="s">
-        <v>2145</v>
+        <v>2039</v>
       </c>
       <c r="D205" s="72"/>
       <c r="E205" s="72"/>
@@ -17654,11 +17655,9 @@
       <c r="R205" s="72"/>
       <c r="S205" s="72"/>
       <c r="T205" s="72" t="s">
-        <v>102</v>
-      </c>
-      <c r="U205" s="72">
-        <v>3</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="U205" s="72"/>
       <c r="V205" s="72"/>
       <c r="W205" s="72"/>
       <c r="X205" s="72"/>
@@ -17677,13 +17676,13 @@
     </row>
     <row r="206" spans="1:36">
       <c r="A206" s="72" t="s">
-        <v>1603</v>
+        <v>1608</v>
       </c>
       <c r="B206" s="72" t="s">
-        <v>1604</v>
+        <v>1609</v>
       </c>
       <c r="C206" s="72" t="s">
-        <v>2137</v>
+        <v>2334</v>
       </c>
       <c r="D206" s="72"/>
       <c r="E206" s="72"/>
@@ -17698,7 +17697,7 @@
       <c r="L206" s="72"/>
       <c r="M206" s="72"/>
       <c r="N206" s="72" t="s">
-        <v>2045</v>
+        <v>2040</v>
       </c>
       <c r="O206" s="72"/>
       <c r="P206" s="72"/>
@@ -17732,10 +17731,10 @@
         <v>11</v>
       </c>
       <c r="B207" s="72" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="C207" s="72" t="s">
-        <v>2105</v>
+        <v>2100</v>
       </c>
       <c r="D207" s="72"/>
       <c r="E207" s="72"/>
@@ -17748,7 +17747,7 @@
       <c r="L207" s="72"/>
       <c r="M207" s="72"/>
       <c r="N207" s="72" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="O207" s="72"/>
       <c r="P207" s="72"/>
@@ -17779,19 +17778,13 @@
     </row>
     <row r="208" spans="1:36">
       <c r="A208" s="72" t="s">
-        <v>1503</v>
-      </c>
-      <c r="B208" s="72" t="s">
-        <v>2042</v>
-      </c>
-      <c r="C208" s="72" t="s">
-        <v>2043</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B208" s="72"/>
+      <c r="C208" s="72"/>
       <c r="D208" s="72"/>
       <c r="E208" s="72"/>
-      <c r="F208" s="72" t="s">
-        <v>55</v>
-      </c>
+      <c r="F208" s="72"/>
       <c r="G208" s="72"/>
       <c r="H208" s="72"/>
       <c r="I208" s="72"/>
@@ -17805,9 +17798,7 @@
       <c r="Q208" s="72"/>
       <c r="R208" s="72"/>
       <c r="S208" s="72"/>
-      <c r="T208" s="72" t="s">
-        <v>108</v>
-      </c>
+      <c r="T208" s="72"/>
       <c r="U208" s="72"/>
       <c r="V208" s="72"/>
       <c r="W208" s="72"/>
@@ -17827,19 +17818,13 @@
     </row>
     <row r="209" spans="1:36">
       <c r="A209" s="72" t="s">
-        <v>1608</v>
-      </c>
-      <c r="B209" s="72" t="s">
-        <v>1609</v>
-      </c>
-      <c r="C209" s="72" t="s">
-        <v>2342</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B209" s="72"/>
+      <c r="C209" s="72"/>
       <c r="D209" s="72"/>
       <c r="E209" s="72"/>
-      <c r="F209" s="72" t="s">
-        <v>51</v>
-      </c>
+      <c r="F209" s="72"/>
       <c r="G209" s="72"/>
       <c r="H209" s="72"/>
       <c r="I209" s="72"/>
@@ -17847,236 +17832,240 @@
       <c r="K209" s="72"/>
       <c r="L209" s="72"/>
       <c r="M209" s="72"/>
-      <c r="N209" s="72" t="s">
-        <v>2044</v>
-      </c>
+      <c r="N209" s="72"/>
       <c r="O209" s="72"/>
       <c r="P209" s="72"/>
       <c r="Q209" s="72"/>
       <c r="R209" s="72"/>
       <c r="S209" s="72"/>
-      <c r="T209" s="72" t="s">
+      <c r="T209" s="72"/>
+      <c r="U209" s="72"/>
+      <c r="V209" s="81"/>
+      <c r="W209" s="81"/>
+      <c r="X209" s="81"/>
+      <c r="Y209" s="81"/>
+      <c r="Z209" s="81"/>
+      <c r="AA209" s="81"/>
+      <c r="AB209" s="81"/>
+      <c r="AC209" s="81"/>
+      <c r="AD209" s="81"/>
+      <c r="AE209" s="81"/>
+      <c r="AF209" s="81"/>
+      <c r="AG209" s="81"/>
+      <c r="AH209" s="81"/>
+      <c r="AI209" s="81"/>
+      <c r="AJ209" s="81"/>
+    </row>
+    <row r="210" spans="1:36">
+      <c r="A210" s="62"/>
+      <c r="B210" s="62"/>
+      <c r="C210" s="62"/>
+      <c r="D210" s="62"/>
+      <c r="E210" s="62"/>
+      <c r="F210" s="62"/>
+      <c r="G210" s="62"/>
+      <c r="H210" s="62"/>
+      <c r="I210" s="62"/>
+      <c r="J210" s="62"/>
+      <c r="K210" s="62"/>
+      <c r="L210" s="62"/>
+      <c r="M210" s="62"/>
+      <c r="N210" s="62"/>
+      <c r="O210" s="62"/>
+      <c r="P210" s="62"/>
+      <c r="Q210" s="62"/>
+      <c r="R210" s="62"/>
+      <c r="S210" s="62"/>
+      <c r="T210" s="62"/>
+      <c r="U210" s="62"/>
+      <c r="V210" s="62"/>
+      <c r="W210" s="62"/>
+      <c r="X210" s="62"/>
+      <c r="Y210" s="62"/>
+      <c r="Z210" s="62"/>
+      <c r="AA210" s="62"/>
+      <c r="AB210" s="62"/>
+      <c r="AC210" s="62"/>
+      <c r="AD210" s="62"/>
+      <c r="AE210" s="62"/>
+      <c r="AF210" s="62"/>
+      <c r="AG210" s="62"/>
+      <c r="AH210" s="62"/>
+      <c r="AI210" s="62"/>
+      <c r="AJ210" s="62"/>
+    </row>
+    <row r="211" spans="1:36">
+      <c r="A211" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="B211" s="82" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C211" s="82" t="s">
+        <v>1914</v>
+      </c>
+      <c r="D211" s="82"/>
+      <c r="E211" s="82"/>
+      <c r="F211" s="82" t="s">
+        <v>79</v>
+      </c>
+      <c r="G211" s="82"/>
+      <c r="H211" s="82"/>
+      <c r="I211" s="82"/>
+      <c r="J211" s="82"/>
+      <c r="K211" s="82"/>
+      <c r="L211" s="82"/>
+      <c r="M211" s="82"/>
+      <c r="N211" s="82" t="s">
+        <v>1915</v>
+      </c>
+      <c r="O211" s="82"/>
+      <c r="P211" s="82"/>
+      <c r="Q211" s="82"/>
+      <c r="R211" s="82"/>
+      <c r="S211" s="82"/>
+      <c r="T211" s="82"/>
+      <c r="U211" s="82"/>
+      <c r="V211" s="83"/>
+      <c r="W211" s="83"/>
+      <c r="X211" s="83"/>
+      <c r="Y211" s="83"/>
+      <c r="Z211" s="83"/>
+      <c r="AA211" s="83"/>
+      <c r="AB211" s="83"/>
+      <c r="AC211" s="83"/>
+      <c r="AD211" s="83"/>
+      <c r="AE211" s="83"/>
+      <c r="AF211" s="83"/>
+      <c r="AG211" s="83"/>
+      <c r="AH211" s="83"/>
+      <c r="AI211" s="83"/>
+      <c r="AJ211" s="83"/>
+    </row>
+    <row r="212" spans="1:36">
+      <c r="A212" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="B212" s="84" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C212" s="82" t="s">
+        <v>1914</v>
+      </c>
+      <c r="D212" s="84"/>
+      <c r="E212" s="84"/>
+      <c r="F212" s="84"/>
+      <c r="G212" s="84"/>
+      <c r="H212" s="84"/>
+      <c r="I212" s="84"/>
+      <c r="J212" s="84"/>
+      <c r="K212" s="84"/>
+      <c r="L212" s="84"/>
+      <c r="M212" s="84"/>
+      <c r="N212" s="84"/>
+      <c r="O212" s="84"/>
+      <c r="P212" s="84"/>
+      <c r="Q212" s="84"/>
+      <c r="R212" s="84"/>
+      <c r="S212" s="84"/>
+      <c r="T212" s="84"/>
+      <c r="U212" s="84"/>
+      <c r="V212" s="83"/>
+      <c r="W212" s="83"/>
+      <c r="X212" s="83"/>
+      <c r="Y212" s="83"/>
+      <c r="Z212" s="83"/>
+      <c r="AA212" s="83"/>
+      <c r="AB212" s="83"/>
+      <c r="AC212" s="83"/>
+      <c r="AD212" s="83"/>
+      <c r="AE212" s="83"/>
+      <c r="AF212" s="83"/>
+      <c r="AG212" s="83"/>
+      <c r="AH212" s="83"/>
+      <c r="AI212" s="83"/>
+      <c r="AJ212" s="83"/>
+    </row>
+    <row r="213" spans="1:36">
+      <c r="A213" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="B213" s="83" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C213" s="84" t="s">
+        <v>2121</v>
+      </c>
+      <c r="D213" s="84"/>
+      <c r="E213" s="84"/>
+      <c r="F213" s="84"/>
+      <c r="G213" s="84"/>
+      <c r="H213" s="84"/>
+      <c r="I213" s="84"/>
+      <c r="J213" s="84"/>
+      <c r="K213" s="84"/>
+      <c r="L213" s="84"/>
+      <c r="M213" s="84"/>
+      <c r="N213" s="84"/>
+      <c r="O213" s="84"/>
+      <c r="P213" s="84"/>
+      <c r="Q213" s="84"/>
+      <c r="R213" s="84"/>
+      <c r="S213" s="84"/>
+      <c r="T213" s="84" t="s">
+        <v>92</v>
+      </c>
+      <c r="U213" s="84"/>
+      <c r="V213" s="83"/>
+      <c r="W213" s="83"/>
+      <c r="X213" s="83"/>
+      <c r="Y213" s="83"/>
+      <c r="Z213" s="83"/>
+      <c r="AA213" s="83"/>
+      <c r="AB213" s="83"/>
+      <c r="AC213" s="83"/>
+      <c r="AD213" s="83"/>
+      <c r="AE213" s="83"/>
+      <c r="AF213" s="83"/>
+      <c r="AG213" s="83"/>
+      <c r="AH213" s="83"/>
+      <c r="AI213" s="83"/>
+      <c r="AJ213" s="83"/>
+    </row>
+    <row r="214" spans="1:36">
+      <c r="A214" s="84" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B214" s="83" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C214" s="84" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D214" s="84"/>
+      <c r="E214" s="84"/>
+      <c r="F214" s="84" t="s">
+        <v>51</v>
+      </c>
+      <c r="G214" s="84"/>
+      <c r="H214" s="84"/>
+      <c r="I214" s="84"/>
+      <c r="J214" s="84"/>
+      <c r="K214" s="84"/>
+      <c r="L214" s="84"/>
+      <c r="M214" s="84"/>
+      <c r="N214" s="84"/>
+      <c r="O214" s="84"/>
+      <c r="P214" s="84"/>
+      <c r="Q214" s="84"/>
+      <c r="R214" s="84"/>
+      <c r="S214" s="84"/>
+      <c r="T214" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="U209" s="72">
+      <c r="U214" s="84">
         <v>32</v>
       </c>
-      <c r="V209" s="72"/>
-      <c r="W209" s="72"/>
-      <c r="X209" s="72"/>
-      <c r="Y209" s="72"/>
-      <c r="Z209" s="72"/>
-      <c r="AA209" s="72"/>
-      <c r="AB209" s="72"/>
-      <c r="AC209" s="72"/>
-      <c r="AD209" s="72"/>
-      <c r="AE209" s="72"/>
-      <c r="AF209" s="72"/>
-      <c r="AG209" s="72"/>
-      <c r="AH209" s="72"/>
-      <c r="AI209" s="72"/>
-      <c r="AJ209" s="72"/>
-    </row>
-    <row r="210" spans="1:36">
-      <c r="A210" s="72" t="s">
-        <v>11</v>
-      </c>
-      <c r="B210" s="72" t="s">
-        <v>2075</v>
-      </c>
-      <c r="C210" s="72" t="s">
-        <v>2105</v>
-      </c>
-      <c r="D210" s="72"/>
-      <c r="E210" s="72"/>
-      <c r="F210" s="72"/>
-      <c r="G210" s="72"/>
-      <c r="H210" s="72"/>
-      <c r="I210" s="72"/>
-      <c r="J210" s="72"/>
-      <c r="K210" s="72"/>
-      <c r="L210" s="72"/>
-      <c r="M210" s="72"/>
-      <c r="N210" s="72" t="s">
-        <v>2076</v>
-      </c>
-      <c r="O210" s="72"/>
-      <c r="P210" s="72"/>
-      <c r="Q210" s="72"/>
-      <c r="R210" s="72"/>
-      <c r="S210" s="72"/>
-      <c r="T210" s="72" t="s">
-        <v>102</v>
-      </c>
-      <c r="U210" s="72">
-        <v>1024</v>
-      </c>
-      <c r="V210" s="72"/>
-      <c r="W210" s="72"/>
-      <c r="X210" s="72"/>
-      <c r="Y210" s="72"/>
-      <c r="Z210" s="72"/>
-      <c r="AA210" s="72"/>
-      <c r="AB210" s="72"/>
-      <c r="AC210" s="72"/>
-      <c r="AD210" s="72"/>
-      <c r="AE210" s="72"/>
-      <c r="AF210" s="72"/>
-      <c r="AG210" s="72"/>
-      <c r="AH210" s="72"/>
-      <c r="AI210" s="72"/>
-      <c r="AJ210" s="72"/>
-    </row>
-    <row r="211" spans="1:36">
-      <c r="A211" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="B211" s="72"/>
-      <c r="C211" s="72"/>
-      <c r="D211" s="72"/>
-      <c r="E211" s="72"/>
-      <c r="F211" s="72"/>
-      <c r="G211" s="72"/>
-      <c r="H211" s="72"/>
-      <c r="I211" s="72"/>
-      <c r="J211" s="72"/>
-      <c r="K211" s="72"/>
-      <c r="L211" s="72"/>
-      <c r="M211" s="72"/>
-      <c r="N211" s="72"/>
-      <c r="O211" s="72"/>
-      <c r="P211" s="72"/>
-      <c r="Q211" s="72"/>
-      <c r="R211" s="72"/>
-      <c r="S211" s="72"/>
-      <c r="T211" s="72"/>
-      <c r="U211" s="72"/>
-      <c r="V211" s="72"/>
-      <c r="W211" s="72"/>
-      <c r="X211" s="72"/>
-      <c r="Y211" s="72"/>
-      <c r="Z211" s="72"/>
-      <c r="AA211" s="72"/>
-      <c r="AB211" s="72"/>
-      <c r="AC211" s="72"/>
-      <c r="AD211" s="72"/>
-      <c r="AE211" s="72"/>
-      <c r="AF211" s="72"/>
-      <c r="AG211" s="72"/>
-      <c r="AH211" s="72"/>
-      <c r="AI211" s="72"/>
-      <c r="AJ211" s="72"/>
-    </row>
-    <row r="212" spans="1:36">
-      <c r="A212" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="B212" s="72"/>
-      <c r="C212" s="72"/>
-      <c r="D212" s="72"/>
-      <c r="E212" s="72"/>
-      <c r="F212" s="72"/>
-      <c r="G212" s="72"/>
-      <c r="H212" s="72"/>
-      <c r="I212" s="72"/>
-      <c r="J212" s="72"/>
-      <c r="K212" s="72"/>
-      <c r="L212" s="72"/>
-      <c r="M212" s="72"/>
-      <c r="N212" s="72"/>
-      <c r="O212" s="72"/>
-      <c r="P212" s="72"/>
-      <c r="Q212" s="72"/>
-      <c r="R212" s="72"/>
-      <c r="S212" s="72"/>
-      <c r="T212" s="72"/>
-      <c r="U212" s="72"/>
-      <c r="V212" s="81"/>
-      <c r="W212" s="81"/>
-      <c r="X212" s="81"/>
-      <c r="Y212" s="81"/>
-      <c r="Z212" s="81"/>
-      <c r="AA212" s="81"/>
-      <c r="AB212" s="81"/>
-      <c r="AC212" s="81"/>
-      <c r="AD212" s="81"/>
-      <c r="AE212" s="81"/>
-      <c r="AF212" s="81"/>
-      <c r="AG212" s="81"/>
-      <c r="AH212" s="81"/>
-      <c r="AI212" s="81"/>
-      <c r="AJ212" s="81"/>
-    </row>
-    <row r="213" spans="1:36">
-      <c r="A213" s="62"/>
-      <c r="B213" s="62"/>
-      <c r="C213" s="62"/>
-      <c r="D213" s="62"/>
-      <c r="E213" s="62"/>
-      <c r="F213" s="62"/>
-      <c r="G213" s="62"/>
-      <c r="H213" s="62"/>
-      <c r="I213" s="62"/>
-      <c r="J213" s="62"/>
-      <c r="K213" s="62"/>
-      <c r="L213" s="62"/>
-      <c r="M213" s="62"/>
-      <c r="N213" s="62"/>
-      <c r="O213" s="62"/>
-      <c r="P213" s="62"/>
-      <c r="Q213" s="62"/>
-      <c r="R213" s="62"/>
-      <c r="S213" s="62"/>
-      <c r="T213" s="62"/>
-      <c r="U213" s="62"/>
-      <c r="V213" s="62"/>
-      <c r="W213" s="62"/>
-      <c r="X213" s="62"/>
-      <c r="Y213" s="62"/>
-      <c r="Z213" s="62"/>
-      <c r="AA213" s="62"/>
-      <c r="AB213" s="62"/>
-      <c r="AC213" s="62"/>
-      <c r="AD213" s="62"/>
-      <c r="AE213" s="62"/>
-      <c r="AF213" s="62"/>
-      <c r="AG213" s="62"/>
-      <c r="AH213" s="62"/>
-      <c r="AI213" s="62"/>
-      <c r="AJ213" s="62"/>
-    </row>
-    <row r="214" spans="1:36">
-      <c r="A214" s="82" t="s">
-        <v>27</v>
-      </c>
-      <c r="B214" s="82" t="s">
-        <v>1955</v>
-      </c>
-      <c r="C214" s="82" t="s">
-        <v>1914</v>
-      </c>
-      <c r="D214" s="82"/>
-      <c r="E214" s="82"/>
-      <c r="F214" s="82" t="s">
-        <v>79</v>
-      </c>
-      <c r="G214" s="82"/>
-      <c r="H214" s="82"/>
-      <c r="I214" s="82"/>
-      <c r="J214" s="82"/>
-      <c r="K214" s="82"/>
-      <c r="L214" s="82"/>
-      <c r="M214" s="82"/>
-      <c r="N214" s="82" t="s">
-        <v>1915</v>
-      </c>
-      <c r="O214" s="82"/>
-      <c r="P214" s="82"/>
-      <c r="Q214" s="82"/>
-      <c r="R214" s="82"/>
-      <c r="S214" s="82"/>
-      <c r="T214" s="82"/>
-      <c r="U214" s="82"/>
       <c r="V214" s="83"/>
       <c r="W214" s="83"/>
       <c r="X214" s="83"/>
@@ -18095,17 +18084,19 @@
     </row>
     <row r="215" spans="1:36">
       <c r="A215" s="84" t="s">
-        <v>31</v>
-      </c>
-      <c r="B215" s="84" t="s">
-        <v>1643</v>
-      </c>
-      <c r="C215" s="82" t="s">
-        <v>1914</v>
+        <v>1644</v>
+      </c>
+      <c r="B215" s="83" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C215" s="84" t="s">
+        <v>2118</v>
       </c>
       <c r="D215" s="84"/>
       <c r="E215" s="84"/>
-      <c r="F215" s="84"/>
+      <c r="F215" s="84" t="s">
+        <v>51</v>
+      </c>
       <c r="G215" s="84"/>
       <c r="H215" s="84"/>
       <c r="I215" s="84"/>
@@ -18119,8 +18110,12 @@
       <c r="Q215" s="84"/>
       <c r="R215" s="84"/>
       <c r="S215" s="84"/>
-      <c r="T215" s="84"/>
-      <c r="U215" s="84"/>
+      <c r="T215" s="84" t="s">
+        <v>102</v>
+      </c>
+      <c r="U215" s="84">
+        <v>32</v>
+      </c>
       <c r="V215" s="83"/>
       <c r="W215" s="83"/>
       <c r="X215" s="83"/>
@@ -18139,15 +18134,17 @@
     </row>
     <row r="216" spans="1:36">
       <c r="A216" s="84" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B216" s="83" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="C216" s="84" t="s">
-        <v>2127</v>
-      </c>
-      <c r="D216" s="84"/>
+        <v>2142</v>
+      </c>
+      <c r="D216" s="84" t="s">
+        <v>2141</v>
+      </c>
       <c r="E216" s="84"/>
       <c r="F216" s="84"/>
       <c r="G216" s="84"/>
@@ -18155,8 +18152,12 @@
       <c r="I216" s="84"/>
       <c r="J216" s="84"/>
       <c r="K216" s="84"/>
-      <c r="L216" s="84"/>
-      <c r="M216" s="84"/>
+      <c r="L216" s="84" t="s">
+        <v>2139</v>
+      </c>
+      <c r="M216" s="84" t="s">
+        <v>2140</v>
+      </c>
       <c r="N216" s="84"/>
       <c r="O216" s="84"/>
       <c r="P216" s="84"/>
@@ -18164,7 +18165,7 @@
       <c r="R216" s="84"/>
       <c r="S216" s="84"/>
       <c r="T216" s="84" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="U216" s="84"/>
       <c r="V216" s="83"/>
@@ -18185,24 +18186,24 @@
     </row>
     <row r="217" spans="1:36">
       <c r="A217" s="84" t="s">
-        <v>1634</v>
+        <v>38</v>
       </c>
       <c r="B217" s="83" t="s">
-        <v>1635</v>
+        <v>1955</v>
       </c>
       <c r="C217" s="84" t="s">
-        <v>1636</v>
+        <v>1546</v>
       </c>
       <c r="D217" s="84"/>
       <c r="E217" s="84"/>
-      <c r="F217" s="84" t="s">
-        <v>51</v>
-      </c>
+      <c r="F217" s="84"/>
       <c r="G217" s="84"/>
       <c r="H217" s="84"/>
       <c r="I217" s="84"/>
       <c r="J217" s="84"/>
-      <c r="K217" s="84"/>
+      <c r="K217" s="84" t="s">
+        <v>1922</v>
+      </c>
       <c r="L217" s="84"/>
       <c r="M217" s="84"/>
       <c r="N217" s="84"/>
@@ -18212,41 +18213,39 @@
       <c r="R217" s="84"/>
       <c r="S217" s="84"/>
       <c r="T217" s="84" t="s">
-        <v>102</v>
-      </c>
-      <c r="U217" s="84">
-        <v>32</v>
-      </c>
-      <c r="V217" s="83"/>
-      <c r="W217" s="83"/>
-      <c r="X217" s="83"/>
-      <c r="Y217" s="83"/>
-      <c r="Z217" s="83"/>
-      <c r="AA217" s="83"/>
-      <c r="AB217" s="83"/>
-      <c r="AC217" s="83"/>
-      <c r="AD217" s="83"/>
-      <c r="AE217" s="83"/>
-      <c r="AF217" s="83"/>
-      <c r="AG217" s="83"/>
-      <c r="AH217" s="83"/>
-      <c r="AI217" s="83"/>
-      <c r="AJ217" s="83"/>
+        <v>108</v>
+      </c>
+      <c r="U217" s="84"/>
+      <c r="V217" s="84"/>
+      <c r="W217" s="84"/>
+      <c r="X217" s="84"/>
+      <c r="Y217" s="84"/>
+      <c r="Z217" s="84"/>
+      <c r="AA217" s="84"/>
+      <c r="AB217" s="84"/>
+      <c r="AC217" s="84"/>
+      <c r="AD217" s="84"/>
+      <c r="AE217" s="84"/>
+      <c r="AF217" s="84"/>
+      <c r="AG217" s="84"/>
+      <c r="AH217" s="84"/>
+      <c r="AI217" s="84"/>
+      <c r="AJ217" s="84"/>
     </row>
     <row r="218" spans="1:36">
       <c r="A218" s="84" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="B218" s="83" t="s">
-        <v>1551</v>
+        <v>1647</v>
       </c>
       <c r="C218" s="84" t="s">
-        <v>2124</v>
+        <v>2291</v>
       </c>
       <c r="D218" s="84"/>
       <c r="E218" s="84"/>
       <c r="F218" s="84" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G218" s="84"/>
       <c r="H218" s="84"/>
@@ -18255,7 +18254,9 @@
       <c r="K218" s="84"/>
       <c r="L218" s="84"/>
       <c r="M218" s="84"/>
-      <c r="N218" s="84"/>
+      <c r="N218" s="84" t="s">
+        <v>1956</v>
+      </c>
       <c r="O218" s="84"/>
       <c r="P218" s="84"/>
       <c r="Q218" s="84"/>
@@ -18267,34 +18268,34 @@
       <c r="U218" s="84">
         <v>32</v>
       </c>
-      <c r="V218" s="83"/>
-      <c r="W218" s="83"/>
-      <c r="X218" s="83"/>
-      <c r="Y218" s="83"/>
-      <c r="Z218" s="83"/>
-      <c r="AA218" s="83"/>
-      <c r="AB218" s="83"/>
-      <c r="AC218" s="83"/>
-      <c r="AD218" s="83"/>
-      <c r="AE218" s="83"/>
-      <c r="AF218" s="83"/>
-      <c r="AG218" s="83"/>
-      <c r="AH218" s="83"/>
-      <c r="AI218" s="83"/>
-      <c r="AJ218" s="83"/>
+      <c r="V218" s="84"/>
+      <c r="W218" s="84"/>
+      <c r="X218" s="84"/>
+      <c r="Y218" s="84"/>
+      <c r="Z218" s="84"/>
+      <c r="AA218" s="84"/>
+      <c r="AB218" s="84"/>
+      <c r="AC218" s="84"/>
+      <c r="AD218" s="84"/>
+      <c r="AE218" s="84"/>
+      <c r="AF218" s="84"/>
+      <c r="AG218" s="84"/>
+      <c r="AH218" s="84"/>
+      <c r="AI218" s="84"/>
+      <c r="AJ218" s="84"/>
     </row>
     <row r="219" spans="1:36">
       <c r="A219" s="84" t="s">
         <v>6</v>
       </c>
       <c r="B219" s="83" t="s">
-        <v>1624</v>
+        <v>2043</v>
       </c>
       <c r="C219" s="84" t="s">
-        <v>2149</v>
+        <v>2292</v>
       </c>
       <c r="D219" s="84" t="s">
-        <v>2148</v>
+        <v>2141</v>
       </c>
       <c r="E219" s="84"/>
       <c r="F219" s="84"/>
@@ -18304,57 +18305,59 @@
       <c r="J219" s="84"/>
       <c r="K219" s="84"/>
       <c r="L219" s="84" t="s">
-        <v>2146</v>
+        <v>2139</v>
       </c>
       <c r="M219" s="84" t="s">
-        <v>2147</v>
-      </c>
-      <c r="N219" s="84"/>
+        <v>2140</v>
+      </c>
+      <c r="N219" s="84" t="s">
+        <v>1956</v>
+      </c>
       <c r="O219" s="84"/>
       <c r="P219" s="84"/>
       <c r="Q219" s="84"/>
       <c r="R219" s="84"/>
       <c r="S219" s="84"/>
       <c r="T219" s="84" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="U219" s="84"/>
-      <c r="V219" s="83"/>
-      <c r="W219" s="83"/>
-      <c r="X219" s="83"/>
-      <c r="Y219" s="83"/>
-      <c r="Z219" s="83"/>
-      <c r="AA219" s="83"/>
-      <c r="AB219" s="83"/>
-      <c r="AC219" s="83"/>
-      <c r="AD219" s="83"/>
-      <c r="AE219" s="83"/>
-      <c r="AF219" s="83"/>
-      <c r="AG219" s="83"/>
-      <c r="AH219" s="83"/>
-      <c r="AI219" s="83"/>
-      <c r="AJ219" s="83"/>
+      <c r="V219" s="84"/>
+      <c r="W219" s="84"/>
+      <c r="X219" s="84"/>
+      <c r="Y219" s="84"/>
+      <c r="Z219" s="84"/>
+      <c r="AA219" s="84"/>
+      <c r="AB219" s="84"/>
+      <c r="AC219" s="84"/>
+      <c r="AD219" s="84"/>
+      <c r="AE219" s="84"/>
+      <c r="AF219" s="84"/>
+      <c r="AG219" s="84"/>
+      <c r="AH219" s="84"/>
+      <c r="AI219" s="84"/>
+      <c r="AJ219" s="84"/>
     </row>
     <row r="220" spans="1:36">
       <c r="A220" s="84" t="s">
-        <v>38</v>
+        <v>1645</v>
       </c>
       <c r="B220" s="83" t="s">
-        <v>1956</v>
+        <v>2042</v>
       </c>
       <c r="C220" s="84" t="s">
-        <v>1546</v>
+        <v>2293</v>
       </c>
       <c r="D220" s="84"/>
       <c r="E220" s="84"/>
-      <c r="F220" s="84"/>
+      <c r="F220" s="84" t="s">
+        <v>55</v>
+      </c>
       <c r="G220" s="84"/>
       <c r="H220" s="84"/>
       <c r="I220" s="84"/>
       <c r="J220" s="84"/>
-      <c r="K220" s="84" t="s">
-        <v>1922</v>
-      </c>
+      <c r="K220" s="84"/>
       <c r="L220" s="84"/>
       <c r="M220" s="84"/>
       <c r="N220" s="84"/>
@@ -18367,102 +18370,96 @@
         <v>108</v>
       </c>
       <c r="U220" s="84"/>
-      <c r="V220" s="84"/>
-      <c r="W220" s="84"/>
-      <c r="X220" s="84"/>
-      <c r="Y220" s="84"/>
-      <c r="Z220" s="84"/>
-      <c r="AA220" s="84"/>
-      <c r="AB220" s="84"/>
-      <c r="AC220" s="84"/>
-      <c r="AD220" s="84"/>
-      <c r="AE220" s="84"/>
-      <c r="AF220" s="84"/>
-      <c r="AG220" s="84"/>
-      <c r="AH220" s="84"/>
-      <c r="AI220" s="84"/>
-      <c r="AJ220" s="84"/>
+      <c r="V220" s="83"/>
+      <c r="W220" s="83"/>
+      <c r="X220" s="83"/>
+      <c r="Y220" s="83"/>
+      <c r="Z220" s="83"/>
+      <c r="AA220" s="83"/>
+      <c r="AB220" s="83"/>
+      <c r="AC220" s="83"/>
+      <c r="AD220" s="83"/>
+      <c r="AE220" s="83"/>
+      <c r="AF220" s="83"/>
+      <c r="AG220" s="83"/>
+      <c r="AH220" s="83"/>
+      <c r="AI220" s="83"/>
+      <c r="AJ220" s="83"/>
     </row>
     <row r="221" spans="1:36">
       <c r="A221" s="84" t="s">
-        <v>1646</v>
+        <v>38</v>
       </c>
       <c r="B221" s="83" t="s">
-        <v>1647</v>
+        <v>1626</v>
       </c>
       <c r="C221" s="84" t="s">
-        <v>2298</v>
+        <v>2294</v>
       </c>
       <c r="D221" s="84"/>
       <c r="E221" s="84"/>
-      <c r="F221" s="84" t="s">
-        <v>55</v>
-      </c>
+      <c r="F221" s="84"/>
       <c r="G221" s="84"/>
       <c r="H221" s="84"/>
       <c r="I221" s="84"/>
       <c r="J221" s="84"/>
-      <c r="K221" s="84"/>
+      <c r="K221" s="84" t="s">
+        <v>2303</v>
+      </c>
       <c r="L221" s="84"/>
       <c r="M221" s="84"/>
-      <c r="N221" s="84" t="s">
-        <v>1957</v>
-      </c>
+      <c r="N221" s="84"/>
       <c r="O221" s="84"/>
       <c r="P221" s="84"/>
       <c r="Q221" s="84"/>
       <c r="R221" s="84"/>
       <c r="S221" s="84"/>
       <c r="T221" s="84" t="s">
-        <v>102</v>
-      </c>
-      <c r="U221" s="84">
-        <v>32</v>
-      </c>
-      <c r="V221" s="84"/>
-      <c r="W221" s="84"/>
-      <c r="X221" s="84"/>
-      <c r="Y221" s="84"/>
-      <c r="Z221" s="84"/>
-      <c r="AA221" s="84"/>
-      <c r="AB221" s="84"/>
-      <c r="AC221" s="84"/>
-      <c r="AD221" s="84"/>
-      <c r="AE221" s="84"/>
-      <c r="AF221" s="84"/>
-      <c r="AG221" s="84"/>
-      <c r="AH221" s="84"/>
-      <c r="AI221" s="84"/>
-      <c r="AJ221" s="84"/>
+        <v>96</v>
+      </c>
+      <c r="U221" s="84"/>
+      <c r="V221" s="83"/>
+      <c r="W221" s="83"/>
+      <c r="X221" s="83"/>
+      <c r="Y221" s="83"/>
+      <c r="Z221" s="83"/>
+      <c r="AA221" s="83"/>
+      <c r="AB221" s="83"/>
+      <c r="AC221" s="83"/>
+      <c r="AD221" s="83"/>
+      <c r="AE221" s="83"/>
+      <c r="AF221" s="83"/>
+      <c r="AG221" s="83"/>
+      <c r="AH221" s="83"/>
+      <c r="AI221" s="83"/>
+      <c r="AJ221" s="83"/>
     </row>
     <row r="222" spans="1:36">
       <c r="A222" s="84" t="s">
         <v>6</v>
       </c>
       <c r="B222" s="83" t="s">
-        <v>2047</v>
+        <v>2297</v>
       </c>
       <c r="C222" s="84" t="s">
-        <v>2299</v>
-      </c>
-      <c r="D222" s="84" t="s">
-        <v>2148</v>
-      </c>
+        <v>2298</v>
+      </c>
+      <c r="D222" s="84"/>
       <c r="E222" s="84"/>
       <c r="F222" s="84"/>
       <c r="G222" s="84"/>
       <c r="H222" s="84"/>
-      <c r="I222" s="84"/>
+      <c r="I222" s="84" t="s">
+        <v>1881</v>
+      </c>
       <c r="J222" s="84"/>
-      <c r="K222" s="84"/>
-      <c r="L222" s="84" t="s">
-        <v>2146</v>
-      </c>
-      <c r="M222" s="84" t="s">
-        <v>2147</v>
-      </c>
+      <c r="K222" s="84" t="s">
+        <v>2299</v>
+      </c>
+      <c r="L222" s="84"/>
+      <c r="M222" s="84"/>
       <c r="N222" s="84" t="s">
-        <v>1957</v>
+        <v>2295</v>
       </c>
       <c r="O222" s="84"/>
       <c r="P222" s="84"/>
@@ -18473,45 +18470,49 @@
         <v>108</v>
       </c>
       <c r="U222" s="84"/>
-      <c r="V222" s="84"/>
-      <c r="W222" s="84"/>
-      <c r="X222" s="84"/>
-      <c r="Y222" s="84"/>
-      <c r="Z222" s="84"/>
-      <c r="AA222" s="84"/>
-      <c r="AB222" s="84"/>
-      <c r="AC222" s="84"/>
-      <c r="AD222" s="84"/>
-      <c r="AE222" s="84"/>
-      <c r="AF222" s="84"/>
-      <c r="AG222" s="84"/>
-      <c r="AH222" s="84"/>
-      <c r="AI222" s="84"/>
-      <c r="AJ222" s="84"/>
+      <c r="V222" s="83"/>
+      <c r="W222" s="83"/>
+      <c r="X222" s="83"/>
+      <c r="Y222" s="83"/>
+      <c r="Z222" s="83"/>
+      <c r="AA222" s="83"/>
+      <c r="AB222" s="83"/>
+      <c r="AC222" s="83"/>
+      <c r="AD222" s="83"/>
+      <c r="AE222" s="83"/>
+      <c r="AF222" s="83"/>
+      <c r="AG222" s="83"/>
+      <c r="AH222" s="83"/>
+      <c r="AI222" s="83"/>
+      <c r="AJ222" s="83"/>
     </row>
     <row r="223" spans="1:36">
       <c r="A223" s="84" t="s">
-        <v>1645</v>
+        <v>6</v>
       </c>
       <c r="B223" s="83" t="s">
-        <v>2046</v>
+        <v>2018</v>
       </c>
       <c r="C223" s="84" t="s">
-        <v>2300</v>
-      </c>
-      <c r="D223" s="84"/>
+        <v>2283</v>
+      </c>
+      <c r="D223" s="83"/>
       <c r="E223" s="84"/>
-      <c r="F223" s="84" t="s">
-        <v>55</v>
-      </c>
+      <c r="F223" s="84"/>
       <c r="G223" s="84"/>
       <c r="H223" s="84"/>
-      <c r="I223" s="84"/>
+      <c r="I223" s="84" t="s">
+        <v>1881</v>
+      </c>
       <c r="J223" s="84"/>
-      <c r="K223" s="84"/>
+      <c r="K223" s="84" t="s">
+        <v>2220</v>
+      </c>
       <c r="L223" s="84"/>
       <c r="M223" s="84"/>
-      <c r="N223" s="84"/>
+      <c r="N223" s="84" t="s">
+        <v>2302</v>
+      </c>
       <c r="O223" s="84"/>
       <c r="P223" s="84"/>
       <c r="Q223" s="84"/>
@@ -18521,54 +18522,56 @@
         <v>108</v>
       </c>
       <c r="U223" s="84"/>
-      <c r="V223" s="83"/>
-      <c r="W223" s="83"/>
-      <c r="X223" s="83"/>
-      <c r="Y223" s="83"/>
-      <c r="Z223" s="83"/>
-      <c r="AA223" s="83"/>
-      <c r="AB223" s="83"/>
-      <c r="AC223" s="83"/>
-      <c r="AD223" s="83"/>
-      <c r="AE223" s="83"/>
-      <c r="AF223" s="83"/>
-      <c r="AG223" s="83"/>
-      <c r="AH223" s="83"/>
-      <c r="AI223" s="83"/>
-      <c r="AJ223" s="83"/>
-    </row>
-    <row r="224" spans="1:36">
-      <c r="A224" s="84" t="s">
+      <c r="V223" s="84"/>
+      <c r="W223" s="84"/>
+      <c r="X223" s="84"/>
+      <c r="Y223" s="84"/>
+      <c r="Z223" s="84"/>
+      <c r="AA223" s="84"/>
+      <c r="AB223" s="84"/>
+      <c r="AC223" s="84"/>
+      <c r="AD223" s="84"/>
+      <c r="AE223" s="84"/>
+      <c r="AF223" s="84"/>
+      <c r="AG223" s="84"/>
+      <c r="AH223" s="84"/>
+      <c r="AI223" s="84"/>
+      <c r="AJ223" s="84"/>
+    </row>
+    <row r="224" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A224" s="83" t="s">
         <v>38</v>
       </c>
       <c r="B224" s="83" t="s">
-        <v>1626</v>
-      </c>
-      <c r="C224" s="84" t="s">
-        <v>2301</v>
-      </c>
-      <c r="D224" s="84"/>
-      <c r="E224" s="84"/>
-      <c r="F224" s="84"/>
-      <c r="G224" s="84"/>
-      <c r="H224" s="84"/>
-      <c r="I224" s="84"/>
-      <c r="J224" s="84"/>
-      <c r="K224" s="84" t="s">
-        <v>2310</v>
-      </c>
-      <c r="L224" s="84"/>
-      <c r="M224" s="84"/>
-      <c r="N224" s="84"/>
-      <c r="O224" s="84"/>
-      <c r="P224" s="84"/>
-      <c r="Q224" s="84"/>
-      <c r="R224" s="84"/>
-      <c r="S224" s="84"/>
-      <c r="T224" s="84" t="s">
-        <v>96</v>
-      </c>
-      <c r="U224" s="84"/>
+        <v>1957</v>
+      </c>
+      <c r="C224" s="83" t="s">
+        <v>1899</v>
+      </c>
+      <c r="D224" s="83"/>
+      <c r="E224" s="83"/>
+      <c r="F224" s="83"/>
+      <c r="G224" s="83"/>
+      <c r="H224" s="83"/>
+      <c r="I224" s="83"/>
+      <c r="J224" s="83"/>
+      <c r="K224" s="90" t="s">
+        <v>2290</v>
+      </c>
+      <c r="L224" s="83"/>
+      <c r="M224" s="83"/>
+      <c r="N224" s="84" t="s">
+        <v>1956</v>
+      </c>
+      <c r="O224" s="83"/>
+      <c r="P224" s="83"/>
+      <c r="Q224" s="83"/>
+      <c r="R224" s="83"/>
+      <c r="S224" s="83"/>
+      <c r="T224" s="83" t="s">
+        <v>108</v>
+      </c>
+      <c r="U224" s="83"/>
       <c r="V224" s="83"/>
       <c r="W224" s="83"/>
       <c r="X224" s="83"/>
@@ -18585,42 +18588,38 @@
       <c r="AI224" s="83"/>
       <c r="AJ224" s="83"/>
     </row>
-    <row r="225" spans="1:36">
-      <c r="A225" s="84" t="s">
-        <v>6</v>
+    <row r="225" spans="1:36" s="61" customFormat="1" ht="18" customHeight="1">
+      <c r="A225" s="83" t="s">
+        <v>15</v>
       </c>
       <c r="B225" s="83" t="s">
-        <v>2304</v>
-      </c>
-      <c r="C225" s="84" t="s">
-        <v>2305</v>
-      </c>
-      <c r="D225" s="84"/>
-      <c r="E225" s="84"/>
-      <c r="F225" s="84"/>
-      <c r="G225" s="84"/>
-      <c r="H225" s="84"/>
-      <c r="I225" s="84" t="s">
-        <v>1881</v>
-      </c>
-      <c r="J225" s="84"/>
-      <c r="K225" s="84" t="s">
-        <v>2306</v>
-      </c>
-      <c r="L225" s="84"/>
-      <c r="M225" s="84"/>
+        <v>2019</v>
+      </c>
+      <c r="C225" s="83" t="s">
+        <v>2020</v>
+      </c>
+      <c r="D225" s="83"/>
+      <c r="E225" s="83"/>
+      <c r="F225" s="83"/>
+      <c r="G225" s="83"/>
+      <c r="H225" s="83"/>
+      <c r="I225" s="83"/>
+      <c r="J225" s="83"/>
+      <c r="K225" s="83"/>
+      <c r="L225" s="83"/>
+      <c r="M225" s="83"/>
       <c r="N225" s="84" t="s">
-        <v>2302</v>
-      </c>
-      <c r="O225" s="84"/>
-      <c r="P225" s="84"/>
-      <c r="Q225" s="84"/>
-      <c r="R225" s="84"/>
-      <c r="S225" s="84"/>
-      <c r="T225" s="84" t="s">
+        <v>2300</v>
+      </c>
+      <c r="O225" s="83"/>
+      <c r="P225" s="83"/>
+      <c r="Q225" s="83"/>
+      <c r="R225" s="83"/>
+      <c r="S225" s="83"/>
+      <c r="T225" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="U225" s="84"/>
+      <c r="U225" s="83"/>
       <c r="V225" s="83"/>
       <c r="W225" s="83"/>
       <c r="X225" s="83"/>
@@ -18638,81 +18637,77 @@
       <c r="AJ225" s="83"/>
     </row>
     <row r="226" spans="1:36">
-      <c r="A226" s="84" t="s">
-        <v>6</v>
+      <c r="A226" s="83" t="s">
+        <v>15</v>
       </c>
       <c r="B226" s="83" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C226" s="83" t="s">
         <v>2022</v>
       </c>
-      <c r="C226" s="84" t="s">
-        <v>2290</v>
-      </c>
       <c r="D226" s="83"/>
-      <c r="E226" s="84"/>
-      <c r="F226" s="84"/>
-      <c r="G226" s="84"/>
-      <c r="H226" s="84"/>
-      <c r="I226" s="84" t="s">
-        <v>1881</v>
-      </c>
-      <c r="J226" s="84"/>
-      <c r="K226" s="84" t="s">
-        <v>2227</v>
-      </c>
-      <c r="L226" s="84"/>
-      <c r="M226" s="84"/>
+      <c r="E226" s="83"/>
+      <c r="F226" s="83"/>
+      <c r="G226" s="83"/>
+      <c r="H226" s="83"/>
+      <c r="I226" s="83"/>
+      <c r="J226" s="83"/>
+      <c r="K226" s="83"/>
+      <c r="L226" s="83"/>
+      <c r="M226" s="83"/>
       <c r="N226" s="84" t="s">
-        <v>2309</v>
-      </c>
-      <c r="O226" s="84"/>
-      <c r="P226" s="84"/>
-      <c r="Q226" s="84"/>
-      <c r="R226" s="84"/>
-      <c r="S226" s="84"/>
-      <c r="T226" s="84" t="s">
+        <v>2301</v>
+      </c>
+      <c r="O226" s="83"/>
+      <c r="P226" s="83"/>
+      <c r="Q226" s="83"/>
+      <c r="R226" s="83"/>
+      <c r="S226" s="83"/>
+      <c r="T226" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="U226" s="84"/>
-      <c r="V226" s="84"/>
-      <c r="W226" s="84"/>
-      <c r="X226" s="84"/>
-      <c r="Y226" s="84"/>
-      <c r="Z226" s="84"/>
-      <c r="AA226" s="84"/>
-      <c r="AB226" s="84"/>
-      <c r="AC226" s="84"/>
-      <c r="AD226" s="84"/>
-      <c r="AE226" s="84"/>
-      <c r="AF226" s="84"/>
-      <c r="AG226" s="84"/>
-      <c r="AH226" s="84"/>
-      <c r="AI226" s="84"/>
-      <c r="AJ226" s="84"/>
-    </row>
-    <row r="227" spans="1:36" ht="15.75" customHeight="1">
+      <c r="U226" s="83"/>
+      <c r="V226" s="83"/>
+      <c r="W226" s="83"/>
+      <c r="X226" s="83"/>
+      <c r="Y226" s="83"/>
+      <c r="Z226" s="83"/>
+      <c r="AA226" s="83"/>
+      <c r="AB226" s="83"/>
+      <c r="AC226" s="83"/>
+      <c r="AD226" s="83"/>
+      <c r="AE226" s="83"/>
+      <c r="AF226" s="83"/>
+      <c r="AG226" s="83"/>
+      <c r="AH226" s="83"/>
+      <c r="AI226" s="83"/>
+      <c r="AJ226" s="83"/>
+    </row>
+    <row r="227" spans="1:36">
       <c r="A227" s="83" t="s">
-        <v>38</v>
+        <v>1503</v>
       </c>
       <c r="B227" s="83" t="s">
-        <v>1958</v>
+        <v>2023</v>
       </c>
       <c r="C227" s="83" t="s">
-        <v>1899</v>
+        <v>2024</v>
       </c>
       <c r="D227" s="83"/>
       <c r="E227" s="83"/>
-      <c r="F227" s="83"/>
+      <c r="F227" s="83" t="s">
+        <v>55</v>
+      </c>
       <c r="G227" s="83"/>
       <c r="H227" s="83"/>
       <c r="I227" s="83"/>
       <c r="J227" s="83"/>
-      <c r="K227" s="90" t="s">
-        <v>2297</v>
-      </c>
+      <c r="K227" s="83"/>
       <c r="L227" s="83"/>
       <c r="M227" s="83"/>
       <c r="N227" s="84" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="O227" s="83"/>
       <c r="P227" s="83"/>
@@ -18739,15 +18734,15 @@
       <c r="AI227" s="83"/>
       <c r="AJ227" s="83"/>
     </row>
-    <row r="228" spans="1:36" s="61" customFormat="1" ht="18" customHeight="1">
+    <row r="228" spans="1:36" s="61" customFormat="1">
       <c r="A228" s="83" t="s">
         <v>15</v>
       </c>
       <c r="B228" s="83" t="s">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="C228" s="83" t="s">
-        <v>2024</v>
+        <v>2026</v>
       </c>
       <c r="D228" s="83"/>
       <c r="E228" s="83"/>
@@ -18760,7 +18755,7 @@
       <c r="L228" s="83"/>
       <c r="M228" s="83"/>
       <c r="N228" s="84" t="s">
-        <v>2307</v>
+        <v>2027</v>
       </c>
       <c r="O228" s="83"/>
       <c r="P228" s="83"/>
@@ -18789,36 +18784,44 @@
     </row>
     <row r="229" spans="1:36">
       <c r="A229" s="83" t="s">
-        <v>15</v>
+        <v>1503</v>
       </c>
       <c r="B229" s="83" t="s">
-        <v>2025</v>
+        <v>1648</v>
       </c>
       <c r="C229" s="83" t="s">
-        <v>2026</v>
+        <v>1959</v>
       </c>
       <c r="D229" s="83"/>
       <c r="E229" s="83"/>
-      <c r="F229" s="83"/>
+      <c r="F229" s="83" t="s">
+        <v>55</v>
+      </c>
       <c r="G229" s="83"/>
       <c r="H229" s="83"/>
-      <c r="I229" s="83"/>
+      <c r="I229" s="83" t="s">
+        <v>1881</v>
+      </c>
       <c r="J229" s="83"/>
-      <c r="K229" s="83"/>
+      <c r="K229" s="83" t="s">
+        <v>2028</v>
+      </c>
       <c r="L229" s="83"/>
       <c r="M229" s="83"/>
       <c r="N229" s="84" t="s">
-        <v>2308</v>
+        <v>2029</v>
       </c>
       <c r="O229" s="83"/>
       <c r="P229" s="83"/>
       <c r="Q229" s="83"/>
       <c r="R229" s="83"/>
       <c r="S229" s="83"/>
-      <c r="T229" s="83" t="s">
-        <v>108</v>
-      </c>
-      <c r="U229" s="83"/>
+      <c r="T229" s="84" t="s">
+        <v>102</v>
+      </c>
+      <c r="U229" s="83">
+        <v>3</v>
+      </c>
       <c r="V229" s="83"/>
       <c r="W229" s="83"/>
       <c r="X229" s="83"/>
@@ -18837,19 +18840,13 @@
     </row>
     <row r="230" spans="1:36">
       <c r="A230" s="83" t="s">
-        <v>1503</v>
-      </c>
-      <c r="B230" s="83" t="s">
-        <v>2027</v>
-      </c>
-      <c r="C230" s="83" t="s">
-        <v>2028</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B230" s="83"/>
+      <c r="C230" s="83"/>
       <c r="D230" s="83"/>
       <c r="E230" s="83"/>
-      <c r="F230" s="83" t="s">
-        <v>55</v>
-      </c>
+      <c r="F230" s="83"/>
       <c r="G230" s="83"/>
       <c r="H230" s="83"/>
       <c r="I230" s="83"/>
@@ -18857,17 +18854,13 @@
       <c r="K230" s="83"/>
       <c r="L230" s="83"/>
       <c r="M230" s="83"/>
-      <c r="N230" s="84" t="s">
-        <v>1959</v>
-      </c>
+      <c r="N230" s="83"/>
       <c r="O230" s="83"/>
       <c r="P230" s="83"/>
       <c r="Q230" s="83"/>
       <c r="R230" s="83"/>
       <c r="S230" s="83"/>
-      <c r="T230" s="83" t="s">
-        <v>108</v>
-      </c>
+      <c r="T230" s="83"/>
       <c r="U230" s="83"/>
       <c r="V230" s="83"/>
       <c r="W230" s="83"/>
@@ -18885,379 +18878,373 @@
       <c r="AI230" s="83"/>
       <c r="AJ230" s="83"/>
     </row>
-    <row r="231" spans="1:36" s="61" customFormat="1">
-      <c r="A231" s="83" t="s">
-        <v>15</v>
-      </c>
-      <c r="B231" s="83" t="s">
-        <v>2029</v>
-      </c>
-      <c r="C231" s="83" t="s">
-        <v>2030</v>
-      </c>
-      <c r="D231" s="83"/>
-      <c r="E231" s="83"/>
-      <c r="F231" s="83"/>
-      <c r="G231" s="83"/>
-      <c r="H231" s="83"/>
-      <c r="I231" s="83"/>
-      <c r="J231" s="83"/>
-      <c r="K231" s="83"/>
-      <c r="L231" s="83"/>
-      <c r="M231" s="83"/>
-      <c r="N231" s="84" t="s">
-        <v>2031</v>
-      </c>
-      <c r="O231" s="83"/>
-      <c r="P231" s="83"/>
-      <c r="Q231" s="83"/>
-      <c r="R231" s="83"/>
-      <c r="S231" s="83"/>
-      <c r="T231" s="83" t="s">
+    <row r="231" spans="1:36">
+      <c r="A231" s="85" t="s">
+        <v>29</v>
+      </c>
+      <c r="B231" s="85"/>
+      <c r="C231" s="85" t="s">
+        <v>1914</v>
+      </c>
+      <c r="D231" s="85"/>
+      <c r="E231" s="85"/>
+      <c r="F231" s="85"/>
+      <c r="G231" s="85"/>
+      <c r="H231" s="85"/>
+      <c r="I231" s="85"/>
+      <c r="J231" s="85"/>
+      <c r="K231" s="85"/>
+      <c r="L231" s="85"/>
+      <c r="M231" s="85"/>
+      <c r="N231" s="85"/>
+      <c r="O231" s="85"/>
+      <c r="P231" s="85"/>
+      <c r="Q231" s="85"/>
+      <c r="R231" s="85"/>
+      <c r="S231" s="85"/>
+      <c r="T231" s="85"/>
+      <c r="U231" s="85"/>
+      <c r="V231" s="85"/>
+      <c r="W231" s="85"/>
+      <c r="X231" s="85"/>
+      <c r="Y231" s="85"/>
+      <c r="Z231" s="85"/>
+      <c r="AA231" s="85"/>
+      <c r="AB231" s="85"/>
+      <c r="AC231" s="85"/>
+      <c r="AD231" s="85"/>
+      <c r="AE231" s="85"/>
+      <c r="AF231" s="85"/>
+      <c r="AG231" s="85"/>
+      <c r="AH231" s="85"/>
+      <c r="AI231" s="85"/>
+      <c r="AJ231" s="85"/>
+    </row>
+    <row r="232" spans="1:36">
+      <c r="A232" s="86"/>
+      <c r="B232" s="86"/>
+      <c r="C232" s="86"/>
+      <c r="D232" s="86"/>
+      <c r="E232" s="86"/>
+      <c r="F232" s="86"/>
+      <c r="G232" s="86"/>
+      <c r="H232" s="86"/>
+      <c r="I232" s="86"/>
+      <c r="J232" s="86"/>
+      <c r="K232" s="86"/>
+      <c r="L232" s="86"/>
+      <c r="M232" s="86"/>
+      <c r="N232" s="86"/>
+      <c r="O232" s="86"/>
+      <c r="P232" s="86"/>
+      <c r="Q232" s="86"/>
+      <c r="R232" s="86"/>
+      <c r="S232" s="86"/>
+      <c r="T232" s="86"/>
+      <c r="U232" s="86"/>
+      <c r="V232" s="86"/>
+      <c r="W232" s="86"/>
+      <c r="X232" s="86"/>
+      <c r="Y232" s="86"/>
+      <c r="Z232" s="86"/>
+      <c r="AA232" s="86"/>
+      <c r="AB232" s="86"/>
+      <c r="AC232" s="86"/>
+      <c r="AD232" s="86"/>
+      <c r="AE232" s="86"/>
+      <c r="AF232" s="86"/>
+      <c r="AG232" s="86"/>
+      <c r="AH232" s="86"/>
+      <c r="AI232" s="86"/>
+      <c r="AJ232" s="86"/>
+    </row>
+    <row r="233" spans="1:36">
+      <c r="A233" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="B233" s="87" t="s">
+        <v>2228</v>
+      </c>
+      <c r="C233" s="87" t="s">
+        <v>2229</v>
+      </c>
+      <c r="D233" s="87"/>
+      <c r="E233" s="87"/>
+      <c r="F233" s="87" t="s">
+        <v>79</v>
+      </c>
+      <c r="G233" s="87"/>
+      <c r="H233" s="87"/>
+      <c r="I233" s="87"/>
+      <c r="J233" s="87"/>
+      <c r="K233" s="87"/>
+      <c r="L233" s="87"/>
+      <c r="M233" s="87"/>
+      <c r="N233" s="67" t="s">
+        <v>2230</v>
+      </c>
+      <c r="O233" s="87"/>
+      <c r="P233" s="87"/>
+      <c r="Q233" s="87"/>
+      <c r="R233" s="87"/>
+      <c r="S233" s="87"/>
+      <c r="T233" s="87"/>
+      <c r="U233" s="87"/>
+      <c r="V233" s="87"/>
+      <c r="W233" s="87"/>
+      <c r="X233" s="87"/>
+      <c r="Y233" s="87"/>
+      <c r="Z233" s="87"/>
+      <c r="AA233" s="87"/>
+      <c r="AB233" s="87"/>
+      <c r="AC233" s="87"/>
+      <c r="AD233" s="87"/>
+      <c r="AE233" s="87"/>
+      <c r="AF233" s="87"/>
+      <c r="AG233" s="87"/>
+      <c r="AH233" s="87"/>
+      <c r="AI233" s="87"/>
+      <c r="AJ233" s="87"/>
+    </row>
+    <row r="234" spans="1:36">
+      <c r="A234" s="87" t="s">
+        <v>2329</v>
+      </c>
+      <c r="B234" s="87" t="s">
+        <v>2309</v>
+      </c>
+      <c r="C234" s="87" t="s">
+        <v>2326</v>
+      </c>
+      <c r="D234" s="87"/>
+      <c r="E234" s="87"/>
+      <c r="F234" s="87"/>
+      <c r="G234" s="87"/>
+      <c r="H234" s="87"/>
+      <c r="I234" s="87"/>
+      <c r="J234" s="87"/>
+      <c r="K234" s="87"/>
+      <c r="L234" s="87"/>
+      <c r="M234" s="87"/>
+      <c r="N234" s="67"/>
+      <c r="O234" s="87"/>
+      <c r="P234" s="87"/>
+      <c r="Q234" s="87"/>
+      <c r="R234" s="87"/>
+      <c r="S234" s="87"/>
+      <c r="T234" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="U231" s="83"/>
-      <c r="V231" s="83"/>
-      <c r="W231" s="83"/>
-      <c r="X231" s="83"/>
-      <c r="Y231" s="83"/>
-      <c r="Z231" s="83"/>
-      <c r="AA231" s="83"/>
-      <c r="AB231" s="83"/>
-      <c r="AC231" s="83"/>
-      <c r="AD231" s="83"/>
-      <c r="AE231" s="83"/>
-      <c r="AF231" s="83"/>
-      <c r="AG231" s="83"/>
-      <c r="AH231" s="83"/>
-      <c r="AI231" s="83"/>
-      <c r="AJ231" s="83"/>
-    </row>
-    <row r="232" spans="1:36">
-      <c r="A232" s="83" t="s">
-        <v>1503</v>
-      </c>
-      <c r="B232" s="83" t="s">
-        <v>1648</v>
-      </c>
-      <c r="C232" s="83" t="s">
-        <v>1960</v>
-      </c>
-      <c r="D232" s="83"/>
-      <c r="E232" s="83"/>
-      <c r="F232" s="83" t="s">
-        <v>55</v>
-      </c>
-      <c r="G232" s="83"/>
-      <c r="H232" s="83"/>
-      <c r="I232" s="83" t="s">
-        <v>1881</v>
-      </c>
-      <c r="J232" s="83"/>
-      <c r="K232" s="83" t="s">
-        <v>2032</v>
-      </c>
-      <c r="L232" s="83"/>
-      <c r="M232" s="83"/>
-      <c r="N232" s="84" t="s">
-        <v>2033</v>
-      </c>
-      <c r="O232" s="83"/>
-      <c r="P232" s="83"/>
-      <c r="Q232" s="83"/>
-      <c r="R232" s="83"/>
-      <c r="S232" s="83"/>
-      <c r="T232" s="84" t="s">
-        <v>102</v>
-      </c>
-      <c r="U232" s="83">
-        <v>3</v>
-      </c>
-      <c r="V232" s="83"/>
-      <c r="W232" s="83"/>
-      <c r="X232" s="83"/>
-      <c r="Y232" s="83"/>
-      <c r="Z232" s="83"/>
-      <c r="AA232" s="83"/>
-      <c r="AB232" s="83"/>
-      <c r="AC232" s="83"/>
-      <c r="AD232" s="83"/>
-      <c r="AE232" s="83"/>
-      <c r="AF232" s="83"/>
-      <c r="AG232" s="83"/>
-      <c r="AH232" s="83"/>
-      <c r="AI232" s="83"/>
-      <c r="AJ232" s="83"/>
-    </row>
-    <row r="233" spans="1:36">
-      <c r="A233" s="83" t="s">
-        <v>33</v>
-      </c>
-      <c r="B233" s="83"/>
-      <c r="C233" s="83"/>
-      <c r="D233" s="83"/>
-      <c r="E233" s="83"/>
-      <c r="F233" s="83"/>
-      <c r="G233" s="83"/>
-      <c r="H233" s="83"/>
-      <c r="I233" s="83"/>
-      <c r="J233" s="83"/>
-      <c r="K233" s="83"/>
-      <c r="L233" s="83"/>
-      <c r="M233" s="83"/>
-      <c r="N233" s="83"/>
-      <c r="O233" s="83"/>
-      <c r="P233" s="83"/>
-      <c r="Q233" s="83"/>
-      <c r="R233" s="83"/>
-      <c r="S233" s="83"/>
-      <c r="T233" s="83"/>
-      <c r="U233" s="83"/>
-      <c r="V233" s="83"/>
-      <c r="W233" s="83"/>
-      <c r="X233" s="83"/>
-      <c r="Y233" s="83"/>
-      <c r="Z233" s="83"/>
-      <c r="AA233" s="83"/>
-      <c r="AB233" s="83"/>
-      <c r="AC233" s="83"/>
-      <c r="AD233" s="83"/>
-      <c r="AE233" s="83"/>
-      <c r="AF233" s="83"/>
-      <c r="AG233" s="83"/>
-      <c r="AH233" s="83"/>
-      <c r="AI233" s="83"/>
-      <c r="AJ233" s="83"/>
-    </row>
-    <row r="234" spans="1:36">
-      <c r="A234" s="85" t="s">
-        <v>29</v>
-      </c>
-      <c r="B234" s="85"/>
-      <c r="C234" s="85" t="s">
-        <v>1914</v>
-      </c>
-      <c r="D234" s="85"/>
-      <c r="E234" s="85"/>
-      <c r="F234" s="85"/>
-      <c r="G234" s="85"/>
-      <c r="H234" s="85"/>
-      <c r="I234" s="85"/>
-      <c r="J234" s="85"/>
-      <c r="K234" s="85"/>
-      <c r="L234" s="85"/>
-      <c r="M234" s="85"/>
-      <c r="N234" s="85"/>
-      <c r="O234" s="85"/>
-      <c r="P234" s="85"/>
-      <c r="Q234" s="85"/>
-      <c r="R234" s="85"/>
-      <c r="S234" s="85"/>
-      <c r="T234" s="85"/>
-      <c r="U234" s="85"/>
-      <c r="V234" s="85"/>
-      <c r="W234" s="85"/>
-      <c r="X234" s="85"/>
-      <c r="Y234" s="85"/>
-      <c r="Z234" s="85"/>
-      <c r="AA234" s="85"/>
-      <c r="AB234" s="85"/>
-      <c r="AC234" s="85"/>
-      <c r="AD234" s="85"/>
-      <c r="AE234" s="85"/>
-      <c r="AF234" s="85"/>
-      <c r="AG234" s="85"/>
-      <c r="AH234" s="85"/>
-      <c r="AI234" s="85"/>
-      <c r="AJ234" s="85"/>
+      <c r="U234" s="87"/>
+      <c r="V234" s="87"/>
+      <c r="W234" s="87"/>
+      <c r="X234" s="87"/>
+      <c r="Y234" s="87"/>
+      <c r="Z234" s="87"/>
+      <c r="AA234" s="87"/>
+      <c r="AB234" s="87"/>
+      <c r="AC234" s="87"/>
+      <c r="AD234" s="87"/>
+      <c r="AE234" s="87"/>
+      <c r="AF234" s="87"/>
+      <c r="AG234" s="87"/>
+      <c r="AH234" s="87"/>
+      <c r="AI234" s="87"/>
+      <c r="AJ234" s="87"/>
     </row>
     <row r="235" spans="1:36">
-      <c r="A235" s="86"/>
-      <c r="B235" s="86"/>
-      <c r="C235" s="86"/>
-      <c r="D235" s="86"/>
-      <c r="E235" s="86"/>
-      <c r="F235" s="86"/>
-      <c r="G235" s="86"/>
-      <c r="H235" s="86"/>
-      <c r="I235" s="86"/>
-      <c r="J235" s="86"/>
-      <c r="K235" s="86"/>
-      <c r="L235" s="86"/>
-      <c r="M235" s="86"/>
-      <c r="N235" s="86"/>
-      <c r="O235" s="86"/>
-      <c r="P235" s="86"/>
-      <c r="Q235" s="86"/>
-      <c r="R235" s="86"/>
-      <c r="S235" s="86"/>
-      <c r="T235" s="86"/>
-      <c r="U235" s="86"/>
-      <c r="V235" s="86"/>
-      <c r="W235" s="86"/>
-      <c r="X235" s="86"/>
-      <c r="Y235" s="86"/>
-      <c r="Z235" s="86"/>
-      <c r="AA235" s="86"/>
-      <c r="AB235" s="86"/>
-      <c r="AC235" s="86"/>
-      <c r="AD235" s="86"/>
-      <c r="AE235" s="86"/>
-      <c r="AF235" s="86"/>
-      <c r="AG235" s="86"/>
-      <c r="AH235" s="86"/>
-      <c r="AI235" s="86"/>
-      <c r="AJ235" s="86"/>
-    </row>
-    <row r="236" spans="1:36">
-      <c r="A236" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="B236" s="87" t="s">
-        <v>2235</v>
-      </c>
-      <c r="C236" s="87" t="s">
-        <v>2236</v>
-      </c>
-      <c r="D236" s="87"/>
-      <c r="E236" s="87"/>
-      <c r="F236" s="87" t="s">
-        <v>79</v>
-      </c>
-      <c r="G236" s="87"/>
-      <c r="H236" s="87"/>
-      <c r="I236" s="87"/>
-      <c r="J236" s="87"/>
-      <c r="K236" s="87"/>
-      <c r="L236" s="87"/>
-      <c r="M236" s="87"/>
-      <c r="N236" s="67" t="s">
-        <v>2237</v>
-      </c>
-      <c r="O236" s="87"/>
-      <c r="P236" s="87"/>
-      <c r="Q236" s="87"/>
-      <c r="R236" s="87"/>
-      <c r="S236" s="87"/>
-      <c r="T236" s="87"/>
-      <c r="U236" s="87"/>
-      <c r="V236" s="87"/>
-      <c r="W236" s="87"/>
-      <c r="X236" s="87"/>
-      <c r="Y236" s="87"/>
-      <c r="Z236" s="87"/>
-      <c r="AA236" s="87"/>
-      <c r="AB236" s="87"/>
-      <c r="AC236" s="87"/>
-      <c r="AD236" s="87"/>
-      <c r="AE236" s="87"/>
-      <c r="AF236" s="87"/>
-      <c r="AG236" s="87"/>
-      <c r="AH236" s="87"/>
-      <c r="AI236" s="87"/>
-      <c r="AJ236" s="87"/>
-    </row>
-    <row r="237" spans="1:36">
-      <c r="A237" s="87" t="s">
-        <v>2337</v>
-      </c>
-      <c r="B237" s="87" t="s">
-        <v>2316</v>
-      </c>
-      <c r="C237" s="87" t="s">
-        <v>2334</v>
-      </c>
-      <c r="D237" s="87"/>
-      <c r="E237" s="87"/>
-      <c r="F237" s="87"/>
-      <c r="G237" s="87"/>
-      <c r="H237" s="87"/>
-      <c r="I237" s="87"/>
-      <c r="J237" s="87"/>
-      <c r="K237" s="87"/>
-      <c r="L237" s="87"/>
-      <c r="M237" s="87"/>
+      <c r="A235" s="87" t="s">
+        <v>2329</v>
+      </c>
+      <c r="B235" s="87" t="s">
+        <v>2310</v>
+      </c>
+      <c r="C235" s="87" t="s">
+        <v>2327</v>
+      </c>
+      <c r="D235" s="87"/>
+      <c r="E235" s="87"/>
+      <c r="F235" s="87"/>
+      <c r="G235" s="87"/>
+      <c r="H235" s="87"/>
+      <c r="I235" s="87"/>
+      <c r="J235" s="87"/>
+      <c r="K235" s="87"/>
+      <c r="L235" s="87"/>
+      <c r="M235" s="87"/>
+      <c r="N235" s="67"/>
+      <c r="O235" s="87"/>
+      <c r="P235" s="87"/>
+      <c r="Q235" s="87"/>
+      <c r="R235" s="87"/>
+      <c r="S235" s="87"/>
+      <c r="T235" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="U235" s="87"/>
+      <c r="V235" s="87"/>
+      <c r="W235" s="87"/>
+      <c r="X235" s="87"/>
+      <c r="Y235" s="87"/>
+      <c r="Z235" s="87"/>
+      <c r="AA235" s="87"/>
+      <c r="AB235" s="87"/>
+      <c r="AC235" s="87"/>
+      <c r="AD235" s="87"/>
+      <c r="AE235" s="87"/>
+      <c r="AF235" s="87"/>
+      <c r="AG235" s="87"/>
+      <c r="AH235" s="87"/>
+      <c r="AI235" s="87"/>
+      <c r="AJ235" s="87"/>
+    </row>
+    <row r="236" spans="1:36" s="61" customFormat="1">
+      <c r="A236" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="B236" s="67" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C236" s="67" t="s">
+        <v>2119</v>
+      </c>
+      <c r="D236" s="67"/>
+      <c r="E236" s="67"/>
+      <c r="F236" s="67"/>
+      <c r="G236" s="67"/>
+      <c r="H236" s="67"/>
+      <c r="I236" s="67"/>
+      <c r="J236" s="67"/>
+      <c r="K236" s="67"/>
+      <c r="L236" s="67"/>
+      <c r="M236" s="67"/>
+      <c r="N236" s="67"/>
+      <c r="O236" s="67"/>
+      <c r="P236" s="67"/>
+      <c r="Q236" s="67"/>
+      <c r="R236" s="67"/>
+      <c r="S236" s="67"/>
+      <c r="T236" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="U236" s="67"/>
+      <c r="V236" s="67"/>
+      <c r="W236" s="67"/>
+      <c r="X236" s="67"/>
+      <c r="Y236" s="67"/>
+      <c r="Z236" s="67"/>
+      <c r="AA236" s="67"/>
+      <c r="AB236" s="67"/>
+      <c r="AC236" s="67"/>
+      <c r="AD236" s="67"/>
+      <c r="AE236" s="67"/>
+      <c r="AF236" s="67"/>
+      <c r="AG236" s="67"/>
+      <c r="AH236" s="67"/>
+      <c r="AI236" s="67"/>
+      <c r="AJ236" s="67"/>
+    </row>
+    <row r="237" spans="1:36" s="61" customFormat="1">
+      <c r="A237" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="B237" s="67" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C237" s="67" t="s">
+        <v>2120</v>
+      </c>
+      <c r="D237" s="67"/>
+      <c r="E237" s="67"/>
+      <c r="F237" s="67"/>
+      <c r="G237" s="67"/>
+      <c r="H237" s="67"/>
+      <c r="I237" s="67"/>
+      <c r="J237" s="67"/>
+      <c r="K237" s="67"/>
+      <c r="L237" s="67"/>
+      <c r="M237" s="67"/>
       <c r="N237" s="67"/>
-      <c r="O237" s="87"/>
-      <c r="P237" s="87"/>
-      <c r="Q237" s="87"/>
-      <c r="R237" s="87"/>
-      <c r="S237" s="87"/>
-      <c r="T237" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="U237" s="87"/>
-      <c r="V237" s="87"/>
-      <c r="W237" s="87"/>
-      <c r="X237" s="87"/>
-      <c r="Y237" s="87"/>
-      <c r="Z237" s="87"/>
-      <c r="AA237" s="87"/>
-      <c r="AB237" s="87"/>
-      <c r="AC237" s="87"/>
-      <c r="AD237" s="87"/>
-      <c r="AE237" s="87"/>
-      <c r="AF237" s="87"/>
-      <c r="AG237" s="87"/>
-      <c r="AH237" s="87"/>
-      <c r="AI237" s="87"/>
-      <c r="AJ237" s="87"/>
-    </row>
-    <row r="238" spans="1:36">
-      <c r="A238" s="87" t="s">
-        <v>2337</v>
-      </c>
-      <c r="B238" s="87" t="s">
-        <v>2318</v>
-      </c>
-      <c r="C238" s="87" t="s">
-        <v>2335</v>
-      </c>
-      <c r="D238" s="87"/>
-      <c r="E238" s="87"/>
-      <c r="F238" s="87"/>
-      <c r="G238" s="87"/>
-      <c r="H238" s="87"/>
-      <c r="I238" s="87"/>
-      <c r="J238" s="87"/>
-      <c r="K238" s="87"/>
-      <c r="L238" s="87"/>
-      <c r="M238" s="87"/>
+      <c r="O237" s="67"/>
+      <c r="P237" s="67"/>
+      <c r="Q237" s="67"/>
+      <c r="R237" s="67"/>
+      <c r="S237" s="67"/>
+      <c r="T237" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="U237" s="67"/>
+      <c r="V237" s="67"/>
+      <c r="W237" s="67"/>
+      <c r="X237" s="67"/>
+      <c r="Y237" s="67"/>
+      <c r="Z237" s="67"/>
+      <c r="AA237" s="67"/>
+      <c r="AB237" s="67"/>
+      <c r="AC237" s="67"/>
+      <c r="AD237" s="67"/>
+      <c r="AE237" s="67"/>
+      <c r="AF237" s="67"/>
+      <c r="AG237" s="67"/>
+      <c r="AH237" s="67"/>
+      <c r="AI237" s="67"/>
+      <c r="AJ237" s="67"/>
+    </row>
+    <row r="238" spans="1:36" s="88" customFormat="1">
+      <c r="A238" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B238" s="67" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C238" s="67" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D238" s="67"/>
+      <c r="E238" s="67"/>
+      <c r="F238" s="67"/>
+      <c r="G238" s="67"/>
+      <c r="H238" s="67"/>
+      <c r="I238" s="67"/>
+      <c r="J238" s="67"/>
+      <c r="K238" s="67"/>
+      <c r="L238" s="67"/>
+      <c r="M238" s="67"/>
       <c r="N238" s="67"/>
-      <c r="O238" s="87"/>
-      <c r="P238" s="87"/>
-      <c r="Q238" s="87"/>
-      <c r="R238" s="87"/>
-      <c r="S238" s="87"/>
-      <c r="T238" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="U238" s="87"/>
-      <c r="V238" s="87"/>
-      <c r="W238" s="87"/>
-      <c r="X238" s="87"/>
-      <c r="Y238" s="87"/>
-      <c r="Z238" s="87"/>
-      <c r="AA238" s="87"/>
-      <c r="AB238" s="87"/>
-      <c r="AC238" s="87"/>
-      <c r="AD238" s="87"/>
-      <c r="AE238" s="87"/>
-      <c r="AF238" s="87"/>
-      <c r="AG238" s="87"/>
-      <c r="AH238" s="87"/>
-      <c r="AI238" s="87"/>
-      <c r="AJ238" s="87"/>
-    </row>
-    <row r="239" spans="1:36" s="61" customFormat="1">
+      <c r="O238" s="67"/>
+      <c r="P238" s="67"/>
+      <c r="Q238" s="67"/>
+      <c r="R238" s="67"/>
+      <c r="S238" s="67"/>
+      <c r="T238" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="U238" s="67"/>
+      <c r="V238" s="67"/>
+      <c r="W238" s="67"/>
+      <c r="X238" s="67"/>
+      <c r="Y238" s="67"/>
+      <c r="Z238" s="67"/>
+      <c r="AA238" s="67"/>
+      <c r="AB238" s="67"/>
+      <c r="AC238" s="67"/>
+      <c r="AD238" s="67"/>
+      <c r="AE238" s="67"/>
+      <c r="AF238" s="67"/>
+      <c r="AG238" s="67"/>
+      <c r="AH238" s="67"/>
+      <c r="AI238" s="67"/>
+      <c r="AJ238" s="67"/>
+    </row>
+    <row r="239" spans="1:36">
       <c r="A239" s="67" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B239" s="67" t="s">
-        <v>1610</v>
+        <v>1614</v>
       </c>
       <c r="C239" s="67" t="s">
-        <v>2125</v>
+        <v>1615</v>
       </c>
       <c r="D239" s="67"/>
       <c r="E239" s="67"/>
@@ -19276,7 +19263,7 @@
       <c r="R239" s="67"/>
       <c r="S239" s="67"/>
       <c r="T239" s="67" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="U239" s="67"/>
       <c r="V239" s="67"/>
@@ -19295,111 +19282,113 @@
       <c r="AI239" s="67"/>
       <c r="AJ239" s="67"/>
     </row>
-    <row r="240" spans="1:36" s="61" customFormat="1">
-      <c r="A240" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="B240" s="67" t="s">
-        <v>1611</v>
-      </c>
-      <c r="C240" s="67" t="s">
-        <v>2126</v>
-      </c>
-      <c r="D240" s="67"/>
-      <c r="E240" s="67"/>
-      <c r="F240" s="67"/>
-      <c r="G240" s="67"/>
-      <c r="H240" s="67"/>
-      <c r="I240" s="67"/>
-      <c r="J240" s="67"/>
-      <c r="K240" s="67"/>
-      <c r="L240" s="67"/>
-      <c r="M240" s="67"/>
+    <row r="240" spans="1:36">
+      <c r="A240" s="87" t="s">
+        <v>2329</v>
+      </c>
+      <c r="B240" s="87" t="s">
+        <v>2311</v>
+      </c>
+      <c r="C240" s="87" t="s">
+        <v>2328</v>
+      </c>
+      <c r="D240" s="87"/>
+      <c r="E240" s="87"/>
+      <c r="F240" s="87"/>
+      <c r="G240" s="87"/>
+      <c r="H240" s="87"/>
+      <c r="I240" s="87"/>
+      <c r="J240" s="87"/>
+      <c r="K240" s="87"/>
+      <c r="L240" s="87"/>
+      <c r="M240" s="87"/>
       <c r="N240" s="67"/>
-      <c r="O240" s="67"/>
-      <c r="P240" s="67"/>
-      <c r="Q240" s="67"/>
-      <c r="R240" s="67"/>
-      <c r="S240" s="67"/>
-      <c r="T240" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="U240" s="67"/>
-      <c r="V240" s="67"/>
-      <c r="W240" s="67"/>
-      <c r="X240" s="67"/>
-      <c r="Y240" s="67"/>
-      <c r="Z240" s="67"/>
-      <c r="AA240" s="67"/>
-      <c r="AB240" s="67"/>
-      <c r="AC240" s="67"/>
-      <c r="AD240" s="67"/>
-      <c r="AE240" s="67"/>
-      <c r="AF240" s="67"/>
-      <c r="AG240" s="67"/>
-      <c r="AH240" s="67"/>
-      <c r="AI240" s="67"/>
-      <c r="AJ240" s="67"/>
-    </row>
-    <row r="241" spans="1:36" s="88" customFormat="1">
-      <c r="A241" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="B241" s="67" t="s">
-        <v>1612</v>
-      </c>
-      <c r="C241" s="67" t="s">
-        <v>1613</v>
-      </c>
-      <c r="D241" s="67"/>
-      <c r="E241" s="67"/>
-      <c r="F241" s="67"/>
-      <c r="G241" s="67"/>
-      <c r="H241" s="67"/>
-      <c r="I241" s="67"/>
-      <c r="J241" s="67"/>
-      <c r="K241" s="67"/>
-      <c r="L241" s="67"/>
-      <c r="M241" s="67"/>
+      <c r="O240" s="87"/>
+      <c r="P240" s="87"/>
+      <c r="Q240" s="87"/>
+      <c r="R240" s="87"/>
+      <c r="S240" s="87"/>
+      <c r="T240" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="U240" s="87"/>
+      <c r="V240" s="87"/>
+      <c r="W240" s="87"/>
+      <c r="X240" s="87"/>
+      <c r="Y240" s="87"/>
+      <c r="Z240" s="87"/>
+      <c r="AA240" s="87"/>
+      <c r="AB240" s="87"/>
+      <c r="AC240" s="87"/>
+      <c r="AD240" s="87"/>
+      <c r="AE240" s="87"/>
+      <c r="AF240" s="87"/>
+      <c r="AG240" s="87"/>
+      <c r="AH240" s="87"/>
+      <c r="AI240" s="87"/>
+      <c r="AJ240" s="87"/>
+    </row>
+    <row r="241" spans="1:36">
+      <c r="A241" s="87" t="s">
+        <v>2329</v>
+      </c>
+      <c r="B241" s="87" t="s">
+        <v>2325</v>
+      </c>
+      <c r="C241" s="87" t="s">
+        <v>2331</v>
+      </c>
+      <c r="D241" s="87"/>
+      <c r="E241" s="87"/>
+      <c r="F241" s="87"/>
+      <c r="G241" s="87"/>
+      <c r="H241" s="87"/>
+      <c r="I241" s="87"/>
+      <c r="J241" s="87"/>
+      <c r="K241" s="87"/>
+      <c r="L241" s="87"/>
+      <c r="M241" s="87"/>
       <c r="N241" s="67"/>
-      <c r="O241" s="67"/>
-      <c r="P241" s="67"/>
-      <c r="Q241" s="67"/>
-      <c r="R241" s="67"/>
-      <c r="S241" s="67"/>
-      <c r="T241" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="U241" s="67"/>
-      <c r="V241" s="67"/>
-      <c r="W241" s="67"/>
-      <c r="X241" s="67"/>
-      <c r="Y241" s="67"/>
-      <c r="Z241" s="67"/>
-      <c r="AA241" s="67"/>
-      <c r="AB241" s="67"/>
-      <c r="AC241" s="67"/>
-      <c r="AD241" s="67"/>
-      <c r="AE241" s="67"/>
-      <c r="AF241" s="67"/>
-      <c r="AG241" s="67"/>
-      <c r="AH241" s="67"/>
-      <c r="AI241" s="67"/>
-      <c r="AJ241" s="67"/>
+      <c r="O241" s="87"/>
+      <c r="P241" s="87"/>
+      <c r="Q241" s="87"/>
+      <c r="R241" s="87"/>
+      <c r="S241" s="87"/>
+      <c r="T241" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="U241" s="87"/>
+      <c r="V241" s="87"/>
+      <c r="W241" s="87"/>
+      <c r="X241" s="87"/>
+      <c r="Y241" s="87"/>
+      <c r="Z241" s="87"/>
+      <c r="AA241" s="87"/>
+      <c r="AB241" s="87"/>
+      <c r="AC241" s="87"/>
+      <c r="AD241" s="87"/>
+      <c r="AE241" s="87"/>
+      <c r="AF241" s="87"/>
+      <c r="AG241" s="87"/>
+      <c r="AH241" s="87"/>
+      <c r="AI241" s="87"/>
+      <c r="AJ241" s="87"/>
     </row>
     <row r="242" spans="1:36">
       <c r="A242" s="67" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B242" s="67" t="s">
-        <v>1614</v>
+        <v>1967</v>
       </c>
       <c r="C242" s="67" t="s">
-        <v>1615</v>
+        <v>1968</v>
       </c>
       <c r="D242" s="67"/>
       <c r="E242" s="67"/>
-      <c r="F242" s="67"/>
+      <c r="F242" s="67" t="s">
+        <v>60</v>
+      </c>
       <c r="G242" s="67"/>
       <c r="H242" s="67"/>
       <c r="I242" s="67"/>
@@ -19413,13 +19402,15 @@
       <c r="Q242" s="67"/>
       <c r="R242" s="67"/>
       <c r="S242" s="67"/>
-      <c r="T242" s="67" t="s">
-        <v>96</v>
-      </c>
+      <c r="T242" s="67"/>
       <c r="U242" s="67"/>
       <c r="V242" s="67"/>
-      <c r="W242" s="67"/>
-      <c r="X242" s="67"/>
+      <c r="W242" s="67" t="s">
+        <v>1969</v>
+      </c>
+      <c r="X242" s="67" t="s">
+        <v>1963</v>
+      </c>
       <c r="Y242" s="67"/>
       <c r="Z242" s="67"/>
       <c r="AA242" s="67"/>
@@ -19434,156 +19425,158 @@
       <c r="AJ242" s="67"/>
     </row>
     <row r="243" spans="1:36">
-      <c r="A243" s="87" t="s">
-        <v>2337</v>
-      </c>
-      <c r="B243" s="87" t="s">
-        <v>2319</v>
-      </c>
-      <c r="C243" s="87" t="s">
-        <v>2336</v>
-      </c>
-      <c r="D243" s="87"/>
-      <c r="E243" s="87"/>
-      <c r="F243" s="87"/>
-      <c r="G243" s="87"/>
-      <c r="H243" s="87"/>
-      <c r="I243" s="87"/>
-      <c r="J243" s="87"/>
-      <c r="K243" s="87"/>
-      <c r="L243" s="87"/>
-      <c r="M243" s="87"/>
+      <c r="A243" s="67" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B243" s="67" t="s">
+        <v>1966</v>
+      </c>
+      <c r="C243" s="67" t="s">
+        <v>2308</v>
+      </c>
+      <c r="D243" s="67"/>
+      <c r="E243" s="67"/>
+      <c r="F243" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="G243" s="67"/>
+      <c r="H243" s="67"/>
+      <c r="I243" s="67"/>
+      <c r="J243" s="67"/>
+      <c r="K243" s="67"/>
+      <c r="L243" s="67"/>
+      <c r="M243" s="67"/>
       <c r="N243" s="67"/>
-      <c r="O243" s="87"/>
-      <c r="P243" s="87"/>
-      <c r="Q243" s="87"/>
-      <c r="R243" s="87"/>
-      <c r="S243" s="87"/>
-      <c r="T243" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="U243" s="87"/>
-      <c r="V243" s="87"/>
-      <c r="W243" s="87"/>
-      <c r="X243" s="87"/>
-      <c r="Y243" s="87"/>
-      <c r="Z243" s="87"/>
-      <c r="AA243" s="87"/>
-      <c r="AB243" s="87"/>
-      <c r="AC243" s="87"/>
-      <c r="AD243" s="87"/>
-      <c r="AE243" s="87"/>
-      <c r="AF243" s="87"/>
-      <c r="AG243" s="87"/>
-      <c r="AH243" s="87"/>
-      <c r="AI243" s="87"/>
-      <c r="AJ243" s="87"/>
+      <c r="O243" s="67"/>
+      <c r="P243" s="67"/>
+      <c r="Q243" s="67"/>
+      <c r="R243" s="67"/>
+      <c r="S243" s="67"/>
+      <c r="T243" s="67"/>
+      <c r="U243" s="67"/>
+      <c r="V243" s="67"/>
+      <c r="W243" s="67"/>
+      <c r="X243" s="67" t="s">
+        <v>1963</v>
+      </c>
+      <c r="Y243" s="67"/>
+      <c r="Z243" s="67"/>
+      <c r="AA243" s="67"/>
+      <c r="AB243" s="67"/>
+      <c r="AC243" s="67"/>
+      <c r="AD243" s="67"/>
+      <c r="AE243" s="67"/>
+      <c r="AF243" s="67"/>
+      <c r="AG243" s="67"/>
+      <c r="AH243" s="67"/>
+      <c r="AI243" s="67"/>
+      <c r="AJ243" s="67"/>
     </row>
     <row r="244" spans="1:36">
-      <c r="A244" s="87" t="s">
-        <v>2337</v>
-      </c>
-      <c r="B244" s="87" t="s">
-        <v>2333</v>
-      </c>
-      <c r="C244" s="87" t="s">
-        <v>2339</v>
-      </c>
-      <c r="D244" s="87"/>
-      <c r="E244" s="87"/>
-      <c r="F244" s="87"/>
-      <c r="G244" s="87"/>
-      <c r="H244" s="87"/>
-      <c r="I244" s="87"/>
-      <c r="J244" s="87"/>
-      <c r="K244" s="87"/>
-      <c r="L244" s="87"/>
-      <c r="M244" s="87"/>
-      <c r="N244" s="67"/>
-      <c r="O244" s="87"/>
-      <c r="P244" s="87"/>
-      <c r="Q244" s="87"/>
-      <c r="R244" s="87"/>
-      <c r="S244" s="87"/>
-      <c r="T244" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="U244" s="87"/>
-      <c r="V244" s="87"/>
-      <c r="W244" s="87"/>
-      <c r="X244" s="87"/>
-      <c r="Y244" s="87"/>
-      <c r="Z244" s="87"/>
-      <c r="AA244" s="87"/>
-      <c r="AB244" s="87"/>
-      <c r="AC244" s="87"/>
-      <c r="AD244" s="87"/>
-      <c r="AE244" s="87"/>
-      <c r="AF244" s="87"/>
-      <c r="AG244" s="87"/>
-      <c r="AH244" s="87"/>
-      <c r="AI244" s="87"/>
-      <c r="AJ244" s="87"/>
+      <c r="A244" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="B244" s="89" t="s">
+        <v>2233</v>
+      </c>
+      <c r="C244" s="89" t="s">
+        <v>2231</v>
+      </c>
+      <c r="D244" s="89"/>
+      <c r="E244" s="89"/>
+      <c r="F244" s="89"/>
+      <c r="G244" s="89"/>
+      <c r="H244" s="89"/>
+      <c r="I244" s="89"/>
+      <c r="J244" s="89"/>
+      <c r="K244" s="89"/>
+      <c r="L244" s="89"/>
+      <c r="M244" s="89"/>
+      <c r="N244" s="67" t="s">
+        <v>1913</v>
+      </c>
+      <c r="O244" s="89"/>
+      <c r="P244" s="89"/>
+      <c r="Q244" s="89"/>
+      <c r="R244" s="89"/>
+      <c r="S244" s="67"/>
+      <c r="T244" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="U244" s="89"/>
+      <c r="V244" s="89"/>
+      <c r="W244" s="89"/>
+      <c r="X244" s="89"/>
+      <c r="Y244" s="89"/>
+      <c r="Z244" s="89"/>
+      <c r="AA244" s="89"/>
+      <c r="AB244" s="89"/>
+      <c r="AC244" s="89"/>
+      <c r="AD244" s="89"/>
+      <c r="AE244" s="89"/>
+      <c r="AF244" s="89"/>
+      <c r="AG244" s="89"/>
+      <c r="AH244" s="89"/>
+      <c r="AI244" s="89"/>
+      <c r="AJ244" s="89"/>
     </row>
     <row r="245" spans="1:36">
-      <c r="A245" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="B245" s="67" t="s">
-        <v>1968</v>
-      </c>
-      <c r="C245" s="67" t="s">
-        <v>1969</v>
-      </c>
-      <c r="D245" s="67"/>
-      <c r="E245" s="67"/>
-      <c r="F245" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="G245" s="67"/>
-      <c r="H245" s="67"/>
-      <c r="I245" s="67"/>
-      <c r="J245" s="67"/>
-      <c r="K245" s="67"/>
-      <c r="L245" s="67"/>
-      <c r="M245" s="67"/>
-      <c r="N245" s="67"/>
-      <c r="O245" s="67"/>
-      <c r="P245" s="67"/>
-      <c r="Q245" s="67"/>
-      <c r="R245" s="67"/>
-      <c r="S245" s="67"/>
-      <c r="T245" s="67"/>
-      <c r="U245" s="67"/>
-      <c r="V245" s="67"/>
-      <c r="W245" s="67" t="s">
-        <v>1970</v>
-      </c>
-      <c r="X245" s="67" t="s">
-        <v>1964</v>
-      </c>
-      <c r="Y245" s="67"/>
-      <c r="Z245" s="67"/>
-      <c r="AA245" s="67"/>
-      <c r="AB245" s="67"/>
-      <c r="AC245" s="67"/>
-      <c r="AD245" s="67"/>
-      <c r="AE245" s="67"/>
-      <c r="AF245" s="67"/>
-      <c r="AG245" s="67"/>
-      <c r="AH245" s="67"/>
-      <c r="AI245" s="67"/>
-      <c r="AJ245" s="67"/>
+      <c r="A245" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="B245" s="89" t="s">
+        <v>2234</v>
+      </c>
+      <c r="C245" s="89" t="s">
+        <v>2232</v>
+      </c>
+      <c r="D245" s="89"/>
+      <c r="E245" s="89"/>
+      <c r="F245" s="89"/>
+      <c r="G245" s="89"/>
+      <c r="H245" s="89"/>
+      <c r="I245" s="89"/>
+      <c r="J245" s="89"/>
+      <c r="K245" s="89"/>
+      <c r="L245" s="89"/>
+      <c r="M245" s="89"/>
+      <c r="N245" s="67" t="s">
+        <v>1913</v>
+      </c>
+      <c r="O245" s="89"/>
+      <c r="P245" s="89"/>
+      <c r="Q245" s="89"/>
+      <c r="R245" s="89"/>
+      <c r="S245" s="89"/>
+      <c r="T245" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="U245" s="89"/>
+      <c r="V245" s="89"/>
+      <c r="W245" s="89"/>
+      <c r="X245" s="89"/>
+      <c r="Y245" s="89"/>
+      <c r="Z245" s="89"/>
+      <c r="AA245" s="89"/>
+      <c r="AB245" s="89"/>
+      <c r="AC245" s="89"/>
+      <c r="AD245" s="89"/>
+      <c r="AE245" s="89"/>
+      <c r="AF245" s="89"/>
+      <c r="AG245" s="89"/>
+      <c r="AH245" s="89"/>
+      <c r="AI245" s="89"/>
+      <c r="AJ245" s="89"/>
     </row>
     <row r="246" spans="1:36">
       <c r="A246" s="67" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B246" s="67" t="s">
-        <v>1967</v>
+        <v>2306</v>
       </c>
       <c r="C246" s="67" t="s">
-        <v>2315</v>
+        <v>2307</v>
       </c>
       <c r="D246" s="67"/>
       <c r="E246" s="67"/>
@@ -19597,7 +19590,9 @@
       <c r="K246" s="67"/>
       <c r="L246" s="67"/>
       <c r="M246" s="67"/>
-      <c r="N246" s="67"/>
+      <c r="N246" s="67" t="s">
+        <v>1913</v>
+      </c>
       <c r="O246" s="67"/>
       <c r="P246" s="67"/>
       <c r="Q246" s="67"/>
@@ -19608,7 +19603,7 @@
       <c r="V246" s="67"/>
       <c r="W246" s="67"/>
       <c r="X246" s="67" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="Y246" s="67"/>
       <c r="Z246" s="67"/>
@@ -19624,245 +19619,239 @@
       <c r="AJ246" s="67"/>
     </row>
     <row r="247" spans="1:36">
-      <c r="A247" s="89" t="s">
-        <v>22</v>
-      </c>
-      <c r="B247" s="89" t="s">
-        <v>2240</v>
-      </c>
-      <c r="C247" s="89" t="s">
-        <v>2238</v>
-      </c>
-      <c r="D247" s="89"/>
-      <c r="E247" s="89"/>
-      <c r="F247" s="89"/>
-      <c r="G247" s="89"/>
-      <c r="H247" s="89"/>
-      <c r="I247" s="89"/>
-      <c r="J247" s="89"/>
-      <c r="K247" s="89"/>
-      <c r="L247" s="89"/>
-      <c r="M247" s="89"/>
-      <c r="N247" s="67" t="s">
-        <v>1913</v>
-      </c>
-      <c r="O247" s="89"/>
-      <c r="P247" s="89"/>
-      <c r="Q247" s="89"/>
-      <c r="R247" s="89"/>
-      <c r="S247" s="67"/>
-      <c r="T247" s="67" t="s">
+      <c r="A247" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="B247" s="87"/>
+      <c r="C247" s="87" t="s">
+        <v>2229</v>
+      </c>
+      <c r="D247" s="87"/>
+      <c r="E247" s="87"/>
+      <c r="F247" s="87"/>
+      <c r="G247" s="87"/>
+      <c r="H247" s="87"/>
+      <c r="I247" s="87"/>
+      <c r="J247" s="87"/>
+      <c r="K247" s="87"/>
+      <c r="L247" s="87"/>
+      <c r="M247" s="87"/>
+      <c r="N247" s="87"/>
+      <c r="O247" s="87"/>
+      <c r="P247" s="87"/>
+      <c r="Q247" s="87"/>
+      <c r="R247" s="87"/>
+      <c r="S247" s="87"/>
+      <c r="T247" s="87"/>
+      <c r="U247" s="87"/>
+      <c r="V247" s="87"/>
+      <c r="W247" s="87"/>
+      <c r="X247" s="87"/>
+      <c r="Y247" s="87"/>
+      <c r="Z247" s="87"/>
+      <c r="AA247" s="87"/>
+      <c r="AB247" s="87"/>
+      <c r="AC247" s="87"/>
+      <c r="AD247" s="87"/>
+      <c r="AE247" s="87"/>
+      <c r="AF247" s="87"/>
+      <c r="AG247" s="87"/>
+      <c r="AH247" s="87"/>
+      <c r="AI247" s="87"/>
+      <c r="AJ247" s="87"/>
+    </row>
+    <row r="248" spans="1:36" s="67" customFormat="1">
+      <c r="A248" s="73"/>
+      <c r="B248" s="73"/>
+      <c r="C248" s="73"/>
+      <c r="D248" s="74"/>
+      <c r="E248" s="74"/>
+      <c r="F248" s="74"/>
+      <c r="G248" s="74"/>
+      <c r="H248" s="74"/>
+      <c r="I248" s="74"/>
+      <c r="J248" s="74"/>
+      <c r="K248" s="74"/>
+      <c r="L248" s="74"/>
+      <c r="M248" s="74"/>
+      <c r="N248" s="74"/>
+      <c r="O248" s="74"/>
+      <c r="P248" s="74"/>
+      <c r="Q248" s="74"/>
+      <c r="R248" s="74"/>
+      <c r="S248" s="74"/>
+      <c r="T248" s="74"/>
+      <c r="U248" s="74"/>
+      <c r="V248" s="74"/>
+      <c r="W248" s="74"/>
+      <c r="X248" s="74"/>
+      <c r="Y248" s="74"/>
+      <c r="Z248" s="74"/>
+      <c r="AA248" s="74"/>
+      <c r="AB248" s="74"/>
+      <c r="AC248" s="74"/>
+      <c r="AD248" s="74"/>
+      <c r="AE248" s="74"/>
+      <c r="AF248" s="74"/>
+      <c r="AG248" s="74"/>
+      <c r="AH248" s="74"/>
+      <c r="AI248" s="74"/>
+      <c r="AJ248" s="74"/>
+    </row>
+    <row r="249" spans="1:36" s="67" customFormat="1">
+      <c r="A249" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="B249" s="66" t="s">
+        <v>2263</v>
+      </c>
+      <c r="C249" s="66" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D249" s="66"/>
+      <c r="E249" s="66"/>
+      <c r="F249" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="G249" s="66"/>
+      <c r="H249" s="66"/>
+      <c r="I249" s="66"/>
+      <c r="J249" s="66"/>
+      <c r="K249" s="66"/>
+      <c r="L249" s="66"/>
+      <c r="M249" s="66"/>
+      <c r="N249" s="66" t="s">
+        <v>1898</v>
+      </c>
+      <c r="O249" s="66"/>
+      <c r="P249" s="66"/>
+      <c r="Q249" s="66"/>
+      <c r="R249" s="66"/>
+      <c r="S249" s="66"/>
+      <c r="T249" s="66"/>
+      <c r="U249" s="66"/>
+      <c r="V249" s="66"/>
+      <c r="W249" s="66"/>
+      <c r="X249" s="66"/>
+      <c r="Y249" s="66"/>
+      <c r="Z249" s="66"/>
+      <c r="AA249" s="66"/>
+      <c r="AB249" s="66"/>
+      <c r="AC249" s="66"/>
+      <c r="AD249" s="66"/>
+      <c r="AE249" s="66"/>
+      <c r="AF249" s="66"/>
+      <c r="AG249" s="66"/>
+      <c r="AH249" s="66"/>
+      <c r="AI249" s="66"/>
+      <c r="AJ249" s="66"/>
+    </row>
+    <row r="250" spans="1:36" s="61" customFormat="1">
+      <c r="A250" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="B250" s="66" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C250" s="66" t="s">
+        <v>2144</v>
+      </c>
+      <c r="D250" s="66"/>
+      <c r="E250" s="66"/>
+      <c r="F250" s="66"/>
+      <c r="G250" s="66"/>
+      <c r="H250" s="66"/>
+      <c r="I250" s="66"/>
+      <c r="J250" s="66"/>
+      <c r="K250" s="66"/>
+      <c r="L250" s="66"/>
+      <c r="M250" s="66"/>
+      <c r="N250" s="66"/>
+      <c r="O250" s="66"/>
+      <c r="P250" s="66"/>
+      <c r="Q250" s="66"/>
+      <c r="R250" s="66"/>
+      <c r="S250" s="66"/>
+      <c r="T250" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="U247" s="89"/>
-      <c r="V247" s="89"/>
-      <c r="W247" s="89"/>
-      <c r="X247" s="89"/>
-      <c r="Y247" s="89"/>
-      <c r="Z247" s="89"/>
-      <c r="AA247" s="89"/>
-      <c r="AB247" s="89"/>
-      <c r="AC247" s="89"/>
-      <c r="AD247" s="89"/>
-      <c r="AE247" s="89"/>
-      <c r="AF247" s="89"/>
-      <c r="AG247" s="89"/>
-      <c r="AH247" s="89"/>
-      <c r="AI247" s="89"/>
-      <c r="AJ247" s="89"/>
-    </row>
-    <row r="248" spans="1:36">
-      <c r="A248" s="89" t="s">
-        <v>22</v>
-      </c>
-      <c r="B248" s="89" t="s">
-        <v>2241</v>
-      </c>
-      <c r="C248" s="89" t="s">
-        <v>2239</v>
-      </c>
-      <c r="D248" s="89"/>
-      <c r="E248" s="89"/>
-      <c r="F248" s="89"/>
-      <c r="G248" s="89"/>
-      <c r="H248" s="89"/>
-      <c r="I248" s="89"/>
-      <c r="J248" s="89"/>
-      <c r="K248" s="89"/>
-      <c r="L248" s="89"/>
-      <c r="M248" s="89"/>
-      <c r="N248" s="67" t="s">
-        <v>1913</v>
-      </c>
-      <c r="O248" s="89"/>
-      <c r="P248" s="89"/>
-      <c r="Q248" s="89"/>
-      <c r="R248" s="89"/>
-      <c r="S248" s="89"/>
-      <c r="T248" s="67" t="s">
+      <c r="U250" s="66"/>
+      <c r="V250" s="66"/>
+      <c r="W250" s="66"/>
+      <c r="X250" s="66"/>
+      <c r="Y250" s="66"/>
+      <c r="Z250" s="66"/>
+      <c r="AA250" s="66"/>
+      <c r="AB250" s="66"/>
+      <c r="AC250" s="66"/>
+      <c r="AD250" s="66"/>
+      <c r="AE250" s="66"/>
+      <c r="AF250" s="66"/>
+      <c r="AG250" s="66"/>
+      <c r="AH250" s="66"/>
+      <c r="AI250" s="66"/>
+      <c r="AJ250" s="66"/>
+    </row>
+    <row r="251" spans="1:36" s="61" customFormat="1">
+      <c r="A251" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="B251" s="66" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C251" s="66" t="s">
+        <v>2143</v>
+      </c>
+      <c r="D251" s="66"/>
+      <c r="E251" s="66"/>
+      <c r="F251" s="66"/>
+      <c r="G251" s="66"/>
+      <c r="H251" s="66"/>
+      <c r="I251" s="66"/>
+      <c r="J251" s="66"/>
+      <c r="K251" s="66"/>
+      <c r="L251" s="66"/>
+      <c r="M251" s="66"/>
+      <c r="N251" s="66"/>
+      <c r="O251" s="66"/>
+      <c r="P251" s="66"/>
+      <c r="Q251" s="66"/>
+      <c r="R251" s="66"/>
+      <c r="S251" s="66"/>
+      <c r="T251" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="U248" s="89"/>
-      <c r="V248" s="89"/>
-      <c r="W248" s="89"/>
-      <c r="X248" s="89"/>
-      <c r="Y248" s="89"/>
-      <c r="Z248" s="89"/>
-      <c r="AA248" s="89"/>
-      <c r="AB248" s="89"/>
-      <c r="AC248" s="89"/>
-      <c r="AD248" s="89"/>
-      <c r="AE248" s="89"/>
-      <c r="AF248" s="89"/>
-      <c r="AG248" s="89"/>
-      <c r="AH248" s="89"/>
-      <c r="AI248" s="89"/>
-      <c r="AJ248" s="89"/>
-    </row>
-    <row r="249" spans="1:36">
-      <c r="A249" s="67" t="s">
-        <v>1948</v>
-      </c>
-      <c r="B249" s="67" t="s">
-        <v>2313</v>
-      </c>
-      <c r="C249" s="67" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D249" s="67"/>
-      <c r="E249" s="67"/>
-      <c r="F249" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="G249" s="67"/>
-      <c r="H249" s="67"/>
-      <c r="I249" s="67"/>
-      <c r="J249" s="67"/>
-      <c r="K249" s="67"/>
-      <c r="L249" s="67"/>
-      <c r="M249" s="67"/>
-      <c r="N249" s="67" t="s">
-        <v>1913</v>
-      </c>
-      <c r="O249" s="67"/>
-      <c r="P249" s="67"/>
-      <c r="Q249" s="67"/>
-      <c r="R249" s="67"/>
-      <c r="S249" s="67"/>
-      <c r="T249" s="67"/>
-      <c r="U249" s="67"/>
-      <c r="V249" s="67"/>
-      <c r="W249" s="67"/>
-      <c r="X249" s="67" t="s">
+      <c r="U251" s="66"/>
+      <c r="V251" s="66"/>
+      <c r="W251" s="66"/>
+      <c r="X251" s="66"/>
+      <c r="Y251" s="66"/>
+      <c r="Z251" s="66"/>
+      <c r="AA251" s="66"/>
+      <c r="AB251" s="66"/>
+      <c r="AC251" s="66"/>
+      <c r="AD251" s="66"/>
+      <c r="AE251" s="66"/>
+      <c r="AF251" s="66"/>
+      <c r="AG251" s="66"/>
+      <c r="AH251" s="66"/>
+      <c r="AI251" s="66"/>
+      <c r="AJ251" s="66"/>
+    </row>
+    <row r="252" spans="1:36" s="61" customFormat="1">
+      <c r="A252" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="B252" s="66" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C252" s="66" t="s">
         <v>1964</v>
-      </c>
-      <c r="Y249" s="67"/>
-      <c r="Z249" s="67"/>
-      <c r="AA249" s="67"/>
-      <c r="AB249" s="67"/>
-      <c r="AC249" s="67"/>
-      <c r="AD249" s="67"/>
-      <c r="AE249" s="67"/>
-      <c r="AF249" s="67"/>
-      <c r="AG249" s="67"/>
-      <c r="AH249" s="67"/>
-      <c r="AI249" s="67"/>
-      <c r="AJ249" s="67"/>
-    </row>
-    <row r="250" spans="1:36">
-      <c r="A250" s="87" t="s">
-        <v>29</v>
-      </c>
-      <c r="B250" s="87"/>
-      <c r="C250" s="87" t="s">
-        <v>2236</v>
-      </c>
-      <c r="D250" s="87"/>
-      <c r="E250" s="87"/>
-      <c r="F250" s="87"/>
-      <c r="G250" s="87"/>
-      <c r="H250" s="87"/>
-      <c r="I250" s="87"/>
-      <c r="J250" s="87"/>
-      <c r="K250" s="87"/>
-      <c r="L250" s="87"/>
-      <c r="M250" s="87"/>
-      <c r="N250" s="87"/>
-      <c r="O250" s="87"/>
-      <c r="P250" s="87"/>
-      <c r="Q250" s="87"/>
-      <c r="R250" s="87"/>
-      <c r="S250" s="87"/>
-      <c r="T250" s="87"/>
-      <c r="U250" s="87"/>
-      <c r="V250" s="87"/>
-      <c r="W250" s="87"/>
-      <c r="X250" s="87"/>
-      <c r="Y250" s="87"/>
-      <c r="Z250" s="87"/>
-      <c r="AA250" s="87"/>
-      <c r="AB250" s="87"/>
-      <c r="AC250" s="87"/>
-      <c r="AD250" s="87"/>
-      <c r="AE250" s="87"/>
-      <c r="AF250" s="87"/>
-      <c r="AG250" s="87"/>
-      <c r="AH250" s="87"/>
-      <c r="AI250" s="87"/>
-      <c r="AJ250" s="87"/>
-    </row>
-    <row r="251" spans="1:36" s="67" customFormat="1">
-      <c r="A251" s="73"/>
-      <c r="B251" s="73"/>
-      <c r="C251" s="73"/>
-      <c r="D251" s="74"/>
-      <c r="E251" s="74"/>
-      <c r="F251" s="74"/>
-      <c r="G251" s="74"/>
-      <c r="H251" s="74"/>
-      <c r="I251" s="74"/>
-      <c r="J251" s="74"/>
-      <c r="K251" s="74"/>
-      <c r="L251" s="74"/>
-      <c r="M251" s="74"/>
-      <c r="N251" s="74"/>
-      <c r="O251" s="74"/>
-      <c r="P251" s="74"/>
-      <c r="Q251" s="74"/>
-      <c r="R251" s="74"/>
-      <c r="S251" s="74"/>
-      <c r="T251" s="74"/>
-      <c r="U251" s="74"/>
-      <c r="V251" s="74"/>
-      <c r="W251" s="74"/>
-      <c r="X251" s="74"/>
-      <c r="Y251" s="74"/>
-      <c r="Z251" s="74"/>
-      <c r="AA251" s="74"/>
-      <c r="AB251" s="74"/>
-      <c r="AC251" s="74"/>
-      <c r="AD251" s="74"/>
-      <c r="AE251" s="74"/>
-      <c r="AF251" s="74"/>
-      <c r="AG251" s="74"/>
-      <c r="AH251" s="74"/>
-      <c r="AI251" s="74"/>
-      <c r="AJ251" s="74"/>
-    </row>
-    <row r="252" spans="1:36" s="67" customFormat="1">
-      <c r="A252" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="B252" s="66" t="s">
-        <v>2270</v>
-      </c>
-      <c r="C252" s="66" t="s">
-        <v>2152</v>
       </c>
       <c r="D252" s="66"/>
       <c r="E252" s="66"/>
       <c r="F252" s="66" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="G252" s="66"/>
       <c r="H252" s="66"/>
@@ -19871,9 +19860,7 @@
       <c r="K252" s="66"/>
       <c r="L252" s="66"/>
       <c r="M252" s="66"/>
-      <c r="N252" s="66" t="s">
-        <v>1898</v>
-      </c>
+      <c r="N252" s="66"/>
       <c r="O252" s="66"/>
       <c r="P252" s="66"/>
       <c r="Q252" s="66"/>
@@ -19883,7 +19870,9 @@
       <c r="U252" s="66"/>
       <c r="V252" s="66"/>
       <c r="W252" s="66"/>
-      <c r="X252" s="66"/>
+      <c r="X252" s="66" t="s">
+        <v>1963</v>
+      </c>
       <c r="Y252" s="66"/>
       <c r="Z252" s="66"/>
       <c r="AA252" s="66"/>
@@ -19897,15 +19886,15 @@
       <c r="AI252" s="66"/>
       <c r="AJ252" s="66"/>
     </row>
-    <row r="253" spans="1:36" s="61" customFormat="1">
+    <row r="253" spans="1:36">
       <c r="A253" s="66" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B253" s="66" t="s">
-        <v>1590</v>
+        <v>2217</v>
       </c>
       <c r="C253" s="66" t="s">
-        <v>2151</v>
+        <v>2332</v>
       </c>
       <c r="D253" s="66"/>
       <c r="E253" s="66"/>
@@ -19917,14 +19906,16 @@
       <c r="K253" s="66"/>
       <c r="L253" s="66"/>
       <c r="M253" s="66"/>
-      <c r="N253" s="66"/>
+      <c r="N253" s="66" t="s">
+        <v>2280</v>
+      </c>
       <c r="O253" s="66"/>
       <c r="P253" s="66"/>
       <c r="Q253" s="66"/>
       <c r="R253" s="66"/>
       <c r="S253" s="66"/>
       <c r="T253" s="66" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="U253" s="66"/>
       <c r="V253" s="66"/>
@@ -19943,19 +19934,21 @@
       <c r="AI253" s="66"/>
       <c r="AJ253" s="66"/>
     </row>
-    <row r="254" spans="1:36" s="61" customFormat="1">
+    <row r="254" spans="1:36">
       <c r="A254" s="66" t="s">
-        <v>24</v>
+        <v>1503</v>
       </c>
       <c r="B254" s="66" t="s">
-        <v>1591</v>
+        <v>2264</v>
       </c>
       <c r="C254" s="66" t="s">
-        <v>2150</v>
+        <v>1925</v>
       </c>
       <c r="D254" s="66"/>
       <c r="E254" s="66"/>
-      <c r="F254" s="66"/>
+      <c r="F254" s="66" t="s">
+        <v>55</v>
+      </c>
       <c r="G254" s="66"/>
       <c r="H254" s="66"/>
       <c r="I254" s="66"/>
@@ -19963,14 +19956,16 @@
       <c r="K254" s="66"/>
       <c r="L254" s="66"/>
       <c r="M254" s="66"/>
-      <c r="N254" s="66"/>
+      <c r="N254" s="66" t="s">
+        <v>2280</v>
+      </c>
       <c r="O254" s="66"/>
       <c r="P254" s="66"/>
       <c r="Q254" s="66"/>
       <c r="R254" s="66"/>
       <c r="S254" s="66"/>
       <c r="T254" s="66" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="U254" s="66"/>
       <c r="V254" s="66"/>
@@ -19989,26 +19984,28 @@
       <c r="AI254" s="66"/>
       <c r="AJ254" s="66"/>
     </row>
-    <row r="255" spans="1:36" s="61" customFormat="1">
+    <row r="255" spans="1:36">
       <c r="A255" s="66" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B255" s="66" t="s">
-        <v>1966</v>
+        <v>1585</v>
       </c>
       <c r="C255" s="66" t="s">
-        <v>1965</v>
-      </c>
-      <c r="D255" s="66"/>
+        <v>1925</v>
+      </c>
+      <c r="D255" s="66" t="s">
+        <v>2269</v>
+      </c>
       <c r="E255" s="66"/>
-      <c r="F255" s="66" t="s">
-        <v>60</v>
-      </c>
+      <c r="F255" s="66"/>
       <c r="G255" s="66"/>
       <c r="H255" s="66"/>
       <c r="I255" s="66"/>
       <c r="J255" s="66"/>
-      <c r="K255" s="66"/>
+      <c r="K255" s="66" t="s">
+        <v>2271</v>
+      </c>
       <c r="L255" s="66"/>
       <c r="M255" s="66"/>
       <c r="N255" s="66"/>
@@ -20017,13 +20014,15 @@
       <c r="Q255" s="66"/>
       <c r="R255" s="66"/>
       <c r="S255" s="66"/>
-      <c r="T255" s="66"/>
-      <c r="U255" s="66"/>
+      <c r="T255" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="U255" s="66">
+        <v>3</v>
+      </c>
       <c r="V255" s="66"/>
       <c r="W255" s="66"/>
-      <c r="X255" s="66" t="s">
-        <v>1964</v>
-      </c>
+      <c r="X255" s="66"/>
       <c r="Y255" s="66"/>
       <c r="Z255" s="66"/>
       <c r="AA255" s="66"/>
@@ -20039,13 +20038,13 @@
     </row>
     <row r="256" spans="1:36">
       <c r="A256" s="66" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B256" s="66" t="s">
-        <v>2224</v>
+        <v>2266</v>
       </c>
       <c r="C256" s="66" t="s">
-        <v>2340</v>
+        <v>2136</v>
       </c>
       <c r="D256" s="66"/>
       <c r="E256" s="66"/>
@@ -20058,7 +20057,7 @@
       <c r="L256" s="66"/>
       <c r="M256" s="66"/>
       <c r="N256" s="66" t="s">
-        <v>2287</v>
+        <v>2265</v>
       </c>
       <c r="O256" s="66"/>
       <c r="P256" s="66"/>
@@ -20087,36 +20086,36 @@
     </row>
     <row r="257" spans="1:36">
       <c r="A257" s="66" t="s">
-        <v>1503</v>
+        <v>38</v>
       </c>
       <c r="B257" s="66" t="s">
-        <v>2271</v>
+        <v>1588</v>
       </c>
       <c r="C257" s="66" t="s">
-        <v>1925</v>
-      </c>
-      <c r="D257" s="66"/>
+        <v>2136</v>
+      </c>
+      <c r="D257" s="66" t="s">
+        <v>2270</v>
+      </c>
       <c r="E257" s="66"/>
-      <c r="F257" s="66" t="s">
-        <v>55</v>
-      </c>
+      <c r="F257" s="66"/>
       <c r="G257" s="66"/>
       <c r="H257" s="66"/>
       <c r="I257" s="66"/>
       <c r="J257" s="66"/>
-      <c r="K257" s="66"/>
+      <c r="K257" s="66" t="s">
+        <v>2272</v>
+      </c>
       <c r="L257" s="66"/>
       <c r="M257" s="66"/>
-      <c r="N257" s="66" t="s">
-        <v>2287</v>
-      </c>
+      <c r="N257" s="66"/>
       <c r="O257" s="66"/>
       <c r="P257" s="66"/>
       <c r="Q257" s="66"/>
       <c r="R257" s="66"/>
       <c r="S257" s="66"/>
       <c r="T257" s="66" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="U257" s="66"/>
       <c r="V257" s="66"/>
@@ -20137,40 +20136,38 @@
     </row>
     <row r="258" spans="1:36">
       <c r="A258" s="66" t="s">
-        <v>38</v>
+        <v>1582</v>
       </c>
       <c r="B258" s="66" t="s">
-        <v>1585</v>
+        <v>2248</v>
       </c>
       <c r="C258" s="66" t="s">
-        <v>1925</v>
-      </c>
-      <c r="D258" s="66" t="s">
-        <v>2276</v>
-      </c>
+        <v>2218</v>
+      </c>
+      <c r="D258" s="66"/>
       <c r="E258" s="66"/>
-      <c r="F258" s="66"/>
+      <c r="F258" s="66" t="s">
+        <v>55</v>
+      </c>
       <c r="G258" s="66"/>
       <c r="H258" s="66"/>
       <c r="I258" s="66"/>
       <c r="J258" s="66"/>
-      <c r="K258" s="66" t="s">
-        <v>2278</v>
-      </c>
+      <c r="K258" s="66"/>
       <c r="L258" s="66"/>
       <c r="M258" s="66"/>
-      <c r="N258" s="66"/>
+      <c r="N258" s="66" t="s">
+        <v>2265</v>
+      </c>
       <c r="O258" s="66"/>
       <c r="P258" s="66"/>
       <c r="Q258" s="66"/>
       <c r="R258" s="66"/>
       <c r="S258" s="66"/>
       <c r="T258" s="66" t="s">
-        <v>102</v>
-      </c>
-      <c r="U258" s="66">
-        <v>3</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="U258" s="66"/>
       <c r="V258" s="66"/>
       <c r="W258" s="66"/>
       <c r="X258" s="66"/>
@@ -20189,15 +20186,17 @@
     </row>
     <row r="259" spans="1:36">
       <c r="A259" s="66" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B259" s="66" t="s">
-        <v>2273</v>
+        <v>2249</v>
       </c>
       <c r="C259" s="66" t="s">
-        <v>2142</v>
-      </c>
-      <c r="D259" s="66"/>
+        <v>2219</v>
+      </c>
+      <c r="D259" s="66" t="s">
+        <v>1907</v>
+      </c>
       <c r="E259" s="66"/>
       <c r="F259" s="66"/>
       <c r="G259" s="66"/>
@@ -20205,10 +20204,14 @@
       <c r="I259" s="66"/>
       <c r="J259" s="66"/>
       <c r="K259" s="66"/>
-      <c r="L259" s="66"/>
-      <c r="M259" s="66"/>
+      <c r="L259" s="66" t="s">
+        <v>2057</v>
+      </c>
+      <c r="M259" s="66" t="s">
+        <v>2078</v>
+      </c>
       <c r="N259" s="66" t="s">
-        <v>2272</v>
+        <v>2265</v>
       </c>
       <c r="O259" s="66"/>
       <c r="P259" s="66"/>
@@ -20225,7 +20228,7 @@
       <c r="Y259" s="66"/>
       <c r="Z259" s="66"/>
       <c r="AA259" s="66"/>
-      <c r="AB259" s="66"/>
+      <c r="AB259" s="76"/>
       <c r="AC259" s="66"/>
       <c r="AD259" s="66"/>
       <c r="AE259" s="66"/>
@@ -20237,36 +20240,34 @@
     </row>
     <row r="260" spans="1:36">
       <c r="A260" s="66" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B260" s="66" t="s">
-        <v>1588</v>
+        <v>2250</v>
       </c>
       <c r="C260" s="66" t="s">
-        <v>2142</v>
-      </c>
-      <c r="D260" s="66" t="s">
-        <v>2277</v>
-      </c>
+        <v>2214</v>
+      </c>
+      <c r="D260" s="66"/>
       <c r="E260" s="66"/>
       <c r="F260" s="66"/>
       <c r="G260" s="66"/>
       <c r="H260" s="66"/>
       <c r="I260" s="66"/>
       <c r="J260" s="66"/>
-      <c r="K260" s="66" t="s">
-        <v>2279</v>
-      </c>
+      <c r="K260" s="66"/>
       <c r="L260" s="66"/>
       <c r="M260" s="66"/>
-      <c r="N260" s="66"/>
+      <c r="N260" s="66" t="s">
+        <v>2265</v>
+      </c>
       <c r="O260" s="66"/>
       <c r="P260" s="66"/>
       <c r="Q260" s="66"/>
       <c r="R260" s="66"/>
       <c r="S260" s="66"/>
       <c r="T260" s="66" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="U260" s="66"/>
       <c r="V260" s="66"/>
@@ -20287,19 +20288,17 @@
     </row>
     <row r="261" spans="1:36">
       <c r="A261" s="66" t="s">
-        <v>1582</v>
+        <v>22</v>
       </c>
       <c r="B261" s="66" t="s">
-        <v>2255</v>
+        <v>2251</v>
       </c>
       <c r="C261" s="66" t="s">
-        <v>2225</v>
+        <v>2215</v>
       </c>
       <c r="D261" s="66"/>
       <c r="E261" s="66"/>
-      <c r="F261" s="66" t="s">
-        <v>55</v>
-      </c>
+      <c r="F261" s="66"/>
       <c r="G261" s="66"/>
       <c r="H261" s="66"/>
       <c r="I261" s="66"/>
@@ -20308,7 +20307,7 @@
       <c r="L261" s="66"/>
       <c r="M261" s="66"/>
       <c r="N261" s="66" t="s">
-        <v>2272</v>
+        <v>2265</v>
       </c>
       <c r="O261" s="66"/>
       <c r="P261" s="66"/>
@@ -20325,7 +20324,7 @@
       <c r="Y261" s="66"/>
       <c r="Z261" s="66"/>
       <c r="AA261" s="66"/>
-      <c r="AB261" s="66"/>
+      <c r="AB261" s="76"/>
       <c r="AC261" s="66"/>
       <c r="AD261" s="66"/>
       <c r="AE261" s="66"/>
@@ -20337,32 +20336,30 @@
     </row>
     <row r="262" spans="1:36">
       <c r="A262" s="66" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B262" s="66" t="s">
-        <v>2256</v>
+        <v>2253</v>
       </c>
       <c r="C262" s="66" t="s">
-        <v>2226</v>
-      </c>
-      <c r="D262" s="66" t="s">
-        <v>1907</v>
-      </c>
+        <v>2216</v>
+      </c>
+      <c r="D262" s="66"/>
       <c r="E262" s="66"/>
       <c r="F262" s="66"/>
       <c r="G262" s="66"/>
       <c r="H262" s="66"/>
-      <c r="I262" s="66"/>
+      <c r="I262" s="66" t="s">
+        <v>1881</v>
+      </c>
       <c r="J262" s="66"/>
-      <c r="K262" s="66"/>
-      <c r="L262" s="66" t="s">
-        <v>2062</v>
-      </c>
-      <c r="M262" s="66" t="s">
-        <v>2083</v>
-      </c>
+      <c r="K262" s="66" t="s">
+        <v>2252</v>
+      </c>
+      <c r="L262" s="66"/>
+      <c r="M262" s="66"/>
       <c r="N262" s="66" t="s">
-        <v>2272</v>
+        <v>2265</v>
       </c>
       <c r="O262" s="66"/>
       <c r="P262" s="66"/>
@@ -20379,7 +20376,7 @@
       <c r="Y262" s="66"/>
       <c r="Z262" s="66"/>
       <c r="AA262" s="66"/>
-      <c r="AB262" s="76"/>
+      <c r="AB262" s="66"/>
       <c r="AC262" s="66"/>
       <c r="AD262" s="66"/>
       <c r="AE262" s="66"/>
@@ -20391,13 +20388,13 @@
     </row>
     <row r="263" spans="1:36">
       <c r="A263" s="66" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B263" s="66" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="C263" s="66" t="s">
-        <v>2221</v>
+        <v>2203</v>
       </c>
       <c r="D263" s="66"/>
       <c r="E263" s="66"/>
@@ -20410,7 +20407,7 @@
       <c r="L263" s="66"/>
       <c r="M263" s="66"/>
       <c r="N263" s="66" t="s">
-        <v>2272</v>
+        <v>2254</v>
       </c>
       <c r="O263" s="66"/>
       <c r="P263" s="66"/>
@@ -20439,17 +20436,19 @@
     </row>
     <row r="264" spans="1:36">
       <c r="A264" s="66" t="s">
-        <v>22</v>
+        <v>1503</v>
       </c>
       <c r="B264" s="66" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
       <c r="C264" s="66" t="s">
-        <v>2222</v>
+        <v>2205</v>
       </c>
       <c r="D264" s="66"/>
       <c r="E264" s="66"/>
-      <c r="F264" s="66"/>
+      <c r="F264" s="66" t="s">
+        <v>55</v>
+      </c>
       <c r="G264" s="66"/>
       <c r="H264" s="66"/>
       <c r="I264" s="66"/>
@@ -20458,7 +20457,7 @@
       <c r="L264" s="66"/>
       <c r="M264" s="66"/>
       <c r="N264" s="66" t="s">
-        <v>2272</v>
+        <v>2254</v>
       </c>
       <c r="O264" s="66"/>
       <c r="P264" s="66"/>
@@ -20475,7 +20474,7 @@
       <c r="Y264" s="66"/>
       <c r="Z264" s="66"/>
       <c r="AA264" s="66"/>
-      <c r="AB264" s="76"/>
+      <c r="AB264" s="66"/>
       <c r="AC264" s="66"/>
       <c r="AD264" s="66"/>
       <c r="AE264" s="66"/>
@@ -20487,30 +20486,28 @@
     </row>
     <row r="265" spans="1:36">
       <c r="A265" s="66" t="s">
-        <v>4</v>
+        <v>2206</v>
       </c>
       <c r="B265" s="66" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="C265" s="66" t="s">
-        <v>2223</v>
+        <v>2207</v>
       </c>
       <c r="D265" s="66"/>
       <c r="E265" s="66"/>
-      <c r="F265" s="66"/>
+      <c r="F265" s="66" t="s">
+        <v>51</v>
+      </c>
       <c r="G265" s="66"/>
       <c r="H265" s="66"/>
-      <c r="I265" s="66" t="s">
-        <v>1881</v>
-      </c>
+      <c r="I265" s="66"/>
       <c r="J265" s="66"/>
-      <c r="K265" s="66" t="s">
-        <v>2259</v>
-      </c>
+      <c r="K265" s="66"/>
       <c r="L265" s="66"/>
       <c r="M265" s="66"/>
       <c r="N265" s="66" t="s">
-        <v>2272</v>
+        <v>2257</v>
       </c>
       <c r="O265" s="66"/>
       <c r="P265" s="66"/>
@@ -20539,13 +20536,13 @@
     </row>
     <row r="266" spans="1:36">
       <c r="A266" s="66" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B266" s="66" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="C266" s="66" t="s">
-        <v>2210</v>
+        <v>2199</v>
       </c>
       <c r="D266" s="66"/>
       <c r="E266" s="66"/>
@@ -20558,7 +20555,7 @@
       <c r="L266" s="66"/>
       <c r="M266" s="66"/>
       <c r="N266" s="66" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="O266" s="66"/>
       <c r="P266" s="66"/>
@@ -20587,19 +20584,17 @@
     </row>
     <row r="267" spans="1:36">
       <c r="A267" s="66" t="s">
-        <v>1503</v>
+        <v>24</v>
       </c>
       <c r="B267" s="66" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="C267" s="66" t="s">
-        <v>2212</v>
+        <v>1592</v>
       </c>
       <c r="D267" s="66"/>
       <c r="E267" s="66"/>
-      <c r="F267" s="66" t="s">
-        <v>55</v>
-      </c>
+      <c r="F267" s="66"/>
       <c r="G267" s="66"/>
       <c r="H267" s="66"/>
       <c r="I267" s="66"/>
@@ -20608,7 +20603,7 @@
       <c r="L267" s="66"/>
       <c r="M267" s="66"/>
       <c r="N267" s="66" t="s">
-        <v>2261</v>
+        <v>2258</v>
       </c>
       <c r="O267" s="66"/>
       <c r="P267" s="66"/>
@@ -20637,19 +20632,17 @@
     </row>
     <row r="268" spans="1:36">
       <c r="A268" s="66" t="s">
-        <v>2213</v>
+        <v>1503</v>
       </c>
       <c r="B268" s="66" t="s">
-        <v>2266</v>
+        <v>2084</v>
       </c>
       <c r="C268" s="66" t="s">
-        <v>2214</v>
+        <v>1937</v>
       </c>
       <c r="D268" s="66"/>
       <c r="E268" s="66"/>
-      <c r="F268" s="66" t="s">
-        <v>51</v>
-      </c>
+      <c r="F268" s="66"/>
       <c r="G268" s="66"/>
       <c r="H268" s="66"/>
       <c r="I268" s="66"/>
@@ -20657,9 +20650,7 @@
       <c r="K268" s="66"/>
       <c r="L268" s="66"/>
       <c r="M268" s="66"/>
-      <c r="N268" s="66" t="s">
-        <v>2264</v>
-      </c>
+      <c r="N268" s="66"/>
       <c r="O268" s="66"/>
       <c r="P268" s="66"/>
       <c r="Q268" s="66"/>
@@ -20687,13 +20678,13 @@
     </row>
     <row r="269" spans="1:36">
       <c r="A269" s="66" t="s">
-        <v>11</v>
+        <v>1589</v>
       </c>
       <c r="B269" s="66" t="s">
-        <v>2268</v>
+        <v>2081</v>
       </c>
       <c r="C269" s="66" t="s">
-        <v>2206</v>
+        <v>2146</v>
       </c>
       <c r="D269" s="66"/>
       <c r="E269" s="66"/>
@@ -20706,7 +20697,7 @@
       <c r="L269" s="66"/>
       <c r="M269" s="66"/>
       <c r="N269" s="66" t="s">
-        <v>2267</v>
+        <v>2085</v>
       </c>
       <c r="O269" s="66"/>
       <c r="P269" s="66"/>
@@ -20714,9 +20705,11 @@
       <c r="R269" s="66"/>
       <c r="S269" s="66"/>
       <c r="T269" s="66" t="s">
-        <v>108</v>
-      </c>
-      <c r="U269" s="66"/>
+        <v>102</v>
+      </c>
+      <c r="U269" s="66">
+        <v>32</v>
+      </c>
       <c r="V269" s="66"/>
       <c r="W269" s="66"/>
       <c r="X269" s="66"/>
@@ -20735,13 +20728,13 @@
     </row>
     <row r="270" spans="1:36">
       <c r="A270" s="66" t="s">
-        <v>24</v>
+        <v>1589</v>
       </c>
       <c r="B270" s="66" t="s">
-        <v>2269</v>
+        <v>2082</v>
       </c>
       <c r="C270" s="66" t="s">
-        <v>1592</v>
+        <v>2147</v>
       </c>
       <c r="D270" s="66"/>
       <c r="E270" s="66"/>
@@ -20754,7 +20747,7 @@
       <c r="L270" s="66"/>
       <c r="M270" s="66"/>
       <c r="N270" s="66" t="s">
-        <v>2265</v>
+        <v>2085</v>
       </c>
       <c r="O270" s="66"/>
       <c r="P270" s="66"/>
@@ -20762,9 +20755,11 @@
       <c r="R270" s="66"/>
       <c r="S270" s="66"/>
       <c r="T270" s="66" t="s">
-        <v>108</v>
-      </c>
-      <c r="U270" s="66"/>
+        <v>102</v>
+      </c>
+      <c r="U270" s="66">
+        <v>32</v>
+      </c>
       <c r="V270" s="66"/>
       <c r="W270" s="66"/>
       <c r="X270" s="66"/>
@@ -20783,13 +20778,13 @@
     </row>
     <row r="271" spans="1:36">
       <c r="A271" s="66" t="s">
-        <v>1503</v>
+        <v>1589</v>
       </c>
       <c r="B271" s="66" t="s">
-        <v>2089</v>
+        <v>2083</v>
       </c>
       <c r="C271" s="66" t="s">
-        <v>1938</v>
+        <v>2148</v>
       </c>
       <c r="D271" s="66"/>
       <c r="E271" s="66"/>
@@ -20801,16 +20796,20 @@
       <c r="K271" s="66"/>
       <c r="L271" s="66"/>
       <c r="M271" s="66"/>
-      <c r="N271" s="66"/>
+      <c r="N271" s="66" t="s">
+        <v>2085</v>
+      </c>
       <c r="O271" s="66"/>
       <c r="P271" s="66"/>
       <c r="Q271" s="66"/>
       <c r="R271" s="66"/>
       <c r="S271" s="66"/>
       <c r="T271" s="66" t="s">
-        <v>108</v>
-      </c>
-      <c r="U271" s="66"/>
+        <v>102</v>
+      </c>
+      <c r="U271" s="66">
+        <v>32</v>
+      </c>
       <c r="V271" s="66"/>
       <c r="W271" s="66"/>
       <c r="X271" s="66"/>
@@ -20829,13 +20828,13 @@
     </row>
     <row r="272" spans="1:36">
       <c r="A272" s="66" t="s">
-        <v>1589</v>
+        <v>11</v>
       </c>
       <c r="B272" s="66" t="s">
-        <v>2086</v>
+        <v>2089</v>
       </c>
       <c r="C272" s="66" t="s">
-        <v>2153</v>
+        <v>2100</v>
       </c>
       <c r="D272" s="66"/>
       <c r="E272" s="66"/>
@@ -20848,7 +20847,7 @@
       <c r="L272" s="66"/>
       <c r="M272" s="66"/>
       <c r="N272" s="66" t="s">
-        <v>2090</v>
+        <v>2086</v>
       </c>
       <c r="O272" s="66"/>
       <c r="P272" s="66"/>
@@ -20859,7 +20858,7 @@
         <v>102</v>
       </c>
       <c r="U272" s="66">
-        <v>32</v>
+        <v>1024</v>
       </c>
       <c r="V272" s="66"/>
       <c r="W272" s="66"/>
@@ -20879,14 +20878,10 @@
     </row>
     <row r="273" spans="1:36">
       <c r="A273" s="66" t="s">
-        <v>1589</v>
-      </c>
-      <c r="B273" s="66" t="s">
-        <v>2087</v>
-      </c>
-      <c r="C273" s="66" t="s">
-        <v>2154</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B273" s="66"/>
+      <c r="C273" s="66"/>
       <c r="D273" s="66"/>
       <c r="E273" s="66"/>
       <c r="F273" s="66"/>
@@ -20897,20 +20892,14 @@
       <c r="K273" s="66"/>
       <c r="L273" s="66"/>
       <c r="M273" s="66"/>
-      <c r="N273" s="66" t="s">
-        <v>2090</v>
-      </c>
+      <c r="N273" s="66"/>
       <c r="O273" s="66"/>
       <c r="P273" s="66"/>
       <c r="Q273" s="66"/>
       <c r="R273" s="66"/>
       <c r="S273" s="66"/>
-      <c r="T273" s="66" t="s">
-        <v>102</v>
-      </c>
-      <c r="U273" s="66">
-        <v>32</v>
-      </c>
+      <c r="T273" s="66"/>
+      <c r="U273" s="66"/>
       <c r="V273" s="66"/>
       <c r="W273" s="66"/>
       <c r="X273" s="66"/>
@@ -20928,238 +20917,98 @@
       <c r="AJ273" s="66"/>
     </row>
     <row r="274" spans="1:36">
-      <c r="A274" s="66" t="s">
-        <v>1589</v>
-      </c>
-      <c r="B274" s="66" t="s">
-        <v>2088</v>
-      </c>
-      <c r="C274" s="66" t="s">
-        <v>2155</v>
-      </c>
-      <c r="D274" s="66"/>
-      <c r="E274" s="66"/>
-      <c r="F274" s="66"/>
-      <c r="G274" s="66"/>
-      <c r="H274" s="66"/>
-      <c r="I274" s="66"/>
-      <c r="J274" s="66"/>
-      <c r="K274" s="66"/>
-      <c r="L274" s="66"/>
-      <c r="M274" s="66"/>
-      <c r="N274" s="66" t="s">
-        <v>2090</v>
-      </c>
-      <c r="O274" s="66"/>
-      <c r="P274" s="66"/>
-      <c r="Q274" s="66"/>
-      <c r="R274" s="66"/>
-      <c r="S274" s="66"/>
-      <c r="T274" s="66" t="s">
-        <v>102</v>
-      </c>
-      <c r="U274" s="66">
-        <v>32</v>
-      </c>
-      <c r="V274" s="66"/>
-      <c r="W274" s="66"/>
-      <c r="X274" s="66"/>
-      <c r="Y274" s="66"/>
-      <c r="Z274" s="66"/>
-      <c r="AA274" s="66"/>
-      <c r="AB274" s="66"/>
-      <c r="AC274" s="66"/>
-      <c r="AD274" s="66"/>
-      <c r="AE274" s="66"/>
-      <c r="AF274" s="66"/>
-      <c r="AG274" s="66"/>
-      <c r="AH274" s="66"/>
-      <c r="AI274" s="66"/>
-      <c r="AJ274" s="66"/>
+      <c r="A274" s="73"/>
+      <c r="B274" s="73"/>
+      <c r="C274" s="73"/>
+      <c r="D274" s="74"/>
+      <c r="E274" s="74"/>
+      <c r="F274" s="74"/>
+      <c r="G274" s="74"/>
+      <c r="H274" s="74"/>
+      <c r="I274" s="74"/>
+      <c r="J274" s="74"/>
+      <c r="K274" s="74"/>
+      <c r="L274" s="74"/>
+      <c r="M274" s="74"/>
+      <c r="N274" s="74"/>
+      <c r="O274" s="74"/>
+      <c r="P274" s="74"/>
+      <c r="Q274" s="74"/>
+      <c r="R274" s="74"/>
+      <c r="S274" s="74"/>
+      <c r="T274" s="74"/>
+      <c r="U274" s="74"/>
+      <c r="V274" s="74"/>
+      <c r="W274" s="74"/>
+      <c r="X274" s="74"/>
+      <c r="Y274" s="74"/>
+      <c r="Z274" s="74"/>
+      <c r="AA274" s="74"/>
+      <c r="AB274" s="74"/>
+      <c r="AC274" s="74"/>
+      <c r="AD274" s="74"/>
+      <c r="AE274" s="74"/>
+      <c r="AF274" s="74"/>
+      <c r="AG274" s="74"/>
+      <c r="AH274" s="74"/>
+      <c r="AI274" s="74"/>
+      <c r="AJ274" s="74"/>
     </row>
     <row r="275" spans="1:36">
-      <c r="A275" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="B275" s="66" t="s">
-        <v>2094</v>
-      </c>
-      <c r="C275" s="66" t="s">
-        <v>2105</v>
-      </c>
-      <c r="D275" s="66"/>
-      <c r="E275" s="66"/>
-      <c r="F275" s="66"/>
-      <c r="G275" s="66"/>
-      <c r="H275" s="66"/>
-      <c r="I275" s="66"/>
-      <c r="J275" s="66"/>
-      <c r="K275" s="66"/>
-      <c r="L275" s="66"/>
-      <c r="M275" s="66"/>
-      <c r="N275" s="66" t="s">
-        <v>2091</v>
-      </c>
-      <c r="O275" s="66"/>
-      <c r="P275" s="66"/>
-      <c r="Q275" s="66"/>
-      <c r="R275" s="66"/>
-      <c r="S275" s="66"/>
-      <c r="T275" s="66" t="s">
-        <v>102</v>
-      </c>
-      <c r="U275" s="66">
-        <v>1024</v>
-      </c>
-      <c r="V275" s="66"/>
-      <c r="W275" s="66"/>
-      <c r="X275" s="66"/>
-      <c r="Y275" s="66"/>
-      <c r="Z275" s="66"/>
-      <c r="AA275" s="66"/>
-      <c r="AB275" s="66"/>
-      <c r="AC275" s="66"/>
-      <c r="AD275" s="66"/>
-      <c r="AE275" s="66"/>
-      <c r="AF275" s="66"/>
-      <c r="AG275" s="66"/>
-      <c r="AH275" s="66"/>
-      <c r="AI275" s="66"/>
-      <c r="AJ275" s="66"/>
-    </row>
-    <row r="276" spans="1:36">
-      <c r="A276" s="66" t="s">
-        <v>29</v>
-      </c>
-      <c r="B276" s="66"/>
-      <c r="C276" s="66"/>
-      <c r="D276" s="66"/>
-      <c r="E276" s="66"/>
-      <c r="F276" s="66"/>
-      <c r="G276" s="66"/>
-      <c r="H276" s="66"/>
-      <c r="I276" s="66"/>
-      <c r="J276" s="66"/>
-      <c r="K276" s="66"/>
-      <c r="L276" s="66"/>
-      <c r="M276" s="66"/>
-      <c r="N276" s="66"/>
-      <c r="O276" s="66"/>
-      <c r="P276" s="66"/>
-      <c r="Q276" s="66"/>
-      <c r="R276" s="66"/>
-      <c r="S276" s="66"/>
-      <c r="T276" s="66"/>
-      <c r="U276" s="66"/>
-      <c r="V276" s="66"/>
-      <c r="W276" s="66"/>
-      <c r="X276" s="66"/>
-      <c r="Y276" s="66"/>
-      <c r="Z276" s="66"/>
-      <c r="AA276" s="66"/>
-      <c r="AB276" s="66"/>
-      <c r="AC276" s="66"/>
-      <c r="AD276" s="66"/>
-      <c r="AE276" s="66"/>
-      <c r="AF276" s="66"/>
-      <c r="AG276" s="66"/>
-      <c r="AH276" s="66"/>
-      <c r="AI276" s="66"/>
-      <c r="AJ276" s="66"/>
-    </row>
-    <row r="277" spans="1:36">
-      <c r="A277" s="73"/>
-      <c r="B277" s="73"/>
-      <c r="C277" s="73"/>
-      <c r="D277" s="74"/>
-      <c r="E277" s="74"/>
-      <c r="F277" s="74"/>
-      <c r="G277" s="74"/>
-      <c r="H277" s="74"/>
-      <c r="I277" s="74"/>
-      <c r="J277" s="74"/>
-      <c r="K277" s="74"/>
-      <c r="L277" s="74"/>
-      <c r="M277" s="74"/>
-      <c r="N277" s="74"/>
-      <c r="O277" s="74"/>
-      <c r="P277" s="74"/>
-      <c r="Q277" s="74"/>
-      <c r="R277" s="74"/>
-      <c r="S277" s="74"/>
-      <c r="T277" s="74"/>
-      <c r="U277" s="74"/>
-      <c r="V277" s="74"/>
-      <c r="W277" s="74"/>
-      <c r="X277" s="74"/>
-      <c r="Y277" s="74"/>
-      <c r="Z277" s="74"/>
-      <c r="AA277" s="74"/>
-      <c r="AB277" s="74"/>
-      <c r="AC277" s="74"/>
-      <c r="AD277" s="74"/>
-      <c r="AE277" s="74"/>
-      <c r="AF277" s="74"/>
-      <c r="AG277" s="74"/>
-      <c r="AH277" s="74"/>
-      <c r="AI277" s="74"/>
-      <c r="AJ277" s="74"/>
-    </row>
-    <row r="278" spans="1:36">
-      <c r="A278" t="s">
+      <c r="A275" t="s">
         <v>1660</v>
       </c>
-      <c r="C278" t="s">
+      <c r="C275" t="s">
         <v>1661</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="12" type="noConversion"/>
-  <conditionalFormatting sqref="B213 B192 B160 B128 B90 B46:B48 B23:B36 B2:B18 B104 B62">
+  <conditionalFormatting sqref="B210 B190 B159 B128 B90 B46:B48 B23:B36 B2:B18 B104 B62">
     <cfRule type="duplicateValues" dxfId="13" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:B61">
     <cfRule type="duplicateValues" dxfId="12" priority="54"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B205:B209 B195:B196 B199:B200 B202:B203">
+  <conditionalFormatting sqref="B202:B206 B193:B194 B196:B197 B199:B200">
     <cfRule type="duplicateValues" dxfId="11" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49">
     <cfRule type="duplicateValues" dxfId="10" priority="55"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B201">
+  <conditionalFormatting sqref="B198">
     <cfRule type="duplicateValues" dxfId="9" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B204">
+  <conditionalFormatting sqref="B201">
     <cfRule type="duplicateValues" dxfId="8" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B247:B248 B210">
+  <conditionalFormatting sqref="B244:B245 B207">
     <cfRule type="duplicateValues" dxfId="7" priority="66"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B239:B242">
+  <conditionalFormatting sqref="B236:B239">
     <cfRule type="duplicateValues" dxfId="6" priority="67"/>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" sqref="A90 A104 A128 A160 A192 A213 A23:A36 A52:A62 A46:A49 A247:A248 A21 A2:A18 A194:A196 A239:A242 A199:A211">
+    <dataValidation type="list" allowBlank="1" sqref="A90 A104 A128 A159 A190 A210 A23:A36 A52:A62 A46:A49 A244:A245 A21 A2:A18 A192:A194 A236:A239 A196:A208">
       <formula1>QuestionTypes</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Name" error="Names must be unique and cannot contain spaces, non-ASCII characters, reserved keywords, or special symbols. For ArcGIS Enterprise feature layers, names must not exceed 31 characters." sqref="B90 B104 B128 B160 B192 B52:B62 B213 B46:B49 B23:B36 B2:B18 B247:B248 B194:B196 B239:B242 B199:B211">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Name" error="Names must be unique and cannot contain spaces, non-ASCII characters, reserved keywords, or special symbols. For ArcGIS Enterprise feature layers, names must not exceed 31 characters." sqref="B90 B104 B128 B159 B190 B52:B62 B210 B46:B49 B23:B36 B2:B18 B244:B245 B192:B194 B236:B239 B196:B208">
       <formula1>AND(LEN(B2)=LEN(SUBSTITUTE(B2," ","")),LEN(B2)&lt;32,COUNTIF(Reserved,B2) = 0,SUMPRODUCT(--ISNUMBER(SEARCH(SpecialChars,B2)))=0)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G90 I90 I104 G104 G128 I128 G160 I160 I192 G192 I213 G213 I6:I18 I2:I4 I46:I49 G46:G49 G52:G62 I52:I62 G23:G36 I23:I36 G2:G18 G247:G248 I247:I248 G194:G196 I194:I196 I239:I242 G239:G242 I199:I211 G199:G211">
+    <dataValidation type="list" allowBlank="1" sqref="G90 I90 I104 G104 G128 I128 G159 I159 I190 G190 I210 G210 I6:I18 I2:I4 I46:I49 G46:G49 G52:G62 I52:I62 G23:G36 I23:I36 G2:G18 G244:G245 I244:I245 G192:G194 I192:I194 I236:I239 G236:G239 I196:I208 G196:G208">
       <formula1>"yes"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Bind Type" error="The value you have entered is not one of the supported bind types." sqref="S90 S104 S128 S160 S192 S213 S46:S49 S52:S62 S23:S36 S2:S18 S248 S194:S196 S239:S242 S199:S211">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Bind Type" error="The value you have entered is not one of the supported bind types." sqref="S90 S104 S128 S159 S190 S210 S46:S49 S52:S62 S23:S36 S2:S18 S245 S192:S194 S236:S239 S196:S208">
       <formula1>BindTypes</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Field Type" error="The value you have entered is not one of the supported field types." sqref="T90 T104 T128 T160 T192 T213 T46:T49 T52:T62 T2:T18 T23:T36 S247:T247 T73:T74 T248 T194:T196 T239:T242 T199:T211">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Field Type" error="The value you have entered is not one of the supported field types." sqref="T90 T104 T128 T159 T190 T210 T46:T49 T52:T62 T2:T18 T23:T36 S244:T244 T73:T74 T245 T192:T194 T236:T239 T196:T208">
       <formula1>EsriFieldTypes</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Field Length" error="Please enter a whole number greater than zero." sqref="U90 U104 U128 U160 U192 U213 U46:U49 U52:U62 U23:U36 U2:U18 U247:U248 U194:U196 U239:U242 U199:U211">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Field Length" error="Please enter a whole number greater than zero." sqref="U90 U104 U128 U159 U190 U210 U46:U49 U52:U62 U23:U36 U2:U18 U244:U245 U192:U194 U236:U239 U196:U208">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F90 F104 F128 F160 F192 F52:F62 F213 F46:F49 F23:F36 F247:F248 F2:F18 F194:F196 F239:F242 F200:F211">
+    <dataValidation type="list" allowBlank="1" sqref="F90 F104 F128 F159 F190 F52:F62 F210 F46:F49 F23:F36 F244:F245 F2:F18 F192:F194 F236:F239 F197:F208">
       <formula1>IF(LEFT(A2,4)="rank",appearRank,IF(LEFT(A2,8)="select_m",appearSelMulti,IF(LEFT(A2,8)="select_o",appearSelOne,IF(A2="begin group",appearBeginGrp,IF(A2="begin repeat",appearBeginRpt,INDIRECT("appear"&amp;A2))))))</formula1>
     </dataValidation>
   </dataValidations>
@@ -21178,8 +21027,8 @@
   </sheetPr>
   <dimension ref="A1:F157"/>
   <sheetViews>
-    <sheetView topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="A160" sqref="A160"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="A171" sqref="A171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21236,10 +21085,10 @@
         <v>1691</v>
       </c>
       <c r="B7" t="s">
-        <v>2157</v>
+        <v>2150</v>
       </c>
       <c r="C7" t="s">
-        <v>2157</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -21247,10 +21096,10 @@
         <v>1691</v>
       </c>
       <c r="B8" t="s">
-        <v>2158</v>
+        <v>2151</v>
       </c>
       <c r="C8" t="s">
-        <v>2158</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -21258,10 +21107,10 @@
         <v>1691</v>
       </c>
       <c r="B9" t="s">
-        <v>2159</v>
+        <v>2152</v>
       </c>
       <c r="C9" t="s">
-        <v>2159</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -21269,10 +21118,10 @@
         <v>1691</v>
       </c>
       <c r="B10" t="s">
-        <v>2160</v>
+        <v>2153</v>
       </c>
       <c r="C10" t="s">
-        <v>2160</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -21280,10 +21129,10 @@
         <v>1691</v>
       </c>
       <c r="B11" t="s">
-        <v>2161</v>
+        <v>2154</v>
       </c>
       <c r="C11" t="s">
-        <v>2161</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -21291,10 +21140,10 @@
         <v>1691</v>
       </c>
       <c r="B12" t="s">
-        <v>2162</v>
+        <v>2155</v>
       </c>
       <c r="C12" t="s">
-        <v>2162</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -21302,10 +21151,10 @@
         <v>1691</v>
       </c>
       <c r="B13" t="s">
-        <v>2163</v>
+        <v>2156</v>
       </c>
       <c r="C13" t="s">
-        <v>2163</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -21313,10 +21162,10 @@
         <v>1691</v>
       </c>
       <c r="B14" t="s">
-        <v>2164</v>
+        <v>2157</v>
       </c>
       <c r="C14" t="s">
-        <v>2164</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -21324,10 +21173,10 @@
         <v>1691</v>
       </c>
       <c r="B15" t="s">
-        <v>2165</v>
+        <v>2158</v>
       </c>
       <c r="C15" t="s">
-        <v>2165</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -21335,10 +21184,10 @@
         <v>1691</v>
       </c>
       <c r="B16" t="s">
-        <v>2166</v>
+        <v>2159</v>
       </c>
       <c r="C16" t="s">
-        <v>2166</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -21346,10 +21195,10 @@
         <v>1691</v>
       </c>
       <c r="B17" t="s">
-        <v>2167</v>
+        <v>2160</v>
       </c>
       <c r="C17" t="s">
-        <v>2167</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -21357,10 +21206,10 @@
         <v>1691</v>
       </c>
       <c r="B18" t="s">
-        <v>2168</v>
+        <v>2161</v>
       </c>
       <c r="C18" t="s">
-        <v>2168</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -21368,10 +21217,10 @@
         <v>1691</v>
       </c>
       <c r="B19" t="s">
-        <v>2169</v>
+        <v>2162</v>
       </c>
       <c r="C19" t="s">
-        <v>2169</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -21379,10 +21228,10 @@
         <v>1691</v>
       </c>
       <c r="B20" t="s">
-        <v>2170</v>
+        <v>2163</v>
       </c>
       <c r="C20" t="s">
-        <v>2170</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -21390,10 +21239,10 @@
         <v>1691</v>
       </c>
       <c r="B21" t="s">
-        <v>2171</v>
+        <v>2164</v>
       </c>
       <c r="C21" t="s">
-        <v>2171</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -21401,10 +21250,10 @@
         <v>1691</v>
       </c>
       <c r="B22" t="s">
-        <v>2172</v>
+        <v>2165</v>
       </c>
       <c r="C22" t="s">
-        <v>2172</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -21412,10 +21261,10 @@
         <v>1691</v>
       </c>
       <c r="B23" t="s">
-        <v>2172</v>
+        <v>2165</v>
       </c>
       <c r="C23" t="s">
-        <v>2172</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -21423,10 +21272,10 @@
         <v>1691</v>
       </c>
       <c r="B24" t="s">
-        <v>2173</v>
+        <v>2166</v>
       </c>
       <c r="C24" t="s">
-        <v>2173</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -21434,10 +21283,10 @@
         <v>1691</v>
       </c>
       <c r="B25" t="s">
-        <v>2174</v>
+        <v>2167</v>
       </c>
       <c r="C25" t="s">
-        <v>2174</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -21445,10 +21294,10 @@
         <v>1691</v>
       </c>
       <c r="B26" t="s">
-        <v>2175</v>
+        <v>2168</v>
       </c>
       <c r="C26" t="s">
-        <v>2175</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -21456,10 +21305,10 @@
         <v>1692</v>
       </c>
       <c r="B28" t="s">
-        <v>2176</v>
+        <v>2169</v>
       </c>
       <c r="C28" t="s">
-        <v>2176</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -21467,10 +21316,10 @@
         <v>1693</v>
       </c>
       <c r="B29" t="s">
-        <v>2177</v>
+        <v>2170</v>
       </c>
       <c r="C29" t="s">
-        <v>2177</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -21478,10 +21327,10 @@
         <v>1692</v>
       </c>
       <c r="B30" t="s">
-        <v>2178</v>
+        <v>2171</v>
       </c>
       <c r="C30" t="s">
-        <v>2178</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -21489,10 +21338,10 @@
         <v>1692</v>
       </c>
       <c r="B31" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
       <c r="C31" t="s">
-        <v>2179</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -21500,10 +21349,10 @@
         <v>1692</v>
       </c>
       <c r="B32" t="s">
-        <v>2180</v>
+        <v>2173</v>
       </c>
       <c r="C32" t="s">
-        <v>2180</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -21511,10 +21360,10 @@
         <v>1692</v>
       </c>
       <c r="B33" t="s">
-        <v>2181</v>
+        <v>2174</v>
       </c>
       <c r="C33" t="s">
-        <v>2181</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -21522,10 +21371,10 @@
         <v>1692</v>
       </c>
       <c r="B34" t="s">
-        <v>2182</v>
+        <v>2175</v>
       </c>
       <c r="C34" t="s">
-        <v>2182</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -21533,10 +21382,10 @@
         <v>1692</v>
       </c>
       <c r="B35" t="s">
-        <v>2183</v>
+        <v>2176</v>
       </c>
       <c r="C35" t="s">
-        <v>2183</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -21544,10 +21393,10 @@
         <v>1692</v>
       </c>
       <c r="B36" t="s">
-        <v>2184</v>
+        <v>2177</v>
       </c>
       <c r="C36" t="s">
-        <v>2184</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -21555,10 +21404,10 @@
         <v>1692</v>
       </c>
       <c r="B37" t="s">
-        <v>2185</v>
+        <v>2178</v>
       </c>
       <c r="C37" t="s">
-        <v>2185</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -21566,10 +21415,10 @@
         <v>1692</v>
       </c>
       <c r="B38" t="s">
-        <v>2186</v>
+        <v>2179</v>
       </c>
       <c r="C38" t="s">
-        <v>2186</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -21577,10 +21426,10 @@
         <v>1692</v>
       </c>
       <c r="B39" t="s">
-        <v>2187</v>
+        <v>2180</v>
       </c>
       <c r="C39" t="s">
-        <v>2187</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -21588,10 +21437,10 @@
         <v>1692</v>
       </c>
       <c r="B40" t="s">
-        <v>2188</v>
+        <v>2181</v>
       </c>
       <c r="C40" t="s">
-        <v>2188</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -21599,10 +21448,10 @@
         <v>1692</v>
       </c>
       <c r="B41" t="s">
-        <v>2189</v>
+        <v>2182</v>
       </c>
       <c r="C41" t="s">
-        <v>2189</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -21610,10 +21459,10 @@
         <v>1692</v>
       </c>
       <c r="B42" t="s">
-        <v>2190</v>
+        <v>2183</v>
       </c>
       <c r="C42" t="s">
-        <v>2190</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -21621,10 +21470,10 @@
         <v>1692</v>
       </c>
       <c r="B43" t="s">
-        <v>2191</v>
+        <v>2184</v>
       </c>
       <c r="C43" t="s">
-        <v>2191</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -21632,10 +21481,10 @@
         <v>1692</v>
       </c>
       <c r="B44" t="s">
-        <v>2192</v>
+        <v>2185</v>
       </c>
       <c r="C44" t="s">
-        <v>2192</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -21643,10 +21492,10 @@
         <v>1692</v>
       </c>
       <c r="B45" t="s">
-        <v>2193</v>
+        <v>2186</v>
       </c>
       <c r="C45" t="s">
-        <v>2193</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -21654,10 +21503,10 @@
         <v>1692</v>
       </c>
       <c r="B46" t="s">
-        <v>2194</v>
+        <v>2187</v>
       </c>
       <c r="C46" t="s">
-        <v>2194</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -21665,10 +21514,10 @@
         <v>1692</v>
       </c>
       <c r="B47" t="s">
-        <v>2195</v>
+        <v>2188</v>
       </c>
       <c r="C47" t="s">
-        <v>2195</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -21676,10 +21525,10 @@
         <v>1692</v>
       </c>
       <c r="B48" t="s">
-        <v>2196</v>
+        <v>2189</v>
       </c>
       <c r="C48" t="s">
-        <v>2196</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -21687,10 +21536,10 @@
         <v>1692</v>
       </c>
       <c r="B49" t="s">
-        <v>2197</v>
+        <v>2190</v>
       </c>
       <c r="C49" t="s">
-        <v>2197</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -21698,10 +21547,10 @@
         <v>1692</v>
       </c>
       <c r="B50" t="s">
-        <v>2198</v>
+        <v>2191</v>
       </c>
       <c r="C50" t="s">
-        <v>2198</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -21709,10 +21558,10 @@
         <v>1692</v>
       </c>
       <c r="B51" t="s">
-        <v>2199</v>
+        <v>2192</v>
       </c>
       <c r="C51" t="s">
-        <v>2199</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -21720,10 +21569,10 @@
         <v>1692</v>
       </c>
       <c r="B52" t="s">
-        <v>2200</v>
+        <v>2193</v>
       </c>
       <c r="C52" t="s">
-        <v>2200</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -21827,7 +21676,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>2220</v>
+        <v>2213</v>
       </c>
       <c r="B66" t="s">
         <v>1730</v>
@@ -21838,7 +21687,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>2220</v>
+        <v>2213</v>
       </c>
       <c r="B67" t="s">
         <v>1733</v>
@@ -21849,7 +21698,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>2220</v>
+        <v>2213</v>
       </c>
       <c r="B68" t="s">
         <v>1706</v>
@@ -22402,10 +22251,10 @@
         <v>1845</v>
       </c>
       <c r="B132" t="s">
-        <v>2202</v>
+        <v>2195</v>
       </c>
       <c r="C132" t="s">
-        <v>2202</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -22424,10 +22273,10 @@
         <v>1845</v>
       </c>
       <c r="B134" t="s">
-        <v>2201</v>
+        <v>2194</v>
       </c>
       <c r="C134" t="s">
-        <v>2201</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -22512,7 +22361,7 @@
         <v>1875</v>
       </c>
       <c r="B144" t="s">
-        <v>2060</v>
+        <v>2055</v>
       </c>
       <c r="C144" t="s">
         <v>1876</v>
@@ -22523,7 +22372,7 @@
         <v>1877</v>
       </c>
       <c r="B145" t="s">
-        <v>2061</v>
+        <v>2056</v>
       </c>
       <c r="C145" t="s">
         <v>1878</v>
@@ -22534,48 +22383,48 @@
         <v>1663</v>
       </c>
       <c r="B147" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="C147" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>2099</v>
+        <v>2094</v>
       </c>
       <c r="B149" t="s">
-        <v>2059</v>
+        <v>2054</v>
       </c>
       <c r="C149" t="s">
-        <v>2059</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>2099</v>
+        <v>2094</v>
       </c>
       <c r="B150" t="s">
-        <v>2329</v>
+        <v>2321</v>
       </c>
       <c r="C150" t="s">
-        <v>2329</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>2099</v>
+        <v>2094</v>
       </c>
       <c r="B151" t="s">
-        <v>2330</v>
+        <v>2322</v>
       </c>
       <c r="C151" t="s">
-        <v>2330</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>2099</v>
+        <v>2094</v>
       </c>
       <c r="B152" t="s">
         <v>1706</v>
@@ -22586,35 +22435,35 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>2110</v>
+        <v>2105</v>
       </c>
       <c r="B154" t="s">
-        <v>2111</v>
+        <v>2106</v>
       </c>
       <c r="C154" t="s">
-        <v>2111</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>2110</v>
+        <v>2105</v>
       </c>
       <c r="B155" t="s">
-        <v>2112</v>
+        <v>2107</v>
       </c>
       <c r="C155" t="s">
-        <v>2112</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>2338</v>
+        <v>2330</v>
       </c>
       <c r="B157" t="s">
-        <v>2338</v>
+        <v>2330</v>
       </c>
       <c r="C157" t="s">
-        <v>2338</v>
+        <v>2330</v>
       </c>
     </row>
   </sheetData>
@@ -22669,7 +22518,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>2085</v>
+        <v>2080</v>
       </c>
       <c r="B2" t="s">
         <v>1879</v>
@@ -22678,7 +22527,7 @@
         <v>1880</v>
       </c>
       <c r="D2" s="77" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
       <c r="H2" t="s">
         <v>1449</v>

--- a/survey/NW Florida Hydrologic Field Form.xlsx
+++ b/survey/NW Florida Hydrologic Field Form.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62C6FE4-EB00-4D89-B5E2-B0E8BF4FE828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268DA9CA-17C1-478A-BA9C-F572DF5E1721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="594" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3485" uniqueCount="2254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3482" uniqueCount="2251">
   <si>
     <t>Question type</t>
   </si>
@@ -5921,9 +5921,6 @@
     <t>DataLoggerTimeActual</t>
   </si>
   <si>
-    <t>(decimal-time(${DataLoggerTimeActual}) - decimal-time(${DataLoggerTime})) *24*60</t>
-  </si>
-  <si>
     <t>DataLoggerTimeAdjusted</t>
   </si>
   <si>
@@ -6036,9 +6033,6 @@
   </si>
   <si>
     <t>DataLoggerTimeActual2</t>
-  </si>
-  <si>
-    <t>(decimal-time(${DataLoggerTimeActual2}) - decimal-time(${DataLoggerTime2})) *24*60</t>
   </si>
   <si>
     <t>DataLoggerTimeAdjAmount2</t>
@@ -6282,9 +6276,6 @@
     <t>Hydrologic Monitoring Field Collection</t>
   </si>
   <si>
-    <t>Only round numbers are allowed</t>
-  </si>
-  <si>
     <t>query allowAdds=false</t>
   </si>
   <si>
@@ -6492,9 +6483,6 @@
     <t>BatteryVoltage2dec_Text</t>
   </si>
   <si>
-    <t>regex(., '^[0-9]+\.\d{0}$')</t>
-  </si>
-  <si>
     <t>number(${BatteryVoltage2dec_Text})</t>
   </si>
   <si>
@@ -6912,9 +6900,6 @@
     <t>Battery Needs Replaced?</t>
   </si>
   <si>
-    <t>New question that replaced Battery Condition (good/poor)</t>
-  </si>
-  <si>
     <t>${BatteryDOA}='No'</t>
   </si>
   <si>
@@ -6925,6 +6910,12 @@
   </si>
   <si>
     <t>calculationMode=always</t>
+  </si>
+  <si>
+    <t>sqrt(pow((decimal-time(${DataLoggerTimeActual}) - decimal-time(${DataLoggerTime})) *24*60 , 2))</t>
+  </si>
+  <si>
+    <t>sqrt(pow((decimal-time(${DataLoggerTimeActual2}) - decimal-time(${DataLoggerTime2})) *24*60 , 2))</t>
   </si>
 </sst>
 </file>
@@ -8259,7 +8250,7 @@
   <dimension ref="A1:AJ290"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
@@ -8366,7 +8357,7 @@
         <v>1313</v>
       </c>
       <c r="AC1" s="12" t="s">
-        <v>2158</v>
+        <v>2154</v>
       </c>
       <c r="AD1" s="12" t="s">
         <v>1328</v>
@@ -8546,10 +8537,10 @@
         <v>1503</v>
       </c>
       <c r="B11" t="s">
-        <v>2161</v>
+        <v>2157</v>
       </c>
       <c r="C11" t="s">
-        <v>2162</v>
+        <v>2158</v>
       </c>
       <c r="F11" t="s">
         <v>38</v>
@@ -8569,10 +8560,10 @@
         <v>1503</v>
       </c>
       <c r="B12" t="s">
-        <v>2159</v>
+        <v>2155</v>
       </c>
       <c r="C12" t="s">
-        <v>2160</v>
+        <v>2156</v>
       </c>
       <c r="F12" t="s">
         <v>38</v>
@@ -8806,7 +8797,7 @@
       <c r="V22" s="53"/>
       <c r="W22" s="53"/>
       <c r="X22" s="53" t="s">
-        <v>2040</v>
+        <v>2037</v>
       </c>
       <c r="Y22" s="53"/>
       <c r="Z22" s="53"/>
@@ -8976,13 +8967,13 @@
         <v>38</v>
       </c>
       <c r="B26" s="53" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="C26" s="53" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="D26" s="53" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="E26" s="53"/>
       <c r="F26" s="53"/>
@@ -9040,7 +9031,7 @@
       <c r="L27" s="53"/>
       <c r="M27" s="53"/>
       <c r="N27" s="53" t="s">
-        <v>2163</v>
+        <v>2159</v>
       </c>
       <c r="O27" s="53"/>
       <c r="P27" s="53"/>
@@ -9052,7 +9043,7 @@
       <c r="V27" s="53"/>
       <c r="W27" s="53"/>
       <c r="X27" s="53" t="s">
-        <v>2040</v>
+        <v>2037</v>
       </c>
       <c r="Y27" s="53"/>
       <c r="Z27" s="53"/>
@@ -9265,7 +9256,7 @@
       </c>
       <c r="B32" s="53"/>
       <c r="C32" s="53" t="s">
-        <v>2041</v>
+        <v>2038</v>
       </c>
       <c r="D32" s="53"/>
       <c r="E32" s="53"/>
@@ -9278,7 +9269,7 @@
       <c r="L32" s="53"/>
       <c r="M32" s="53"/>
       <c r="N32" s="53" t="s">
-        <v>2163</v>
+        <v>2159</v>
       </c>
       <c r="O32" s="53"/>
       <c r="P32" s="53"/>
@@ -9370,7 +9361,7 @@
       <c r="L35" s="52"/>
       <c r="M35" s="52"/>
       <c r="N35" s="52" t="s">
-        <v>2164</v>
+        <v>2160</v>
       </c>
       <c r="O35" s="52"/>
       <c r="P35" s="52"/>
@@ -9382,7 +9373,7 @@
       <c r="V35" s="52"/>
       <c r="W35" s="52"/>
       <c r="X35" s="52" t="s">
-        <v>2042</v>
+        <v>2039</v>
       </c>
       <c r="Y35" s="52"/>
       <c r="Z35" s="52"/>
@@ -9713,7 +9704,7 @@
         <v>1555</v>
       </c>
       <c r="D44" t="s">
-        <v>2126</v>
+        <v>2122</v>
       </c>
       <c r="G44" t="s">
         <v>1736</v>
@@ -9727,16 +9718,16 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C45" t="s">
         <v>1947</v>
-      </c>
-      <c r="C45" t="s">
-        <v>1948</v>
       </c>
       <c r="F45" t="s">
         <v>38</v>
       </c>
       <c r="K45" t="s">
-        <v>2127</v>
+        <v>2123</v>
       </c>
       <c r="T45" t="s">
         <v>108</v>
@@ -9747,7 +9738,7 @@
         <v>1837</v>
       </c>
       <c r="B46" s="51" t="s">
-        <v>2125</v>
+        <v>2121</v>
       </c>
       <c r="C46" s="51" t="s">
         <v>1838</v>
@@ -9795,7 +9786,7 @@
         <v>11</v>
       </c>
       <c r="B47" s="51" t="s">
-        <v>2124</v>
+        <v>2120</v>
       </c>
       <c r="C47" s="51" t="s">
         <v>1916</v>
@@ -9811,7 +9802,7 @@
       <c r="L47" s="51"/>
       <c r="M47" s="51"/>
       <c r="N47" s="51" t="s">
-        <v>2123</v>
+        <v>2119</v>
       </c>
       <c r="O47" s="51"/>
       <c r="P47" s="51"/>
@@ -9848,7 +9839,7 @@
         <v>1838</v>
       </c>
       <c r="C48" s="51" t="s">
-        <v>2165</v>
+        <v>2161</v>
       </c>
       <c r="D48" s="51"/>
       <c r="E48" s="51"/>
@@ -9860,7 +9851,7 @@
       <c r="I48" s="51"/>
       <c r="J48" s="51"/>
       <c r="K48" s="51" t="s">
-        <v>2166</v>
+        <v>2162</v>
       </c>
       <c r="L48" s="51"/>
       <c r="M48" s="51"/>
@@ -9935,13 +9926,13 @@
         <v>27</v>
       </c>
       <c r="B50" s="60" t="s">
-        <v>2186</v>
+        <v>2182</v>
       </c>
       <c r="C50" s="60" t="s">
-        <v>2170</v>
+        <v>2166</v>
       </c>
       <c r="N50" s="60" t="s">
-        <v>2189</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="51" spans="1:36" s="60" customFormat="1">
@@ -9949,10 +9940,10 @@
         <v>15</v>
       </c>
       <c r="B51" s="60" t="s">
-        <v>2178</v>
+        <v>2174</v>
       </c>
       <c r="C51" s="60" t="s">
-        <v>2179</v>
+        <v>2175</v>
       </c>
       <c r="N51" s="60" t="s">
         <v>1742</v>
@@ -9966,10 +9957,10 @@
         <v>35</v>
       </c>
       <c r="B52" s="60" t="s">
-        <v>2175</v>
+        <v>2171</v>
       </c>
       <c r="K52" s="60" t="s">
-        <v>2187</v>
+        <v>2183</v>
       </c>
       <c r="N52" s="60" t="s">
         <v>1742</v>
@@ -9983,13 +9974,13 @@
         <v>15</v>
       </c>
       <c r="B53" s="60" t="s">
-        <v>2176</v>
+        <v>2172</v>
       </c>
       <c r="C53" s="60" t="s">
-        <v>2184</v>
+        <v>2180</v>
       </c>
       <c r="K53" s="60" t="s">
-        <v>2177</v>
+        <v>2173</v>
       </c>
       <c r="N53" s="60" t="s">
         <v>1742</v>
@@ -10003,13 +9994,13 @@
         <v>15</v>
       </c>
       <c r="B54" s="60" t="s">
-        <v>2181</v>
+        <v>2177</v>
       </c>
       <c r="C54" s="60" t="s">
-        <v>2180</v>
+        <v>2176</v>
       </c>
       <c r="N54" s="60" t="s">
-        <v>2163</v>
+        <v>2159</v>
       </c>
       <c r="T54" s="60" t="s">
         <v>108</v>
@@ -10020,13 +10011,13 @@
         <v>35</v>
       </c>
       <c r="B55" s="60" t="s">
-        <v>2182</v>
+        <v>2178</v>
       </c>
       <c r="K55" s="60" t="s">
-        <v>2188</v>
+        <v>2184</v>
       </c>
       <c r="N55" s="60" t="s">
-        <v>2163</v>
+        <v>2159</v>
       </c>
       <c r="T55" s="60" t="s">
         <v>108</v>
@@ -10037,16 +10028,16 @@
         <v>15</v>
       </c>
       <c r="B56" s="60" t="s">
-        <v>2183</v>
+        <v>2179</v>
       </c>
       <c r="C56" s="60" t="s">
-        <v>2184</v>
+        <v>2180</v>
       </c>
       <c r="K56" s="60" t="s">
-        <v>2185</v>
+        <v>2181</v>
       </c>
       <c r="N56" s="60" t="s">
-        <v>2163</v>
+        <v>2159</v>
       </c>
       <c r="T56" s="60" t="s">
         <v>108</v>
@@ -10095,10 +10086,10 @@
         <v>1503</v>
       </c>
       <c r="B58" s="51" t="s">
-        <v>2171</v>
+        <v>2167</v>
       </c>
       <c r="C58" s="51" t="s">
-        <v>2168</v>
+        <v>2164</v>
       </c>
       <c r="F58" s="51" t="s">
         <v>55</v>
@@ -10112,16 +10103,16 @@
         <v>11</v>
       </c>
       <c r="B59" s="51" t="s">
-        <v>2167</v>
+        <v>2163</v>
       </c>
       <c r="C59" s="51" t="s">
-        <v>2173</v>
+        <v>2169</v>
       </c>
       <c r="F59" s="51" t="s">
         <v>38</v>
       </c>
       <c r="K59" s="51" t="s">
-        <v>2174</v>
+        <v>2170</v>
       </c>
       <c r="T59" s="51" t="s">
         <v>102</v>
@@ -10138,10 +10129,10 @@
         <v>1836</v>
       </c>
       <c r="C60" s="51" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="N60" s="51" t="s">
-        <v>2172</v>
+        <v>2168</v>
       </c>
       <c r="T60" s="51" t="s">
         <v>108</v>
@@ -10160,7 +10151,7 @@
         <v>1621</v>
       </c>
       <c r="C62" s="52" t="s">
-        <v>2169</v>
+        <v>2165</v>
       </c>
       <c r="D62" s="52"/>
       <c r="E62" s="52"/>
@@ -10303,7 +10294,7 @@
         <v>26</v>
       </c>
       <c r="B65" s="52" t="s">
-        <v>2212</v>
+        <v>2208</v>
       </c>
       <c r="C65" s="52" t="s">
         <v>1739</v>
@@ -10389,10 +10380,10 @@
         <v>27</v>
       </c>
       <c r="B68" s="56" t="s">
-        <v>2190</v>
+        <v>2186</v>
       </c>
       <c r="C68" s="56" t="s">
-        <v>2191</v>
+        <v>2187</v>
       </c>
       <c r="F68" s="56" t="s">
         <v>79</v>
@@ -10426,7 +10417,7 @@
         <v>1503</v>
       </c>
       <c r="B70" s="56" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="C70" s="56" t="s">
         <v>1764</v>
@@ -10458,7 +10449,7 @@
         <v>51</v>
       </c>
       <c r="N71" s="56" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="T71" s="56" t="s">
         <v>102</v>
@@ -10492,16 +10483,16 @@
         <v>24</v>
       </c>
       <c r="B73" s="56" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="C73" s="56" t="s">
         <v>1906</v>
       </c>
       <c r="D73" s="56" t="s">
-        <v>2131</v>
+        <v>2127</v>
       </c>
       <c r="N73" s="56" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="T73" s="56" t="s">
         <v>108</v>
@@ -10512,16 +10503,16 @@
         <v>11</v>
       </c>
       <c r="B74" s="56" t="s">
-        <v>2128</v>
+        <v>2124</v>
       </c>
       <c r="C74" s="56" t="s">
-        <v>2129</v>
+        <v>2125</v>
       </c>
       <c r="F74" s="56" t="s">
         <v>38</v>
       </c>
       <c r="K74" s="56" t="s">
-        <v>2130</v>
+        <v>2126</v>
       </c>
       <c r="T74" s="56" t="s">
         <v>108</v>
@@ -10532,19 +10523,16 @@
         <v>1503</v>
       </c>
       <c r="B75" s="56" t="s">
-        <v>2218</v>
+        <v>2214</v>
       </c>
       <c r="C75" s="56" t="s">
-        <v>2248</v>
-      </c>
-      <c r="D75" s="56" t="s">
-        <v>2249</v>
+        <v>2244</v>
       </c>
       <c r="F75" s="56" t="s">
         <v>55</v>
       </c>
       <c r="N75" s="56" t="s">
-        <v>2250</v>
+        <v>2245</v>
       </c>
       <c r="T75" s="56" t="s">
         <v>108</v>
@@ -10555,22 +10543,22 @@
         <v>11</v>
       </c>
       <c r="B76" s="56" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
       <c r="C76" s="56" t="s">
         <v>1905</v>
       </c>
       <c r="D76" s="56" t="s">
-        <v>2105</v>
+        <v>2102</v>
       </c>
       <c r="L76" s="56" t="s">
-        <v>2104</v>
+        <v>2101</v>
       </c>
       <c r="M76" s="56" t="s">
-        <v>2106</v>
+        <v>2103</v>
       </c>
       <c r="N76" s="56" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="T76" s="56" t="s">
         <v>108</v>
@@ -10581,7 +10569,7 @@
         <v>6</v>
       </c>
       <c r="B77" s="56" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="C77" s="56" t="s">
         <v>1905</v>
@@ -10590,10 +10578,10 @@
         <v>38</v>
       </c>
       <c r="K77" s="56" t="s">
-        <v>2110</v>
+        <v>2106</v>
       </c>
       <c r="N77" s="56" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="T77" s="56" t="s">
         <v>108</v>
@@ -10602,25 +10590,19 @@
     </row>
     <row r="78" spans="1:36" s="56" customFormat="1">
       <c r="A78" s="56" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B78" s="56" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="C78" s="56" t="s">
         <v>1905</v>
       </c>
       <c r="D78" s="56" t="s">
+        <v>1986</v>
+      </c>
+      <c r="N78" s="56" t="s">
         <v>1988</v>
-      </c>
-      <c r="L78" s="56" t="s">
-        <v>2109</v>
-      </c>
-      <c r="M78" s="56" t="s">
-        <v>2039</v>
-      </c>
-      <c r="N78" s="56" t="s">
-        <v>1990</v>
       </c>
       <c r="T78" s="56" t="s">
         <v>108</v>
@@ -10637,10 +10619,10 @@
         <v>1905</v>
       </c>
       <c r="K79" s="56" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="N79" s="56" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="T79" s="56" t="s">
         <v>96</v>
@@ -10658,7 +10640,7 @@
         <v>1915</v>
       </c>
       <c r="N80" s="56" t="s">
-        <v>2219</v>
+        <v>2215</v>
       </c>
       <c r="T80" s="56" t="s">
         <v>108</v>
@@ -10670,13 +10652,13 @@
         <v>15</v>
       </c>
       <c r="B81" s="56" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="C81" s="56" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="N81" s="56" t="s">
-        <v>2220</v>
+        <v>2216</v>
       </c>
       <c r="T81" s="56" t="s">
         <v>108</v>
@@ -10697,10 +10679,10 @@
         <v>27</v>
       </c>
       <c r="B84" s="55" t="s">
-        <v>2192</v>
+        <v>2188</v>
       </c>
       <c r="C84" s="55" t="s">
-        <v>2193</v>
+        <v>2189</v>
       </c>
       <c r="D84" s="55"/>
       <c r="E84" s="55"/>
@@ -10745,10 +10727,10 @@
         <v>15</v>
       </c>
       <c r="B85" s="55" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="C85" s="55" t="s">
-        <v>2216</v>
+        <v>2212</v>
       </c>
       <c r="D85" s="55"/>
       <c r="E85" s="55"/>
@@ -10761,7 +10743,7 @@
       <c r="L85" s="55"/>
       <c r="M85" s="55"/>
       <c r="N85" s="55" t="s">
-        <v>2215</v>
+        <v>2211</v>
       </c>
       <c r="O85" s="55"/>
       <c r="P85" s="55"/>
@@ -10793,10 +10775,10 @@
         <v>15</v>
       </c>
       <c r="B86" s="55" t="s">
+        <v>2209</v>
+      </c>
+      <c r="C86" s="55" t="s">
         <v>2213</v>
-      </c>
-      <c r="C86" s="55" t="s">
-        <v>2217</v>
       </c>
       <c r="D86" s="55"/>
       <c r="E86" s="55"/>
@@ -10809,7 +10791,7 @@
       <c r="L86" s="55"/>
       <c r="M86" s="55"/>
       <c r="N86" s="55" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="O86" s="55"/>
       <c r="P86" s="55"/>
@@ -10844,10 +10826,10 @@
         <v>1917</v>
       </c>
       <c r="C87" s="55" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="D87" s="55" t="s">
-        <v>2133</v>
+        <v>2129</v>
       </c>
       <c r="E87" s="55"/>
       <c r="F87" s="55"/>
@@ -10859,7 +10841,7 @@
       <c r="L87" s="55"/>
       <c r="M87" s="55"/>
       <c r="N87" s="55" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="O87" s="55"/>
       <c r="P87" s="55"/>
@@ -10891,10 +10873,10 @@
         <v>11</v>
       </c>
       <c r="B88" s="55" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="C88" s="55" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="D88" s="55"/>
       <c r="E88" s="55"/>
@@ -10908,7 +10890,7 @@
       </c>
       <c r="J88" s="55"/>
       <c r="K88" s="55" t="s">
-        <v>2132</v>
+        <v>2128</v>
       </c>
       <c r="L88" s="55"/>
       <c r="M88" s="55"/>
@@ -10946,10 +10928,10 @@
         <v>1918</v>
       </c>
       <c r="C89" s="55" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="D89" s="55" t="s">
-        <v>2134</v>
+        <v>2130</v>
       </c>
       <c r="E89" s="55"/>
       <c r="F89" s="55"/>
@@ -10961,7 +10943,7 @@
       <c r="L89" s="55"/>
       <c r="M89" s="55"/>
       <c r="N89" s="55" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="O89" s="55"/>
       <c r="P89" s="55"/>
@@ -10993,10 +10975,10 @@
         <v>11</v>
       </c>
       <c r="B90" s="55" t="s">
-        <v>2136</v>
+        <v>2132</v>
       </c>
       <c r="C90" s="55" t="s">
-        <v>2137</v>
+        <v>2133</v>
       </c>
       <c r="D90" s="55"/>
       <c r="E90" s="55"/>
@@ -11010,7 +10992,7 @@
       </c>
       <c r="J90" s="55"/>
       <c r="K90" s="55" t="s">
-        <v>2138</v>
+        <v>2134</v>
       </c>
       <c r="L90" s="55"/>
       <c r="M90" s="55"/>
@@ -11045,10 +11027,10 @@
         <v>4</v>
       </c>
       <c r="B91" s="55" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="C91" s="55" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="D91" s="55"/>
       <c r="E91" s="55"/>
@@ -11060,12 +11042,12 @@
       </c>
       <c r="J91" s="55"/>
       <c r="K91" s="55" t="s">
-        <v>1919</v>
+        <v>2249</v>
       </c>
       <c r="L91" s="55"/>
       <c r="M91" s="55"/>
       <c r="N91" s="55" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="O91" s="55"/>
       <c r="P91" s="55"/>
@@ -11097,10 +11079,10 @@
         <v>15</v>
       </c>
       <c r="B92" s="55" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="C92" s="55" t="s">
-        <v>2203</v>
+        <v>2199</v>
       </c>
       <c r="D92" s="55"/>
       <c r="E92" s="55"/>
@@ -11113,7 +11095,7 @@
       <c r="L92" s="55"/>
       <c r="M92" s="55"/>
       <c r="N92" s="55" t="s">
-        <v>2198</v>
+        <v>2194</v>
       </c>
       <c r="O92" s="55"/>
       <c r="P92" s="55"/>
@@ -11145,10 +11127,10 @@
         <v>1503</v>
       </c>
       <c r="B93" s="55" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C93" s="55" t="s">
         <v>1920</v>
-      </c>
-      <c r="C93" s="55" t="s">
-        <v>1921</v>
       </c>
       <c r="D93" s="55"/>
       <c r="E93" s="55"/>
@@ -11163,7 +11145,7 @@
       <c r="L93" s="55"/>
       <c r="M93" s="55"/>
       <c r="N93" s="55" t="s">
-        <v>2198</v>
+        <v>2194</v>
       </c>
       <c r="O93" s="55"/>
       <c r="P93" s="55"/>
@@ -11194,13 +11176,13 @@
     </row>
     <row r="94" spans="1:36">
       <c r="A94" s="55" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B94" s="55" t="s">
+        <v>1950</v>
+      </c>
+      <c r="C94" s="55" t="s">
         <v>1922</v>
-      </c>
-      <c r="B94" s="55" t="s">
-        <v>1951</v>
-      </c>
-      <c r="C94" s="55" t="s">
-        <v>1923</v>
       </c>
       <c r="D94" s="55"/>
       <c r="E94" s="55"/>
@@ -11215,7 +11197,7 @@
       <c r="L94" s="55"/>
       <c r="M94" s="55"/>
       <c r="N94" s="55" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="O94" s="55"/>
       <c r="P94" s="55"/>
@@ -11249,7 +11231,7 @@
         <v>11</v>
       </c>
       <c r="B95" s="55" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="C95" s="55" t="s">
         <v>1916</v>
@@ -11265,7 +11247,7 @@
       <c r="L95" s="55"/>
       <c r="M95" s="55"/>
       <c r="N95" s="55" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="O95" s="55"/>
       <c r="P95" s="55"/>
@@ -11299,13 +11281,13 @@
         <v>24</v>
       </c>
       <c r="B96" s="55" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="C96" s="55" t="s">
         <v>1565</v>
       </c>
       <c r="D96" s="55" t="s">
-        <v>2135</v>
+        <v>2131</v>
       </c>
       <c r="E96" s="55"/>
       <c r="F96" s="55"/>
@@ -11317,7 +11299,7 @@
       <c r="L96" s="55"/>
       <c r="M96" s="55"/>
       <c r="N96" s="55" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="O96" s="55"/>
       <c r="P96" s="55"/>
@@ -11349,10 +11331,10 @@
         <v>11</v>
       </c>
       <c r="B97" s="55" t="s">
-        <v>2139</v>
+        <v>2135</v>
       </c>
       <c r="C97" s="55" t="s">
-        <v>2140</v>
+        <v>2136</v>
       </c>
       <c r="D97" s="55"/>
       <c r="E97" s="55"/>
@@ -11366,7 +11348,7 @@
       </c>
       <c r="J97" s="55"/>
       <c r="K97" s="55" t="s">
-        <v>2141</v>
+        <v>2137</v>
       </c>
       <c r="L97" s="55"/>
       <c r="M97" s="55"/>
@@ -11641,7 +11623,7 @@
         <v>1503</v>
       </c>
       <c r="B104" s="53" t="s">
-        <v>2200</v>
+        <v>2196</v>
       </c>
       <c r="C104" s="53" t="s">
         <v>1842</v>
@@ -11709,7 +11691,7 @@
       <c r="L105" s="53"/>
       <c r="M105" s="53"/>
       <c r="N105" s="53" t="s">
-        <v>2201</v>
+        <v>2197</v>
       </c>
       <c r="O105" s="53"/>
       <c r="P105" s="53"/>
@@ -11809,7 +11791,7 @@
       <c r="L107" s="53"/>
       <c r="M107" s="53"/>
       <c r="N107" s="53" t="s">
-        <v>2202</v>
+        <v>2198</v>
       </c>
       <c r="O107" s="53"/>
       <c r="P107" s="53"/>
@@ -11839,13 +11821,13 @@
         <v>11</v>
       </c>
       <c r="B108" s="53" t="s">
-        <v>2103</v>
+        <v>2100</v>
       </c>
       <c r="C108" s="53" t="s">
         <v>1626</v>
       </c>
       <c r="D108" s="53" t="s">
-        <v>2105</v>
+        <v>2102</v>
       </c>
       <c r="E108" s="53"/>
       <c r="F108" s="53"/>
@@ -11855,10 +11837,10 @@
       <c r="J108" s="53"/>
       <c r="K108" s="53"/>
       <c r="L108" s="53" t="s">
-        <v>2104</v>
+        <v>2101</v>
       </c>
       <c r="M108" s="53" t="s">
-        <v>2106</v>
+        <v>2103</v>
       </c>
       <c r="N108" s="53"/>
       <c r="O108" s="53"/>
@@ -11906,7 +11888,7 @@
       <c r="I109" s="53"/>
       <c r="J109" s="53"/>
       <c r="K109" s="53" t="s">
-        <v>2107</v>
+        <v>2104</v>
       </c>
       <c r="L109" s="53"/>
       <c r="M109" s="53"/>
@@ -11947,7 +11929,7 @@
         <v>1628</v>
       </c>
       <c r="D110" s="53" t="s">
-        <v>2142</v>
+        <v>2138</v>
       </c>
       <c r="E110" s="53"/>
       <c r="F110" s="53"/>
@@ -11989,10 +11971,10 @@
         <v>11</v>
       </c>
       <c r="B111" s="53" t="s">
-        <v>2143</v>
+        <v>2139</v>
       </c>
       <c r="C111" s="53" t="s">
-        <v>2144</v>
+        <v>2140</v>
       </c>
       <c r="D111" s="53"/>
       <c r="E111" s="53"/>
@@ -12006,7 +11988,7 @@
       </c>
       <c r="J111" s="53"/>
       <c r="K111" s="53" t="s">
-        <v>2145</v>
+        <v>2141</v>
       </c>
       <c r="L111" s="53"/>
       <c r="M111" s="53"/>
@@ -12269,7 +12251,7 @@
         <v>1891</v>
       </c>
       <c r="D118" s="56" t="s">
-        <v>2149</v>
+        <v>2145</v>
       </c>
       <c r="E118" s="56"/>
       <c r="F118" s="56"/>
@@ -12311,10 +12293,10 @@
         <v>11</v>
       </c>
       <c r="B119" s="56" t="s">
-        <v>2147</v>
+        <v>2143</v>
       </c>
       <c r="C119" s="56" t="s">
-        <v>2146</v>
+        <v>2142</v>
       </c>
       <c r="D119" s="56"/>
       <c r="E119" s="56"/>
@@ -12328,7 +12310,7 @@
       </c>
       <c r="J119" s="56"/>
       <c r="K119" s="56" t="s">
-        <v>2148</v>
+        <v>2144</v>
       </c>
       <c r="L119" s="56"/>
       <c r="M119" s="56"/>
@@ -12363,7 +12345,7 @@
         <v>1866</v>
       </c>
       <c r="B120" s="56" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C120" s="56" t="s">
         <v>1892</v>
@@ -12413,7 +12395,7 @@
         <v>11</v>
       </c>
       <c r="B121" s="56" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C121" s="56" t="s">
         <v>1873</v>
@@ -12429,7 +12411,7 @@
       <c r="L121" s="56"/>
       <c r="M121" s="56"/>
       <c r="N121" s="56" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
       <c r="O121" s="56"/>
       <c r="P121" s="56"/>
@@ -12480,7 +12462,7 @@
       <c r="M122" s="56"/>
       <c r="N122" s="56"/>
       <c r="O122" s="56" t="s">
-        <v>2095</v>
+        <v>2092</v>
       </c>
       <c r="P122" s="56"/>
       <c r="Q122" s="56"/>
@@ -12511,13 +12493,13 @@
         <v>38</v>
       </c>
       <c r="B123" s="56" t="s">
-        <v>2090</v>
+        <v>2087</v>
       </c>
       <c r="C123" s="56" t="s">
-        <v>2092</v>
+        <v>2089</v>
       </c>
       <c r="D123" s="56" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
       <c r="E123" s="56"/>
       <c r="F123" s="56"/>
@@ -12526,7 +12508,7 @@
       <c r="I123" s="56"/>
       <c r="J123" s="56"/>
       <c r="K123" s="56" t="s">
-        <v>2094</v>
+        <v>2091</v>
       </c>
       <c r="L123" s="56"/>
       <c r="M123" s="56"/>
@@ -12576,7 +12558,7 @@
       </c>
       <c r="J124" s="56"/>
       <c r="K124" s="56" t="s">
-        <v>2091</v>
+        <v>2088</v>
       </c>
       <c r="L124" s="56"/>
       <c r="M124" s="56"/>
@@ -12626,7 +12608,7 @@
       </c>
       <c r="J125" s="56"/>
       <c r="K125" s="56" t="s">
-        <v>2093</v>
+        <v>2090</v>
       </c>
       <c r="L125" s="56"/>
       <c r="M125" s="56"/>
@@ -12808,7 +12790,7 @@
         <v>1599</v>
       </c>
       <c r="C129" s="56" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D129" s="56"/>
       <c r="E129" s="56"/>
@@ -12923,7 +12905,7 @@
       <c r="L131" s="56"/>
       <c r="M131" s="56"/>
       <c r="N131" s="56" t="s">
-        <v>2224</v>
+        <v>2220</v>
       </c>
       <c r="O131" s="56"/>
       <c r="P131" s="56"/>
@@ -12973,7 +12955,7 @@
       <c r="L132" s="56"/>
       <c r="M132" s="56"/>
       <c r="N132" s="56" t="s">
-        <v>2224</v>
+        <v>2220</v>
       </c>
       <c r="O132" s="56"/>
       <c r="P132" s="56"/>
@@ -13025,7 +13007,7 @@
       <c r="L133" s="56"/>
       <c r="M133" s="56"/>
       <c r="N133" s="56" t="s">
-        <v>2225</v>
+        <v>2221</v>
       </c>
       <c r="O133" s="56"/>
       <c r="P133" s="56"/>
@@ -13125,7 +13107,7 @@
       <c r="L135" s="56"/>
       <c r="M135" s="56"/>
       <c r="N135" s="56" t="s">
-        <v>2226</v>
+        <v>2222</v>
       </c>
       <c r="O135" s="56"/>
       <c r="P135" s="56"/>
@@ -13425,7 +13407,7 @@
         <v>1876</v>
       </c>
       <c r="B143" s="64" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C143" s="64" t="s">
         <v>1892</v>
@@ -13475,10 +13457,10 @@
         <v>15</v>
       </c>
       <c r="B144" s="64" t="s">
-        <v>2245</v>
+        <v>2241</v>
       </c>
       <c r="C144" s="65" t="s">
-        <v>2246</v>
+        <v>2242</v>
       </c>
       <c r="D144" s="64"/>
       <c r="E144" s="64"/>
@@ -13491,7 +13473,7 @@
       <c r="L144" s="64"/>
       <c r="M144" s="64"/>
       <c r="N144" s="64" t="s">
-        <v>2247</v>
+        <v>2243</v>
       </c>
       <c r="O144" s="64"/>
       <c r="P144" s="64"/>
@@ -13523,7 +13505,7 @@
         <v>11</v>
       </c>
       <c r="B145" s="64" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C145" s="64" t="s">
         <v>1873</v>
@@ -13539,7 +13521,7 @@
       <c r="L145" s="64"/>
       <c r="M145" s="64"/>
       <c r="N145" s="64" t="s">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="O145" s="64"/>
       <c r="P145" s="64"/>
@@ -13590,7 +13572,7 @@
       <c r="M146" s="64"/>
       <c r="N146" s="64"/>
       <c r="O146" s="64" t="s">
-        <v>2095</v>
+        <v>2092</v>
       </c>
       <c r="P146" s="64"/>
       <c r="Q146" s="64"/>
@@ -13621,16 +13603,16 @@
         <v>38</v>
       </c>
       <c r="B147" s="64" t="s">
-        <v>2096</v>
+        <v>2093</v>
       </c>
       <c r="C147" s="64" t="s">
-        <v>2092</v>
+        <v>2089</v>
       </c>
       <c r="D147" s="64" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
       <c r="K147" s="64" t="s">
-        <v>2097</v>
+        <v>2094</v>
       </c>
       <c r="T147" s="64" t="s">
         <v>108</v>
@@ -13650,7 +13632,7 @@
         <v>1736</v>
       </c>
       <c r="K148" s="64" t="s">
-        <v>2098</v>
+        <v>2095</v>
       </c>
       <c r="T148" s="64" t="s">
         <v>106</v>
@@ -13661,7 +13643,7 @@
         <v>6</v>
       </c>
       <c r="B149" s="64" t="s">
-        <v>2241</v>
+        <v>2237</v>
       </c>
       <c r="C149" s="64" t="s">
         <v>1865</v>
@@ -13670,7 +13652,7 @@
         <v>1736</v>
       </c>
       <c r="K149" s="64" t="s">
-        <v>2099</v>
+        <v>2096</v>
       </c>
       <c r="T149" s="64" t="s">
         <v>108</v>
@@ -13681,10 +13663,10 @@
         <v>6</v>
       </c>
       <c r="B150" s="64" t="s">
+        <v>2030</v>
+      </c>
+      <c r="C150" s="64" t="s">
         <v>2032</v>
-      </c>
-      <c r="C150" s="64" t="s">
-        <v>2034</v>
       </c>
       <c r="D150" s="64"/>
       <c r="E150" s="64"/>
@@ -13697,7 +13679,7 @@
       <c r="L150" s="64"/>
       <c r="M150" s="64"/>
       <c r="N150" s="64" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
       <c r="O150" s="64"/>
       <c r="P150" s="64"/>
@@ -13729,10 +13711,10 @@
         <v>6</v>
       </c>
       <c r="B151" s="64" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C151" s="64" t="s">
         <v>2033</v>
-      </c>
-      <c r="C151" s="64" t="s">
-        <v>2035</v>
       </c>
       <c r="D151" s="64"/>
       <c r="E151" s="64"/>
@@ -13745,7 +13727,7 @@
       <c r="L151" s="64"/>
       <c r="M151" s="64"/>
       <c r="N151" s="64" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
       <c r="O151" s="64"/>
       <c r="P151" s="64"/>
@@ -13783,16 +13765,16 @@
         <v>1863</v>
       </c>
       <c r="D152" s="64" t="s">
-        <v>2244</v>
+        <v>2240</v>
       </c>
       <c r="K152" s="64" t="s">
-        <v>2057</v>
+        <v>2054</v>
       </c>
       <c r="T152" s="64" t="s">
         <v>96</v>
       </c>
       <c r="X152" s="64" t="s">
-        <v>2253</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="153" spans="1:36" s="64" customFormat="1">
@@ -13809,13 +13791,13 @@
         <v>1736</v>
       </c>
       <c r="K153" s="64" t="s">
-        <v>2242</v>
+        <v>2238</v>
       </c>
       <c r="T153" s="64" t="s">
         <v>96</v>
       </c>
       <c r="X153" s="64" t="s">
-        <v>2253</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="154" spans="1:36">
@@ -13874,7 +13856,7 @@
         <v>1599</v>
       </c>
       <c r="C155" s="64" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D155" s="64"/>
       <c r="E155" s="64"/>
@@ -13989,7 +13971,7 @@
       <c r="L157" s="64"/>
       <c r="M157" s="64"/>
       <c r="N157" s="64" t="s">
-        <v>2227</v>
+        <v>2223</v>
       </c>
       <c r="O157" s="64"/>
       <c r="P157" s="64"/>
@@ -14039,7 +14021,7 @@
       <c r="L158" s="64"/>
       <c r="M158" s="64"/>
       <c r="N158" s="64" t="s">
-        <v>2227</v>
+        <v>2223</v>
       </c>
       <c r="O158" s="64"/>
       <c r="P158" s="64"/>
@@ -14070,7 +14052,7 @@
     </row>
     <row r="159" spans="1:36" s="51" customFormat="1">
       <c r="A159" s="64" t="s">
-        <v>2087</v>
+        <v>2084</v>
       </c>
       <c r="B159" s="64" t="s">
         <v>1603</v>
@@ -14091,7 +14073,7 @@
       <c r="L159" s="64"/>
       <c r="M159" s="64"/>
       <c r="N159" s="64" t="s">
-        <v>2228</v>
+        <v>2224</v>
       </c>
       <c r="O159" s="64"/>
       <c r="P159" s="64"/>
@@ -14191,7 +14173,7 @@
       <c r="L161" s="64"/>
       <c r="M161" s="64"/>
       <c r="N161" s="64" t="s">
-        <v>2229</v>
+        <v>2225</v>
       </c>
       <c r="O161" s="64"/>
       <c r="P161" s="64"/>
@@ -14550,13 +14532,13 @@
     </row>
     <row r="169" spans="1:36">
       <c r="A169" s="64" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="B169" s="64" t="s">
         <v>1878</v>
       </c>
       <c r="C169" s="64" t="s">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D169" s="64"/>
       <c r="E169" s="64"/>
@@ -15028,7 +15010,7 @@
       <c r="I180" s="58"/>
       <c r="J180" s="58"/>
       <c r="K180" s="58" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="L180" s="58"/>
       <c r="M180" s="58"/>
@@ -15080,7 +15062,7 @@
       <c r="I181" s="58"/>
       <c r="J181" s="58"/>
       <c r="K181" s="58" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="L181" s="58"/>
       <c r="M181" s="58"/>
@@ -15132,7 +15114,7 @@
       </c>
       <c r="J182" s="58"/>
       <c r="K182" s="58" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="L182" s="58"/>
       <c r="M182" s="58"/>
@@ -15182,7 +15164,7 @@
       <c r="I183" s="58"/>
       <c r="J183" s="58"/>
       <c r="K183" s="58" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="L183" s="58"/>
       <c r="M183" s="58"/>
@@ -15235,7 +15217,7 @@
       <c r="L184" s="58"/>
       <c r="M184" s="58"/>
       <c r="N184" s="58" t="s">
-        <v>2230</v>
+        <v>2226</v>
       </c>
       <c r="O184" s="58"/>
       <c r="P184" s="58"/>
@@ -15285,7 +15267,7 @@
       <c r="L185" s="58"/>
       <c r="M185" s="58"/>
       <c r="N185" s="58" t="s">
-        <v>2230</v>
+        <v>2226</v>
       </c>
       <c r="O185" s="58"/>
       <c r="P185" s="58"/>
@@ -15335,7 +15317,7 @@
       <c r="L186" s="58"/>
       <c r="M186" s="58"/>
       <c r="N186" s="58" t="s">
-        <v>2231</v>
+        <v>2227</v>
       </c>
       <c r="O186" s="58"/>
       <c r="P186" s="58"/>
@@ -15387,7 +15369,7 @@
       <c r="L187" s="58"/>
       <c r="M187" s="58"/>
       <c r="N187" s="58" t="s">
-        <v>2232</v>
+        <v>2228</v>
       </c>
       <c r="O187" s="58"/>
       <c r="P187" s="58"/>
@@ -15435,7 +15417,7 @@
       <c r="L188" s="58"/>
       <c r="M188" s="58"/>
       <c r="N188" s="58" t="s">
-        <v>2232</v>
+        <v>2228</v>
       </c>
       <c r="O188" s="58"/>
       <c r="P188" s="58"/>
@@ -15485,7 +15467,7 @@
       <c r="L189" s="58"/>
       <c r="M189" s="58"/>
       <c r="N189" s="58" t="s">
-        <v>2232</v>
+        <v>2228</v>
       </c>
       <c r="O189" s="58"/>
       <c r="P189" s="58"/>
@@ -15533,7 +15515,7 @@
       <c r="L190" s="61"/>
       <c r="M190" s="61"/>
       <c r="N190" s="58" t="s">
-        <v>2232</v>
+        <v>2228</v>
       </c>
       <c r="O190" s="61"/>
       <c r="P190" s="61"/>
@@ -15581,7 +15563,7 @@
       <c r="L191" s="58"/>
       <c r="M191" s="58"/>
       <c r="N191" s="58" t="s">
-        <v>2232</v>
+        <v>2228</v>
       </c>
       <c r="O191" s="58"/>
       <c r="P191" s="58"/>
@@ -15628,12 +15610,12 @@
       <c r="I192" s="58"/>
       <c r="J192" s="58"/>
       <c r="K192" s="58" t="s">
-        <v>2243</v>
+        <v>2239</v>
       </c>
       <c r="L192" s="58"/>
       <c r="M192" s="58"/>
       <c r="N192" s="58" t="s">
-        <v>2232</v>
+        <v>2228</v>
       </c>
       <c r="O192" s="58"/>
       <c r="P192" s="58"/>
@@ -15685,7 +15667,7 @@
       <c r="L193" s="58"/>
       <c r="M193" s="58"/>
       <c r="N193" s="58" t="s">
-        <v>2232</v>
+        <v>2228</v>
       </c>
       <c r="O193" s="58"/>
       <c r="P193" s="58"/>
@@ -15732,12 +15714,12 @@
       </c>
       <c r="J194" s="58"/>
       <c r="K194" s="58" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="L194" s="58"/>
       <c r="M194" s="58"/>
       <c r="N194" s="58" t="s">
-        <v>2232</v>
+        <v>2228</v>
       </c>
       <c r="O194" s="58"/>
       <c r="P194" s="58"/>
@@ -15782,12 +15764,12 @@
       <c r="I195" s="58"/>
       <c r="J195" s="58"/>
       <c r="K195" s="58" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="L195" s="58"/>
       <c r="M195" s="58"/>
       <c r="N195" s="58" t="s">
-        <v>2232</v>
+        <v>2228</v>
       </c>
       <c r="O195" s="58"/>
       <c r="P195" s="58"/>
@@ -15835,7 +15817,7 @@
       <c r="L196" s="58"/>
       <c r="M196" s="58"/>
       <c r="N196" s="58" t="s">
-        <v>2233</v>
+        <v>2229</v>
       </c>
       <c r="O196" s="58"/>
       <c r="P196" s="58"/>
@@ -15883,7 +15865,7 @@
       <c r="L197" s="58"/>
       <c r="M197" s="58"/>
       <c r="N197" s="58" t="s">
-        <v>2234</v>
+        <v>2230</v>
       </c>
       <c r="O197" s="58"/>
       <c r="P197" s="58"/>
@@ -15930,12 +15912,12 @@
       <c r="I198" s="58"/>
       <c r="J198" s="58"/>
       <c r="K198" s="58" t="s">
-        <v>2122</v>
+        <v>2118</v>
       </c>
       <c r="L198" s="58"/>
       <c r="M198" s="58"/>
       <c r="N198" s="58" t="s">
-        <v>2235</v>
+        <v>2231</v>
       </c>
       <c r="O198" s="58"/>
       <c r="P198" s="58"/>
@@ -16283,13 +16265,13 @@
         <v>45</v>
       </c>
       <c r="B207" s="59" t="s">
-        <v>2211</v>
+        <v>2207</v>
       </c>
       <c r="C207" s="59" t="s">
         <v>1770</v>
       </c>
       <c r="D207" s="59" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="E207" s="59"/>
       <c r="F207" s="59" t="s">
@@ -16317,7 +16299,7 @@
       </c>
       <c r="Y207" s="66"/>
       <c r="Z207" s="66" t="s">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="AA207" s="66"/>
       <c r="AB207" s="66"/>
@@ -16637,10 +16619,10 @@
         <v>15</v>
       </c>
       <c r="B214" s="59" t="s">
-        <v>2101</v>
+        <v>2098</v>
       </c>
       <c r="C214" s="59" t="s">
-        <v>2102</v>
+        <v>2099</v>
       </c>
       <c r="D214" s="59"/>
       <c r="E214" s="59"/>
@@ -16886,7 +16868,7 @@
         <v>1582</v>
       </c>
       <c r="C219" s="59" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D219" s="59"/>
       <c r="E219" s="59"/>
@@ -17303,7 +17285,7 @@
         <v>11</v>
       </c>
       <c r="B229" s="68" t="s">
-        <v>2196</v>
+        <v>2192</v>
       </c>
       <c r="C229" s="68" t="s">
         <v>1873</v>
@@ -17319,7 +17301,7 @@
       <c r="L229" s="68"/>
       <c r="M229" s="68"/>
       <c r="N229" s="68" t="s">
-        <v>2197</v>
+        <v>2193</v>
       </c>
       <c r="O229" s="68"/>
       <c r="P229" s="68"/>
@@ -17351,13 +17333,13 @@
         <v>11</v>
       </c>
       <c r="B230" s="68" t="s">
-        <v>2111</v>
+        <v>2107</v>
       </c>
       <c r="C230" s="68" t="s">
         <v>1909</v>
       </c>
       <c r="D230" s="68" t="s">
-        <v>2112</v>
+        <v>2108</v>
       </c>
       <c r="E230" s="68"/>
       <c r="F230" s="68"/>
@@ -17367,10 +17349,10 @@
       <c r="J230" s="68"/>
       <c r="K230" s="68"/>
       <c r="L230" s="68" t="s">
-        <v>2113</v>
+        <v>2109</v>
       </c>
       <c r="M230" s="68" t="s">
-        <v>2114</v>
+        <v>2110</v>
       </c>
       <c r="N230" s="68"/>
       <c r="O230" s="68"/>
@@ -17418,7 +17400,7 @@
       <c r="I231" s="68"/>
       <c r="J231" s="68"/>
       <c r="K231" s="68" t="s">
-        <v>2115</v>
+        <v>2111</v>
       </c>
       <c r="L231" s="68"/>
       <c r="M231" s="68"/>
@@ -17456,7 +17438,7 @@
         <v>1619</v>
       </c>
       <c r="C232" s="68" t="s">
-        <v>2223</v>
+        <v>2219</v>
       </c>
       <c r="D232" s="68"/>
       <c r="E232" s="68"/>
@@ -17505,13 +17487,13 @@
         <v>11</v>
       </c>
       <c r="B233" s="68" t="s">
-        <v>2117</v>
+        <v>2113</v>
       </c>
       <c r="C233" s="68" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="D233" s="68" t="s">
-        <v>2118</v>
+        <v>2114</v>
       </c>
       <c r="E233" s="68"/>
       <c r="F233" s="68"/>
@@ -17521,10 +17503,10 @@
       <c r="J233" s="68"/>
       <c r="K233" s="68"/>
       <c r="L233" s="68" t="s">
-        <v>2113</v>
+        <v>2109</v>
       </c>
       <c r="M233" s="68" t="s">
-        <v>2114</v>
+        <v>2110</v>
       </c>
       <c r="N233" s="68" t="s">
         <v>1742</v>
@@ -17562,7 +17544,7 @@
         <v>1835</v>
       </c>
       <c r="C234" s="68" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="D234" s="68"/>
       <c r="E234" s="68"/>
@@ -17574,7 +17556,7 @@
       <c r="I234" s="68"/>
       <c r="J234" s="68"/>
       <c r="K234" s="68" t="s">
-        <v>2116</v>
+        <v>2112</v>
       </c>
       <c r="L234" s="68"/>
       <c r="M234" s="68"/>
@@ -17614,7 +17596,7 @@
         <v>1834</v>
       </c>
       <c r="C235" s="68" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="D235" s="68"/>
       <c r="E235" s="68"/>
@@ -17662,7 +17644,7 @@
         <v>1598</v>
       </c>
       <c r="C236" s="68" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="D236" s="68"/>
       <c r="E236" s="68"/>
@@ -17672,7 +17654,7 @@
       <c r="I236" s="68"/>
       <c r="J236" s="68"/>
       <c r="K236" s="68" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="L236" s="68"/>
       <c r="M236" s="68"/>
@@ -17707,10 +17689,10 @@
         <v>6</v>
       </c>
       <c r="B237" s="68" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="C237" s="68" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="D237" s="68"/>
       <c r="E237" s="68"/>
@@ -17722,12 +17704,12 @@
       </c>
       <c r="J237" s="68"/>
       <c r="K237" s="68" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="L237" s="68"/>
       <c r="M237" s="68"/>
       <c r="N237" s="68" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="O237" s="68"/>
       <c r="P237" s="68"/>
@@ -17762,7 +17744,7 @@
         <v>1814</v>
       </c>
       <c r="C238" s="68" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="D238" s="68"/>
       <c r="E238" s="68"/>
@@ -17774,12 +17756,12 @@
       </c>
       <c r="J238" s="68"/>
       <c r="K238" s="68" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="L238" s="68"/>
       <c r="M238" s="68"/>
       <c r="N238" s="68" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="O238" s="68"/>
       <c r="P238" s="68"/>
@@ -17824,7 +17806,7 @@
       <c r="I239" s="68"/>
       <c r="J239" s="68"/>
       <c r="K239" s="68" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="L239" s="68"/>
       <c r="M239" s="68"/>
@@ -17877,7 +17859,7 @@
       <c r="L240" s="68"/>
       <c r="M240" s="68"/>
       <c r="N240" s="68" t="s">
-        <v>2236</v>
+        <v>2232</v>
       </c>
       <c r="O240" s="68"/>
       <c r="P240" s="68"/>
@@ -17925,7 +17907,7 @@
       <c r="L241" s="68"/>
       <c r="M241" s="68"/>
       <c r="N241" s="68" t="s">
-        <v>2237</v>
+        <v>2233</v>
       </c>
       <c r="O241" s="68"/>
       <c r="P241" s="68"/>
@@ -17975,7 +17957,7 @@
       <c r="L242" s="68"/>
       <c r="M242" s="68"/>
       <c r="N242" s="68" t="s">
-        <v>2238</v>
+        <v>2234</v>
       </c>
       <c r="O242" s="68"/>
       <c r="P242" s="68"/>
@@ -18023,7 +18005,7 @@
       <c r="L243" s="68"/>
       <c r="M243" s="68"/>
       <c r="N243" s="68" t="s">
-        <v>2239</v>
+        <v>2235</v>
       </c>
       <c r="O243" s="68"/>
       <c r="P243" s="68"/>
@@ -18077,7 +18059,7 @@
       <c r="L244" s="68"/>
       <c r="M244" s="68"/>
       <c r="N244" s="68" t="s">
-        <v>2240</v>
+        <v>2236</v>
       </c>
       <c r="O244" s="68"/>
       <c r="P244" s="68"/>
@@ -18231,10 +18213,10 @@
         <v>27</v>
       </c>
       <c r="B248" s="70" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C248" s="70" t="s">
         <v>1938</v>
-      </c>
-      <c r="C248" s="70" t="s">
-        <v>1939</v>
       </c>
       <c r="D248" s="70"/>
       <c r="E248" s="70"/>
@@ -18249,7 +18231,7 @@
       <c r="L248" s="70"/>
       <c r="M248" s="70"/>
       <c r="N248" s="56" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="O248" s="70"/>
       <c r="P248" s="70"/>
@@ -18276,13 +18258,13 @@
     </row>
     <row r="249" spans="1:36">
       <c r="A249" s="70" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="B249" s="70" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="C249" s="70" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="D249" s="70"/>
       <c r="E249" s="70"/>
@@ -18324,13 +18306,13 @@
     </row>
     <row r="250" spans="1:36">
       <c r="A250" s="70" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="B250" s="70" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="C250" s="70" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D250" s="70"/>
       <c r="E250" s="70"/>
@@ -18554,13 +18536,13 @@
     </row>
     <row r="255" spans="1:36">
       <c r="A255" s="70" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="B255" s="70" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C255" s="70" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D255" s="70"/>
       <c r="E255" s="70"/>
@@ -18600,13 +18582,13 @@
     </row>
     <row r="256" spans="1:36">
       <c r="A256" s="70" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B256" s="70" t="s">
+        <v>2010</v>
+      </c>
+      <c r="C256" s="70" t="s">
         <v>2016</v>
-      </c>
-      <c r="B256" s="70" t="s">
-        <v>2012</v>
-      </c>
-      <c r="C256" s="70" t="s">
-        <v>2018</v>
       </c>
       <c r="D256" s="70"/>
       <c r="E256" s="70"/>
@@ -18704,7 +18686,7 @@
         <v>1784</v>
       </c>
       <c r="C258" s="56" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="D258" s="56"/>
       <c r="E258" s="56"/>
@@ -18749,10 +18731,10 @@
         <v>24</v>
       </c>
       <c r="B259" s="56" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="C259" s="56" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="D259" s="56"/>
       <c r="E259" s="56"/>
@@ -18797,10 +18779,10 @@
         <v>24</v>
       </c>
       <c r="B260" s="56" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="C260" s="56" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="D260" s="56"/>
       <c r="E260" s="56"/>
@@ -18845,10 +18827,10 @@
         <v>1771</v>
       </c>
       <c r="B261" s="56" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="C261" s="56" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="D261" s="56"/>
       <c r="E261" s="56"/>
@@ -18896,7 +18878,7 @@
       </c>
       <c r="B262" s="70"/>
       <c r="C262" s="70" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="D262" s="70"/>
       <c r="E262" s="70"/>
@@ -18975,10 +18957,10 @@
         <v>27</v>
       </c>
       <c r="B264" s="55" t="s">
-        <v>2222</v>
+        <v>2218</v>
       </c>
       <c r="C264" s="55" t="s">
-        <v>2221</v>
+        <v>2217</v>
       </c>
       <c r="D264" s="55"/>
       <c r="E264" s="55"/>
@@ -19029,7 +19011,7 @@
         <v>1911</v>
       </c>
       <c r="D265" s="55" t="s">
-        <v>2153</v>
+        <v>2149</v>
       </c>
       <c r="E265" s="55"/>
       <c r="F265" s="55"/>
@@ -19071,10 +19053,10 @@
         <v>11</v>
       </c>
       <c r="B266" s="55" t="s">
-        <v>2150</v>
+        <v>2146</v>
       </c>
       <c r="C266" s="55" t="s">
-        <v>2151</v>
+        <v>2147</v>
       </c>
       <c r="D266" s="55"/>
       <c r="E266" s="55"/>
@@ -19088,7 +19070,7 @@
       </c>
       <c r="J266" s="55"/>
       <c r="K266" s="55" t="s">
-        <v>2152</v>
+        <v>2148</v>
       </c>
       <c r="L266" s="55"/>
       <c r="M266" s="55"/>
@@ -19129,7 +19111,7 @@
         <v>1910</v>
       </c>
       <c r="D267" s="55" t="s">
-        <v>2154</v>
+        <v>2150</v>
       </c>
       <c r="E267" s="55"/>
       <c r="F267" s="55"/>
@@ -19171,10 +19153,10 @@
         <v>11</v>
       </c>
       <c r="B268" s="55" t="s">
-        <v>2155</v>
+        <v>2151</v>
       </c>
       <c r="C268" s="55" t="s">
-        <v>2156</v>
+        <v>2152</v>
       </c>
       <c r="D268" s="55"/>
       <c r="E268" s="55"/>
@@ -19188,7 +19170,7 @@
       </c>
       <c r="J268" s="55"/>
       <c r="K268" s="55" t="s">
-        <v>2157</v>
+        <v>2153</v>
       </c>
       <c r="L268" s="55"/>
       <c r="M268" s="55"/>
@@ -19271,13 +19253,13 @@
         <v>15</v>
       </c>
       <c r="B270" s="55" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="C270" s="55" t="s">
-        <v>2252</v>
+        <v>2247</v>
       </c>
       <c r="N270" s="55" t="s">
-        <v>2251</v>
+        <v>2246</v>
       </c>
       <c r="T270" s="55" t="s">
         <v>108</v>
@@ -19288,7 +19270,7 @@
         <v>1503</v>
       </c>
       <c r="B271" s="55" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="C271" s="55" t="s">
         <v>1764</v>
@@ -19297,7 +19279,7 @@
         <v>55</v>
       </c>
       <c r="N271" s="55" t="s">
-        <v>2251</v>
+        <v>2246</v>
       </c>
       <c r="T271" s="55" t="s">
         <v>108</v>
@@ -19314,7 +19296,7 @@
         <v>1764</v>
       </c>
       <c r="D272" s="55" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="E272" s="55"/>
       <c r="F272" s="55"/>
@@ -19323,7 +19305,7 @@
       <c r="I272" s="55"/>
       <c r="J272" s="55"/>
       <c r="K272" s="55" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="L272" s="55"/>
       <c r="M272" s="55"/>
@@ -19360,7 +19342,7 @@
         <v>24</v>
       </c>
       <c r="B273" s="55" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="C273" s="55" t="s">
         <v>1906</v>
@@ -19376,7 +19358,7 @@
       <c r="L273" s="55"/>
       <c r="M273" s="55"/>
       <c r="N273" s="55" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="O273" s="55"/>
       <c r="P273" s="55"/>
@@ -19414,7 +19396,7 @@
         <v>1906</v>
       </c>
       <c r="D274" s="55" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="E274" s="55"/>
       <c r="F274" s="55"/>
@@ -19423,7 +19405,7 @@
       <c r="I274" s="55"/>
       <c r="J274" s="55"/>
       <c r="K274" s="55" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="L274" s="55"/>
       <c r="M274" s="55"/>
@@ -19458,13 +19440,13 @@
         <v>11</v>
       </c>
       <c r="B275" s="55" t="s">
-        <v>2119</v>
+        <v>2115</v>
       </c>
       <c r="C275" s="55" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="D275" s="55" t="s">
-        <v>2120</v>
+        <v>2116</v>
       </c>
       <c r="E275" s="55"/>
       <c r="F275" s="55"/>
@@ -19474,13 +19456,13 @@
       <c r="J275" s="55"/>
       <c r="K275" s="55"/>
       <c r="L275" s="55" t="s">
-        <v>2104</v>
+        <v>2101</v>
       </c>
       <c r="M275" s="55" t="s">
-        <v>2106</v>
+        <v>2103</v>
       </c>
       <c r="N275" s="55" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="O275" s="55"/>
       <c r="P275" s="55"/>
@@ -19512,10 +19494,10 @@
         <v>6</v>
       </c>
       <c r="B276" s="55" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="C276" s="55" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="D276" s="55"/>
       <c r="E276" s="55"/>
@@ -19527,12 +19509,12 @@
       <c r="I276" s="55"/>
       <c r="J276" s="55"/>
       <c r="K276" s="55" t="s">
-        <v>2121</v>
+        <v>2117</v>
       </c>
       <c r="L276" s="55"/>
       <c r="M276" s="55"/>
       <c r="N276" s="55" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="O276" s="55"/>
       <c r="P276" s="55"/>
@@ -19564,10 +19546,10 @@
         <v>24</v>
       </c>
       <c r="B277" s="55" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="C277" s="55" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="D277" s="55"/>
       <c r="E277" s="55"/>
@@ -19580,7 +19562,7 @@
       <c r="L277" s="55"/>
       <c r="M277" s="55"/>
       <c r="N277" s="55" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="O277" s="55"/>
       <c r="P277" s="55"/>
@@ -19612,10 +19594,10 @@
         <v>24</v>
       </c>
       <c r="B278" s="55" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="C278" s="55" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="D278" s="55"/>
       <c r="E278" s="55"/>
@@ -19628,7 +19610,7 @@
       <c r="L278" s="55"/>
       <c r="M278" s="55"/>
       <c r="N278" s="55" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="O278" s="55"/>
       <c r="P278" s="55"/>
@@ -19660,10 +19642,10 @@
         <v>4</v>
       </c>
       <c r="B279" s="55" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="C279" s="55" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="D279" s="55"/>
       <c r="E279" s="55"/>
@@ -19675,12 +19657,12 @@
       </c>
       <c r="J279" s="55"/>
       <c r="K279" s="55" t="s">
-        <v>1958</v>
+        <v>2250</v>
       </c>
       <c r="L279" s="55"/>
       <c r="M279" s="55"/>
       <c r="N279" s="55" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="O279" s="55"/>
       <c r="P279" s="55"/>
@@ -19712,10 +19694,10 @@
         <v>15</v>
       </c>
       <c r="B280" s="55" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="C280" s="55" t="s">
-        <v>2203</v>
+        <v>2199</v>
       </c>
       <c r="D280" s="55"/>
       <c r="E280" s="55"/>
@@ -19728,7 +19710,7 @@
       <c r="L280" s="55"/>
       <c r="M280" s="55"/>
       <c r="N280" s="55" t="s">
-        <v>2199</v>
+        <v>2195</v>
       </c>
       <c r="O280" s="55"/>
       <c r="P280" s="55"/>
@@ -19760,10 +19742,10 @@
         <v>1503</v>
       </c>
       <c r="B281" s="55" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="C281" s="55" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="D281" s="55"/>
       <c r="E281" s="55"/>
@@ -19778,7 +19760,7 @@
       <c r="L281" s="55"/>
       <c r="M281" s="55"/>
       <c r="N281" s="55" t="s">
-        <v>2199</v>
+        <v>2195</v>
       </c>
       <c r="O281" s="55"/>
       <c r="P281" s="55"/>
@@ -19807,13 +19789,13 @@
     </row>
     <row r="282" spans="1:36">
       <c r="A282" s="55" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B282" s="55" t="s">
+        <v>1962</v>
+      </c>
+      <c r="C282" s="55" t="s">
         <v>1922</v>
-      </c>
-      <c r="B282" s="55" t="s">
-        <v>1964</v>
-      </c>
-      <c r="C282" s="55" t="s">
-        <v>1923</v>
       </c>
       <c r="D282" s="55"/>
       <c r="E282" s="55"/>
@@ -19828,7 +19810,7 @@
       <c r="L282" s="55"/>
       <c r="M282" s="55"/>
       <c r="N282" s="55" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="O282" s="55"/>
       <c r="P282" s="55"/>
@@ -19860,7 +19842,7 @@
         <v>11</v>
       </c>
       <c r="B283" s="55" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
       <c r="C283" s="55" t="s">
         <v>1916</v>
@@ -19876,7 +19858,7 @@
       <c r="L283" s="55"/>
       <c r="M283" s="55"/>
       <c r="N283" s="55" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="O283" s="55"/>
       <c r="P283" s="55"/>
@@ -19908,7 +19890,7 @@
         <v>24</v>
       </c>
       <c r="B284" s="55" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="C284" s="55" t="s">
         <v>1565</v>
@@ -19924,7 +19906,7 @@
       <c r="L284" s="55"/>
       <c r="M284" s="55"/>
       <c r="N284" s="55" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="O284" s="55"/>
       <c r="P284" s="55"/>
@@ -19953,7 +19935,7 @@
     </row>
     <row r="285" spans="1:36">
       <c r="A285" s="55" t="s">
-        <v>2050</v>
+        <v>2047</v>
       </c>
       <c r="B285" s="55" t="s">
         <v>1861</v>
@@ -20003,13 +19985,13 @@
     </row>
     <row r="286" spans="1:36">
       <c r="A286" s="55" t="s">
-        <v>2050</v>
+        <v>2047</v>
       </c>
       <c r="B286" s="55" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C286" s="55" t="s">
         <v>2025</v>
-      </c>
-      <c r="C286" s="55" t="s">
-        <v>2027</v>
       </c>
       <c r="D286" s="55"/>
       <c r="E286" s="55"/>
@@ -20072,7 +20054,7 @@
       <c r="L287" s="55"/>
       <c r="M287" s="55"/>
       <c r="N287" s="55" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="O287" s="55"/>
       <c r="P287" s="55"/>
@@ -20221,8 +20203,8 @@
   <dimension ref="A1:XFD136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16:XFD16"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20268,10 +20250,10 @@
         <v>1679</v>
       </c>
       <c r="B5" t="s">
-        <v>2043</v>
+        <v>2040</v>
       </c>
       <c r="C5" t="s">
-        <v>2043</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -20290,10 +20272,10 @@
         <v>1680</v>
       </c>
       <c r="B8" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
       <c r="C8" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -20301,10 +20283,10 @@
         <v>1681</v>
       </c>
       <c r="B9" t="s">
-        <v>2045</v>
+        <v>2042</v>
       </c>
       <c r="C9" t="s">
-        <v>2045</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -20323,10 +20305,10 @@
         <v>1682</v>
       </c>
       <c r="B12" t="s">
-        <v>2046</v>
+        <v>2043</v>
       </c>
       <c r="C12" t="s">
-        <v>2046</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -20334,10 +20316,10 @@
         <v>1682</v>
       </c>
       <c r="B13" t="s">
-        <v>2048</v>
+        <v>2045</v>
       </c>
       <c r="C13" t="s">
-        <v>2048</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -20345,10 +20327,10 @@
         <v>1683</v>
       </c>
       <c r="B14" t="s">
-        <v>2047</v>
+        <v>2044</v>
       </c>
       <c r="C14" t="s">
-        <v>2047</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -20400,10 +20382,10 @@
         <v>1699</v>
       </c>
       <c r="B21" t="s">
-        <v>2049</v>
+        <v>2046</v>
       </c>
       <c r="C21" t="s">
-        <v>2049</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -20411,10 +20393,10 @@
         <v>1700</v>
       </c>
       <c r="B22" t="s">
-        <v>2088</v>
+        <v>2085</v>
       </c>
       <c r="C22" t="s">
-        <v>2088</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -20507,18 +20489,18 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>2051</v>
+        <v>2048</v>
       </c>
       <c r="B34" t="s">
-        <v>2052</v>
+        <v>2049</v>
       </c>
       <c r="C34" t="s">
-        <v>2052</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>2051</v>
+        <v>2048</v>
       </c>
       <c r="B35" t="s">
         <v>1669</v>
@@ -20529,7 +20511,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>2051</v>
+        <v>2048</v>
       </c>
       <c r="B36" t="s">
         <v>1670</v>
@@ -20540,18 +20522,18 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>2051</v>
+        <v>2048</v>
       </c>
       <c r="B37" t="s">
-        <v>2194</v>
+        <v>2190</v>
       </c>
       <c r="C37" t="s">
-        <v>2194</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>2051</v>
+        <v>2048</v>
       </c>
       <c r="B38" t="s">
         <v>1671</v>
@@ -20565,10 +20547,10 @@
         <v>1725</v>
       </c>
       <c r="B40" t="s">
-        <v>2053</v>
+        <v>2050</v>
       </c>
       <c r="C40" t="s">
-        <v>2053</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -20576,10 +20558,10 @@
         <v>1726</v>
       </c>
       <c r="B41" t="s">
-        <v>2054</v>
+        <v>2051</v>
       </c>
       <c r="C41" t="s">
-        <v>2054</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -20587,10 +20569,10 @@
         <v>1727</v>
       </c>
       <c r="B42" t="s">
-        <v>2100</v>
+        <v>2097</v>
       </c>
       <c r="C42" t="s">
-        <v>2100</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -20631,10 +20613,10 @@
         <v>1877</v>
       </c>
       <c r="B47" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="C47" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -20642,10 +20624,10 @@
         <v>1877</v>
       </c>
       <c r="B48" t="s">
-        <v>2055</v>
+        <v>2052</v>
       </c>
       <c r="C48" t="s">
-        <v>2055</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="49" spans="1:3 16384:16384">
@@ -20653,10 +20635,10 @@
         <v>1877</v>
       </c>
       <c r="B49" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="C49" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="50" spans="1:3 16384:16384">
@@ -20675,10 +20657,10 @@
         <v>1730</v>
       </c>
       <c r="B52" s="71" t="s">
-        <v>2065</v>
+        <v>2062</v>
       </c>
       <c r="C52" s="71" t="s">
-        <v>2058</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="53" spans="1:3 16384:16384">
@@ -20686,10 +20668,10 @@
         <v>1732</v>
       </c>
       <c r="B53" s="71" t="s">
-        <v>2066</v>
+        <v>2063</v>
       </c>
       <c r="C53" s="71" t="s">
-        <v>2059</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="54" spans="1:3 16384:16384">
@@ -20697,10 +20679,10 @@
         <v>1730</v>
       </c>
       <c r="B54" s="71" t="s">
-        <v>2067</v>
+        <v>2064</v>
       </c>
       <c r="C54" s="71" t="s">
-        <v>2060</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="55" spans="1:3 16384:16384">
@@ -20708,10 +20690,10 @@
         <v>1730</v>
       </c>
       <c r="B55" s="71" t="s">
-        <v>2068</v>
+        <v>2065</v>
       </c>
       <c r="C55" s="71" t="s">
-        <v>2061</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="56" spans="1:3 16384:16384">
@@ -20719,10 +20701,10 @@
         <v>1730</v>
       </c>
       <c r="B56" s="71" t="s">
-        <v>2069</v>
+        <v>2066</v>
       </c>
       <c r="C56" s="71" t="s">
-        <v>2062</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="57" spans="1:3 16384:16384">
@@ -20730,10 +20712,10 @@
         <v>1730</v>
       </c>
       <c r="B57" s="71" t="s">
-        <v>2070</v>
+        <v>2067</v>
       </c>
       <c r="C57" s="71" t="s">
-        <v>2063</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="58" spans="1:3 16384:16384">
@@ -20752,10 +20734,10 @@
         <v>1730</v>
       </c>
       <c r="B59" s="71" t="s">
-        <v>2071</v>
+        <v>2068</v>
       </c>
       <c r="C59" s="71" t="s">
-        <v>2064</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="60" spans="1:3 16384:16384">
@@ -20785,10 +20767,10 @@
         <v>1721</v>
       </c>
       <c r="B63" t="s">
-        <v>2205</v>
+        <v>2201</v>
       </c>
       <c r="C63" t="s">
-        <v>2205</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="64" spans="1:3 16384:16384">
@@ -20796,10 +20778,10 @@
         <v>1721</v>
       </c>
       <c r="B64" s="71" t="s">
-        <v>2209</v>
+        <v>2205</v>
       </c>
       <c r="C64" s="71" t="s">
-        <v>2209</v>
+        <v>2205</v>
       </c>
       <c r="XFD64" s="71"/>
     </row>
@@ -20808,10 +20790,10 @@
         <v>1721</v>
       </c>
       <c r="B65" t="s">
-        <v>2208</v>
+        <v>2204</v>
       </c>
       <c r="C65" t="s">
-        <v>2208</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -20819,10 +20801,10 @@
         <v>1721</v>
       </c>
       <c r="B66" t="s">
-        <v>2206</v>
+        <v>2202</v>
       </c>
       <c r="C66" t="s">
-        <v>2206</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -20830,10 +20812,10 @@
         <v>1721</v>
       </c>
       <c r="B67" t="s">
-        <v>2204</v>
+        <v>2200</v>
       </c>
       <c r="C67" t="s">
-        <v>2204</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -20841,10 +20823,10 @@
         <v>1721</v>
       </c>
       <c r="B68" t="s">
-        <v>2207</v>
+        <v>2203</v>
       </c>
       <c r="C68" t="s">
-        <v>2207</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -20852,10 +20834,10 @@
         <v>1722</v>
       </c>
       <c r="B69" t="s">
-        <v>2073</v>
+        <v>2070</v>
       </c>
       <c r="C69" t="s">
-        <v>2073</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -20863,10 +20845,10 @@
         <v>1723</v>
       </c>
       <c r="B70" t="s">
-        <v>2074</v>
+        <v>2071</v>
       </c>
       <c r="C70" t="s">
-        <v>2074</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -20874,10 +20856,10 @@
         <v>1721</v>
       </c>
       <c r="B71" t="s">
-        <v>2072</v>
+        <v>2069</v>
       </c>
       <c r="C71" t="s">
-        <v>2072</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -20885,10 +20867,10 @@
         <v>1724</v>
       </c>
       <c r="B72" t="s">
-        <v>2075</v>
+        <v>2072</v>
       </c>
       <c r="C72" t="s">
-        <v>2075</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -20896,10 +20878,10 @@
         <v>1721</v>
       </c>
       <c r="B73" t="s">
-        <v>2077</v>
+        <v>2074</v>
       </c>
       <c r="C73" t="s">
-        <v>2077</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -20907,10 +20889,10 @@
         <v>1721</v>
       </c>
       <c r="B74" t="s">
-        <v>2076</v>
+        <v>2073</v>
       </c>
       <c r="C74" t="s">
-        <v>2076</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -20918,10 +20900,10 @@
         <v>1721</v>
       </c>
       <c r="B75" t="s">
-        <v>2210</v>
+        <v>2206</v>
       </c>
       <c r="C75" t="s">
-        <v>2210</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -20929,10 +20911,10 @@
         <v>1721</v>
       </c>
       <c r="B76" t="s">
-        <v>2078</v>
+        <v>2075</v>
       </c>
       <c r="C76" t="s">
-        <v>2078</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -20940,10 +20922,10 @@
         <v>1721</v>
       </c>
       <c r="B77" t="s">
-        <v>2079</v>
+        <v>2076</v>
       </c>
       <c r="C77" t="s">
-        <v>2079</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -20951,10 +20933,10 @@
         <v>1721</v>
       </c>
       <c r="B78" t="s">
-        <v>2080</v>
+        <v>2077</v>
       </c>
       <c r="C78" t="s">
-        <v>2080</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -20962,10 +20944,10 @@
         <v>1721</v>
       </c>
       <c r="B79" t="s">
-        <v>2081</v>
+        <v>2078</v>
       </c>
       <c r="C79" t="s">
-        <v>2081</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -20973,10 +20955,10 @@
         <v>1721</v>
       </c>
       <c r="B80" t="s">
-        <v>2082</v>
+        <v>2079</v>
       </c>
       <c r="C80" t="s">
-        <v>2082</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -21050,10 +21032,10 @@
         <v>1694</v>
       </c>
       <c r="B89" s="71" t="s">
-        <v>2083</v>
+        <v>2080</v>
       </c>
       <c r="C89" t="s">
-        <v>2083</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -21061,10 +21043,10 @@
         <v>1695</v>
       </c>
       <c r="B90" s="71" t="s">
-        <v>2084</v>
+        <v>2081</v>
       </c>
       <c r="C90" t="s">
-        <v>2084</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -21072,10 +21054,10 @@
         <v>1696</v>
       </c>
       <c r="B91" s="71" t="s">
-        <v>2085</v>
+        <v>2082</v>
       </c>
       <c r="C91" t="s">
-        <v>2085</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -21083,10 +21065,10 @@
         <v>1684</v>
       </c>
       <c r="B93" t="s">
-        <v>2054</v>
+        <v>2051</v>
       </c>
       <c r="C93" t="s">
-        <v>2054</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -21094,10 +21076,10 @@
         <v>1689</v>
       </c>
       <c r="B94" t="s">
-        <v>2086</v>
+        <v>2083</v>
       </c>
       <c r="C94" t="s">
-        <v>2086</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -21160,10 +21142,10 @@
         <v>1867</v>
       </c>
       <c r="B101" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="C101" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -21171,10 +21153,10 @@
         <v>1867</v>
       </c>
       <c r="B102" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="C102" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -21248,10 +21230,10 @@
         <v>1708</v>
       </c>
       <c r="B110" t="s">
-        <v>2195</v>
+        <v>2191</v>
       </c>
       <c r="C110" t="s">
-        <v>2195</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -21311,7 +21293,7 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="B119" t="s">
         <v>1667</v>
@@ -21344,13 +21326,13 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="B124" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C124" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="129" customFormat="1"/>
@@ -21413,7 +21395,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="B2" t="s">
         <v>1734</v>
@@ -21422,7 +21404,7 @@
         <v>1735</v>
       </c>
       <c r="D2" s="63" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="H2" t="s">
         <v>1449</v>
